--- a/參數/PK 組立機要求規格-新版(20250421_更新).xlsx
+++ b/參數/PK 組立機要求規格-新版(20250421_更新).xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\afuku\OneDrive\文件\20250421_開會\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\123\Documents\GitHub\DobotM1Project\參數\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8D8C65A7-609F-41BC-9A8B-F1D939FD2731}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13AC1F3A-81E8-408D-A94B-92038FFD75F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4800" yWindow="7455" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="會議摘要" sheetId="14" r:id="rId1"/>
@@ -3596,7 +3596,7 @@
     <numFmt numFmtId="178" formatCode="#,##0_ "/>
     <numFmt numFmtId="179" formatCode="#,##0_);[Red]\(#,##0\)"/>
   </numFmts>
-  <fonts count="50">
+  <fonts count="51">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3956,6 +3956,15 @@
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="10">
     <fill>
@@ -4243,7 +4252,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="188">
+  <cellXfs count="190">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4541,16 +4550,21 @@
     <xf numFmtId="0" fontId="29" fillId="9" borderId="1" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="14" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="4" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="4" applyFont="1"/>
+    <xf numFmtId="0" fontId="40" fillId="9" borderId="1" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="4" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="4" applyFont="1"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="1" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="14" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4565,11 +4579,146 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="29" fillId="0" borderId="12" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="29" fillId="0" borderId="16" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="29" fillId="0" borderId="4" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="29" fillId="0" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="7" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="9" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="14" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="6" borderId="7" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="6" borderId="9" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="16" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="29" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="29" fillId="0" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="14" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="9" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="4" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="4" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="16" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="9" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="9" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="14" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4589,134 +4738,23 @@
     <xf numFmtId="0" fontId="30" fillId="0" borderId="14" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="4" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="8" borderId="0" xfId="11" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="11" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="11">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="9" borderId="13" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="6" borderId="7" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="43" fillId="9" borderId="15" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="6" borderId="9" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="43" fillId="9" borderId="14" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="9" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="9" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="9" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="7" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="9" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="4" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="4" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="14" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="16" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="16" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="14" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="29" fillId="0" borderId="12" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="29" fillId="0" borderId="16" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="29" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="29" fillId="0" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="29" fillId="0" borderId="4" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="29" fillId="0" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="12" xfId="11" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -4742,35 +4780,20 @@
     <xf numFmtId="179" fontId="20" fillId="0" borderId="9" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="12" xfId="11" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="11" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="11" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="11" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="12" xfId="11" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="11" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="8" borderId="0" xfId="11" applyNumberFormat="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="11" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="11">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="9" borderId="13" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="9" borderId="15" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="9" borderId="14" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4784,18 +4807,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="4" applyFont="1"/>
-    <xf numFmtId="0" fontId="40" fillId="9" borderId="1" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="50" fillId="6" borderId="7" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="4" applyFont="1"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="1" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="50" fillId="6" borderId="9" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -5817,13 +5832,13 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="0.77734375" style="14" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" style="14" customWidth="1"/>
-    <col min="3" max="3" width="4.77734375" style="14" customWidth="1"/>
-    <col min="4" max="4" width="48.6640625" style="14" customWidth="1"/>
-    <col min="5" max="5" width="36.21875" style="14" customWidth="1"/>
-    <col min="6" max="6" width="26.6640625" style="14" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="1.109375" style="14" customWidth="1"/>
+    <col min="1" max="1" width="0.75" style="14" customWidth="1"/>
+    <col min="2" max="2" width="11.875" style="14" customWidth="1"/>
+    <col min="3" max="3" width="4.75" style="14" customWidth="1"/>
+    <col min="4" max="4" width="48.625" style="14" customWidth="1"/>
+    <col min="5" max="5" width="36.25" style="14" customWidth="1"/>
+    <col min="6" max="6" width="26.625" style="14" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="1.125" style="14" customWidth="1"/>
     <col min="8" max="16384" width="9" style="14"/>
   </cols>
   <sheetData>
@@ -7738,79 +7753,79 @@
   </sheetPr>
   <dimension ref="B2:AF41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="4" topLeftCell="E5" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <pane xSplit="4" ySplit="4" topLeftCell="E12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="AA36" sqref="AA36"/>
+      <selection pane="bottomRight" activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="0.88671875" style="34" customWidth="1"/>
-    <col min="2" max="2" width="5.44140625" style="34" customWidth="1"/>
-    <col min="3" max="4" width="11.44140625" style="34" customWidth="1"/>
-    <col min="5" max="5" width="11.109375" style="34" customWidth="1"/>
-    <col min="6" max="7" width="5.88671875" style="34" customWidth="1"/>
-    <col min="8" max="8" width="5.77734375" style="34" customWidth="1"/>
-    <col min="9" max="11" width="5.21875" style="34" customWidth="1"/>
-    <col min="12" max="12" width="5.44140625" style="34" customWidth="1"/>
-    <col min="13" max="13" width="5.21875" style="34" customWidth="1"/>
-    <col min="14" max="14" width="11.109375" style="34" customWidth="1"/>
-    <col min="15" max="15" width="5.77734375" style="34" customWidth="1"/>
-    <col min="16" max="16" width="5.21875" style="34" customWidth="1"/>
-    <col min="17" max="17" width="5.44140625" style="78" customWidth="1"/>
-    <col min="18" max="18" width="5.21875" style="78" customWidth="1"/>
-    <col min="19" max="19" width="11.109375" style="34" customWidth="1"/>
-    <col min="20" max="20" width="5.77734375" style="34" customWidth="1"/>
-    <col min="21" max="21" width="5.21875" style="34" customWidth="1"/>
-    <col min="22" max="22" width="5.77734375" style="34" customWidth="1"/>
-    <col min="23" max="23" width="5.21875" style="34" customWidth="1"/>
-    <col min="24" max="24" width="5.44140625" style="34" customWidth="1"/>
-    <col min="25" max="25" width="5.21875" style="34" customWidth="1"/>
-    <col min="26" max="26" width="6.77734375" style="34" customWidth="1"/>
-    <col min="27" max="27" width="27.6640625" style="34" customWidth="1"/>
+    <col min="1" max="1" width="0.875" style="34" customWidth="1"/>
+    <col min="2" max="2" width="5.5" style="34" customWidth="1"/>
+    <col min="3" max="4" width="11.5" style="34" customWidth="1"/>
+    <col min="5" max="5" width="11.125" style="34" customWidth="1"/>
+    <col min="6" max="7" width="5.875" style="34" customWidth="1"/>
+    <col min="8" max="8" width="5.75" style="34" customWidth="1"/>
+    <col min="9" max="11" width="5.25" style="34" customWidth="1"/>
+    <col min="12" max="12" width="5.5" style="34" customWidth="1"/>
+    <col min="13" max="13" width="5.25" style="34" customWidth="1"/>
+    <col min="14" max="14" width="11.125" style="34" customWidth="1"/>
+    <col min="15" max="15" width="5.75" style="34" customWidth="1"/>
+    <col min="16" max="16" width="5.25" style="34" customWidth="1"/>
+    <col min="17" max="17" width="5.5" style="78" customWidth="1"/>
+    <col min="18" max="18" width="5.25" style="78" customWidth="1"/>
+    <col min="19" max="19" width="11.125" style="34" customWidth="1"/>
+    <col min="20" max="20" width="5.75" style="34" customWidth="1"/>
+    <col min="21" max="21" width="5.25" style="34" customWidth="1"/>
+    <col min="22" max="22" width="5.75" style="34" customWidth="1"/>
+    <col min="23" max="23" width="5.25" style="34" customWidth="1"/>
+    <col min="24" max="24" width="5.5" style="34" customWidth="1"/>
+    <col min="25" max="25" width="5.25" style="34" customWidth="1"/>
+    <col min="26" max="26" width="6.75" style="34" customWidth="1"/>
+    <col min="27" max="27" width="27.625" style="34" customWidth="1"/>
     <col min="28" max="28" width="9" style="34"/>
-    <col min="29" max="29" width="13.33203125" style="34" customWidth="1"/>
+    <col min="29" max="29" width="13.375" style="34" customWidth="1"/>
     <col min="30" max="16384" width="9" style="34"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:32" ht="7.5" customHeight="1"/>
     <row r="3" spans="2:32" ht="19.5" customHeight="1">
-      <c r="B3" s="111" t="s">
+      <c r="B3" s="159" t="s">
         <v>111</v>
       </c>
-      <c r="C3" s="112"/>
-      <c r="D3" s="113"/>
-      <c r="E3" s="114" t="s">
+      <c r="C3" s="160"/>
+      <c r="D3" s="161"/>
+      <c r="E3" s="162" t="s">
         <v>128</v>
       </c>
-      <c r="F3" s="114"/>
-      <c r="G3" s="114"/>
-      <c r="H3" s="114"/>
-      <c r="I3" s="114"/>
-      <c r="J3" s="114"/>
-      <c r="K3" s="114"/>
-      <c r="L3" s="114"/>
-      <c r="M3" s="114"/>
-      <c r="N3" s="114" t="s">
+      <c r="F3" s="162"/>
+      <c r="G3" s="162"/>
+      <c r="H3" s="162"/>
+      <c r="I3" s="162"/>
+      <c r="J3" s="162"/>
+      <c r="K3" s="162"/>
+      <c r="L3" s="162"/>
+      <c r="M3" s="162"/>
+      <c r="N3" s="162" t="s">
         <v>131</v>
       </c>
-      <c r="O3" s="114"/>
-      <c r="P3" s="114"/>
-      <c r="Q3" s="114"/>
-      <c r="R3" s="114"/>
-      <c r="S3" s="114" t="s">
+      <c r="O3" s="162"/>
+      <c r="P3" s="162"/>
+      <c r="Q3" s="162"/>
+      <c r="R3" s="162"/>
+      <c r="S3" s="162" t="s">
         <v>123</v>
       </c>
-      <c r="T3" s="114"/>
-      <c r="U3" s="114"/>
-      <c r="V3" s="114"/>
-      <c r="W3" s="114"/>
-      <c r="X3" s="114"/>
-      <c r="Y3" s="114"/>
-      <c r="Z3" s="114"/>
-      <c r="AA3" s="186" t="s">
+      <c r="T3" s="162"/>
+      <c r="U3" s="162"/>
+      <c r="V3" s="162"/>
+      <c r="W3" s="162"/>
+      <c r="X3" s="162"/>
+      <c r="Y3" s="162"/>
+      <c r="Z3" s="162"/>
+      <c r="AA3" s="104" t="s">
         <v>746</v>
       </c>
     </row>
@@ -7833,50 +7848,50 @@
       <c r="G4" s="82" t="s">
         <v>130</v>
       </c>
-      <c r="H4" s="101" t="s">
+      <c r="H4" s="157" t="s">
         <v>125</v>
       </c>
-      <c r="I4" s="102"/>
-      <c r="J4" s="101" t="s">
+      <c r="I4" s="158"/>
+      <c r="J4" s="157" t="s">
         <v>682</v>
       </c>
-      <c r="K4" s="102"/>
-      <c r="L4" s="101" t="s">
+      <c r="K4" s="158"/>
+      <c r="L4" s="157" t="s">
         <v>126</v>
       </c>
-      <c r="M4" s="102"/>
+      <c r="M4" s="158"/>
       <c r="N4" s="45" t="s">
         <v>85</v>
       </c>
-      <c r="O4" s="101" t="s">
+      <c r="O4" s="157" t="s">
         <v>124</v>
       </c>
-      <c r="P4" s="102"/>
-      <c r="Q4" s="115" t="s">
+      <c r="P4" s="158"/>
+      <c r="Q4" s="163" t="s">
         <v>126</v>
       </c>
-      <c r="R4" s="116"/>
+      <c r="R4" s="164"/>
       <c r="S4" s="45" t="s">
         <v>85</v>
       </c>
-      <c r="T4" s="101" t="s">
+      <c r="T4" s="157" t="s">
         <v>125</v>
       </c>
-      <c r="U4" s="102"/>
-      <c r="V4" s="101" t="s">
+      <c r="U4" s="158"/>
+      <c r="V4" s="157" t="s">
         <v>124</v>
       </c>
-      <c r="W4" s="102"/>
-      <c r="X4" s="101" t="s">
+      <c r="W4" s="158"/>
+      <c r="X4" s="157" t="s">
         <v>126</v>
       </c>
-      <c r="Y4" s="102"/>
+      <c r="Y4" s="158"/>
       <c r="Z4" s="81" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="5" spans="2:32" ht="18" customHeight="1">
-      <c r="B5" s="103">
+      <c r="B5" s="138">
         <v>10</v>
       </c>
       <c r="C5" s="47" t="s">
@@ -7896,10 +7911,10 @@
         <v>21.8</v>
       </c>
       <c r="I5" s="85"/>
-      <c r="J5" s="105">
+      <c r="J5" s="108">
         <v>4.0999999999999996</v>
       </c>
-      <c r="K5" s="106"/>
+      <c r="K5" s="109"/>
       <c r="L5" s="86">
         <v>9.8000000000000007</v>
       </c>
@@ -7907,10 +7922,10 @@
       <c r="N5" s="42" t="s">
         <v>134</v>
       </c>
-      <c r="O5" s="109" t="s">
+      <c r="O5" s="106" t="s">
         <v>214</v>
       </c>
-      <c r="P5" s="110"/>
+      <c r="P5" s="107"/>
       <c r="Q5" s="87" t="s">
         <v>683</v>
       </c>
@@ -7941,14 +7956,14 @@
       </c>
     </row>
     <row r="6" spans="2:32" ht="18" customHeight="1">
-      <c r="B6" s="104"/>
-      <c r="C6" s="183" t="s">
+      <c r="B6" s="140"/>
+      <c r="C6" s="101" t="s">
         <v>156</v>
       </c>
-      <c r="D6" s="183" t="s">
+      <c r="D6" s="101" t="s">
         <v>157</v>
       </c>
-      <c r="E6" s="185" t="s">
+      <c r="E6" s="103" t="s">
         <v>158</v>
       </c>
       <c r="F6" s="83" t="s">
@@ -7959,8 +7974,8 @@
         <v>21</v>
       </c>
       <c r="I6" s="85"/>
-      <c r="J6" s="107"/>
-      <c r="K6" s="108"/>
+      <c r="J6" s="110"/>
+      <c r="K6" s="111"/>
       <c r="L6" s="86">
         <v>8.6999999999999993</v>
       </c>
@@ -7968,10 +7983,10 @@
       <c r="N6" s="42" t="s">
         <v>159</v>
       </c>
-      <c r="O6" s="109" t="s">
+      <c r="O6" s="106" t="s">
         <v>214</v>
       </c>
-      <c r="P6" s="110"/>
+      <c r="P6" s="107"/>
       <c r="Q6" s="87">
         <v>8.5</v>
       </c>
@@ -7979,10 +7994,10 @@
       <c r="S6" s="42" t="s">
         <v>160</v>
       </c>
-      <c r="T6" s="105" t="s">
+      <c r="T6" s="108" t="s">
         <v>684</v>
       </c>
-      <c r="U6" s="106"/>
+      <c r="U6" s="109"/>
       <c r="V6" s="84" t="s">
         <v>685</v>
       </c>
@@ -7994,12 +8009,12 @@
       <c r="Z6" s="88" t="s">
         <v>686</v>
       </c>
-      <c r="AA6" s="184" t="s">
+      <c r="AA6" s="102" t="s">
         <v>743</v>
       </c>
     </row>
     <row r="7" spans="2:32" ht="18" customHeight="1">
-      <c r="B7" s="103">
+      <c r="B7" s="138">
         <v>12</v>
       </c>
       <c r="C7" s="118" t="s">
@@ -8030,35 +8045,35 @@
       <c r="N7" s="42" t="s">
         <v>172</v>
       </c>
-      <c r="O7" s="109" t="s">
+      <c r="O7" s="106" t="s">
         <v>215</v>
       </c>
-      <c r="P7" s="110"/>
+      <c r="P7" s="107"/>
       <c r="Q7" s="87">
         <v>8.6</v>
       </c>
       <c r="R7" s="85"/>
-      <c r="S7" s="132" t="s">
+      <c r="S7" s="116" t="s">
         <v>174</v>
       </c>
-      <c r="T7" s="105">
+      <c r="T7" s="108">
         <v>18.5</v>
       </c>
-      <c r="U7" s="106"/>
-      <c r="V7" s="105" t="s">
+      <c r="U7" s="109"/>
+      <c r="V7" s="108" t="s">
         <v>687</v>
       </c>
-      <c r="W7" s="106"/>
-      <c r="X7" s="105" t="s">
+      <c r="W7" s="109"/>
+      <c r="X7" s="108" t="s">
         <v>688</v>
       </c>
-      <c r="Y7" s="106"/>
-      <c r="Z7" s="128" t="s">
+      <c r="Y7" s="109"/>
+      <c r="Z7" s="154" t="s">
         <v>689</v>
       </c>
     </row>
     <row r="8" spans="2:32" ht="18" customHeight="1">
-      <c r="B8" s="117"/>
+      <c r="B8" s="139"/>
       <c r="C8" s="119"/>
       <c r="D8" s="121"/>
       <c r="E8" s="99" t="s">
@@ -8072,10 +8087,10 @@
         <v>22.85</v>
       </c>
       <c r="I8" s="85"/>
-      <c r="J8" s="105">
+      <c r="J8" s="108">
         <v>4.4000000000000004</v>
       </c>
-      <c r="K8" s="106"/>
+      <c r="K8" s="109"/>
       <c r="L8" s="86">
         <v>9.6</v>
       </c>
@@ -8083,35 +8098,35 @@
       <c r="N8" s="42" t="s">
         <v>173</v>
       </c>
-      <c r="O8" s="109" t="s">
+      <c r="O8" s="106" t="s">
         <v>216</v>
       </c>
-      <c r="P8" s="110"/>
+      <c r="P8" s="107"/>
       <c r="Q8" s="87">
         <v>8.8000000000000007</v>
       </c>
       <c r="R8" s="85"/>
-      <c r="S8" s="133"/>
-      <c r="T8" s="107"/>
-      <c r="U8" s="108"/>
-      <c r="V8" s="107"/>
-      <c r="W8" s="108"/>
-      <c r="X8" s="107"/>
-      <c r="Y8" s="108"/>
-      <c r="Z8" s="129"/>
-      <c r="AA8" s="186" t="s">
+      <c r="S8" s="117"/>
+      <c r="T8" s="110"/>
+      <c r="U8" s="111"/>
+      <c r="V8" s="110"/>
+      <c r="W8" s="111"/>
+      <c r="X8" s="110"/>
+      <c r="Y8" s="111"/>
+      <c r="Z8" s="155"/>
+      <c r="AA8" s="104" t="s">
         <v>745</v>
       </c>
     </row>
     <row r="9" spans="2:32" ht="18" customHeight="1">
-      <c r="B9" s="104"/>
-      <c r="C9" s="183" t="s">
+      <c r="B9" s="140"/>
+      <c r="C9" s="101" t="s">
         <v>161</v>
       </c>
-      <c r="D9" s="183" t="s">
+      <c r="D9" s="101" t="s">
         <v>162</v>
       </c>
-      <c r="E9" s="187" t="s">
+      <c r="E9" s="105" t="s">
         <v>163</v>
       </c>
       <c r="F9" s="83" t="s">
@@ -8122,8 +8137,8 @@
         <v>22.9</v>
       </c>
       <c r="I9" s="85"/>
-      <c r="J9" s="107"/>
-      <c r="K9" s="108"/>
+      <c r="J9" s="110"/>
+      <c r="K9" s="111"/>
       <c r="L9" s="84">
         <v>9.6</v>
       </c>
@@ -8131,10 +8146,10 @@
       <c r="N9" s="42" t="s">
         <v>164</v>
       </c>
-      <c r="O9" s="109" t="s">
+      <c r="O9" s="106" t="s">
         <v>216</v>
       </c>
-      <c r="P9" s="110"/>
+      <c r="P9" s="107"/>
       <c r="Q9" s="91">
         <v>9</v>
       </c>
@@ -8142,14 +8157,14 @@
       <c r="S9" s="42" t="s">
         <v>165</v>
       </c>
-      <c r="T9" s="105" t="s">
+      <c r="T9" s="108" t="s">
         <v>690</v>
       </c>
-      <c r="U9" s="106"/>
-      <c r="V9" s="105" t="s">
+      <c r="U9" s="109"/>
+      <c r="V9" s="108" t="s">
         <v>691</v>
       </c>
-      <c r="W9" s="106"/>
+      <c r="W9" s="109"/>
       <c r="X9" s="86">
         <v>4</v>
       </c>
@@ -8157,12 +8172,12 @@
       <c r="Z9" s="88" t="s">
         <v>689</v>
       </c>
-      <c r="AA9" s="184" t="s">
+      <c r="AA9" s="102" t="s">
         <v>744</v>
       </c>
     </row>
     <row r="10" spans="2:32" ht="18" customHeight="1">
-      <c r="B10" s="103">
+      <c r="B10" s="138">
         <v>13</v>
       </c>
       <c r="C10" s="118" t="s">
@@ -8171,11 +8186,11 @@
       <c r="D10" s="120" t="s">
         <v>184</v>
       </c>
-      <c r="E10" s="122" t="s">
+      <c r="E10" s="126" t="s">
         <v>170</v>
       </c>
-      <c r="F10" s="124"/>
-      <c r="G10" s="126" t="s">
+      <c r="F10" s="143"/>
+      <c r="G10" s="152" t="s">
         <v>195</v>
       </c>
       <c r="H10" s="84">
@@ -8190,65 +8205,65 @@
         <v>10</v>
       </c>
       <c r="M10" s="85"/>
-      <c r="N10" s="132" t="s">
+      <c r="N10" s="116" t="s">
         <v>185</v>
       </c>
-      <c r="O10" s="134" t="s">
+      <c r="O10" s="156" t="s">
         <v>217</v>
       </c>
-      <c r="P10" s="106"/>
-      <c r="Q10" s="105">
+      <c r="P10" s="109"/>
+      <c r="Q10" s="108">
         <v>8.6</v>
       </c>
-      <c r="R10" s="106"/>
-      <c r="S10" s="132" t="s">
+      <c r="R10" s="109"/>
+      <c r="S10" s="116" t="s">
         <v>186</v>
       </c>
-      <c r="T10" s="130"/>
-      <c r="U10" s="131"/>
-      <c r="V10" s="105" t="s">
+      <c r="T10" s="124"/>
+      <c r="U10" s="125"/>
+      <c r="V10" s="108" t="s">
         <v>692</v>
       </c>
-      <c r="W10" s="106"/>
-      <c r="X10" s="105" t="s">
+      <c r="W10" s="109"/>
+      <c r="X10" s="108" t="s">
         <v>693</v>
       </c>
-      <c r="Y10" s="106"/>
-      <c r="Z10" s="139" t="s">
+      <c r="Y10" s="109"/>
+      <c r="Z10" s="151" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="11" spans="2:32" ht="18" customHeight="1">
-      <c r="B11" s="117"/>
+      <c r="B11" s="139"/>
       <c r="C11" s="119"/>
       <c r="D11" s="121"/>
-      <c r="E11" s="123"/>
-      <c r="F11" s="125"/>
-      <c r="G11" s="127"/>
+      <c r="E11" s="127"/>
+      <c r="F11" s="144"/>
+      <c r="G11" s="153"/>
       <c r="H11" s="84"/>
       <c r="I11" s="85"/>
       <c r="J11" s="90"/>
       <c r="K11" s="90"/>
       <c r="L11" s="86"/>
       <c r="M11" s="85"/>
-      <c r="N11" s="133"/>
-      <c r="O11" s="107"/>
-      <c r="P11" s="108"/>
-      <c r="Q11" s="130"/>
-      <c r="R11" s="131"/>
-      <c r="S11" s="133"/>
-      <c r="T11" s="130"/>
-      <c r="U11" s="131"/>
-      <c r="V11" s="130"/>
-      <c r="W11" s="131"/>
-      <c r="X11" s="130"/>
-      <c r="Y11" s="131"/>
-      <c r="Z11" s="139" t="s">
+      <c r="N11" s="117"/>
+      <c r="O11" s="110"/>
+      <c r="P11" s="111"/>
+      <c r="Q11" s="124"/>
+      <c r="R11" s="125"/>
+      <c r="S11" s="117"/>
+      <c r="T11" s="124"/>
+      <c r="U11" s="125"/>
+      <c r="V11" s="124"/>
+      <c r="W11" s="125"/>
+      <c r="X11" s="124"/>
+      <c r="Y11" s="125"/>
+      <c r="Z11" s="151" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="12" spans="2:32" ht="18" customHeight="1">
-      <c r="B12" s="117"/>
+      <c r="B12" s="139"/>
       <c r="C12" s="118" t="s">
         <v>176</v>
       </c>
@@ -8277,32 +8292,32 @@
       <c r="N12" s="42" t="s">
         <v>185</v>
       </c>
-      <c r="O12" s="137" t="s">
+      <c r="O12" s="122" t="s">
         <v>219</v>
       </c>
-      <c r="P12" s="138"/>
-      <c r="Q12" s="107"/>
-      <c r="R12" s="108"/>
-      <c r="S12" s="132" t="s">
+      <c r="P12" s="123"/>
+      <c r="Q12" s="110"/>
+      <c r="R12" s="111"/>
+      <c r="S12" s="116" t="s">
         <v>186</v>
       </c>
-      <c r="T12" s="130"/>
-      <c r="U12" s="131"/>
-      <c r="V12" s="130"/>
-      <c r="W12" s="131"/>
-      <c r="X12" s="130"/>
-      <c r="Y12" s="131"/>
+      <c r="T12" s="124"/>
+      <c r="U12" s="125"/>
+      <c r="V12" s="124"/>
+      <c r="W12" s="125"/>
+      <c r="X12" s="124"/>
+      <c r="Y12" s="125"/>
       <c r="Z12" s="88" t="s">
         <v>109</v>
       </c>
-      <c r="AB12" s="135"/>
-      <c r="AC12" s="135"/>
-      <c r="AD12" s="136"/>
-      <c r="AE12" s="135"/>
+      <c r="AB12" s="145"/>
+      <c r="AC12" s="145"/>
+      <c r="AD12" s="146"/>
+      <c r="AE12" s="145"/>
       <c r="AF12" s="38"/>
     </row>
     <row r="13" spans="2:32" ht="18" customHeight="1">
-      <c r="B13" s="117"/>
+      <c r="B13" s="139"/>
       <c r="C13" s="119"/>
       <c r="D13" s="121"/>
       <c r="E13" s="100" t="s">
@@ -8327,21 +8342,21 @@
       <c r="N13" s="42" t="s">
         <v>187</v>
       </c>
-      <c r="O13" s="109" t="s">
+      <c r="O13" s="106" t="s">
         <v>218</v>
       </c>
-      <c r="P13" s="110"/>
+      <c r="P13" s="107"/>
       <c r="Q13" s="91">
         <v>9</v>
       </c>
       <c r="R13" s="85"/>
-      <c r="S13" s="133"/>
-      <c r="T13" s="130"/>
-      <c r="U13" s="131"/>
-      <c r="V13" s="130"/>
-      <c r="W13" s="131"/>
-      <c r="X13" s="130"/>
-      <c r="Y13" s="131"/>
+      <c r="S13" s="117"/>
+      <c r="T13" s="124"/>
+      <c r="U13" s="125"/>
+      <c r="V13" s="124"/>
+      <c r="W13" s="125"/>
+      <c r="X13" s="124"/>
+      <c r="Y13" s="125"/>
       <c r="Z13" s="88" t="s">
         <v>109</v>
       </c>
@@ -8352,7 +8367,7 @@
       <c r="AF13" s="38"/>
     </row>
     <row r="14" spans="2:32" ht="18" customHeight="1">
-      <c r="B14" s="117"/>
+      <c r="B14" s="139"/>
       <c r="C14" s="118" t="s">
         <v>177</v>
       </c>
@@ -8381,23 +8396,23 @@
       <c r="N14" s="42" t="s">
         <v>185</v>
       </c>
-      <c r="O14" s="137" t="s">
+      <c r="O14" s="122" t="s">
         <v>219</v>
       </c>
-      <c r="P14" s="138"/>
+      <c r="P14" s="123"/>
       <c r="Q14" s="91">
         <v>8.6</v>
       </c>
       <c r="R14" s="85"/>
-      <c r="S14" s="132" t="s">
+      <c r="S14" s="116" t="s">
         <v>186</v>
       </c>
-      <c r="T14" s="130"/>
-      <c r="U14" s="131"/>
-      <c r="V14" s="130"/>
-      <c r="W14" s="131"/>
-      <c r="X14" s="130"/>
-      <c r="Y14" s="131"/>
+      <c r="T14" s="124"/>
+      <c r="U14" s="125"/>
+      <c r="V14" s="124"/>
+      <c r="W14" s="125"/>
+      <c r="X14" s="124"/>
+      <c r="Y14" s="125"/>
       <c r="Z14" s="88" t="s">
         <v>109</v>
       </c>
@@ -8408,7 +8423,7 @@
       <c r="AF14" s="38"/>
     </row>
     <row r="15" spans="2:32" ht="18" customHeight="1">
-      <c r="B15" s="104"/>
+      <c r="B15" s="140"/>
       <c r="C15" s="119"/>
       <c r="D15" s="121"/>
       <c r="E15" s="42" t="s">
@@ -8433,21 +8448,21 @@
       <c r="N15" s="42" t="s">
         <v>187</v>
       </c>
-      <c r="O15" s="137" t="s">
+      <c r="O15" s="122" t="s">
         <v>219</v>
       </c>
-      <c r="P15" s="138"/>
+      <c r="P15" s="123"/>
       <c r="Q15" s="91">
         <v>9</v>
       </c>
       <c r="R15" s="85"/>
-      <c r="S15" s="133"/>
-      <c r="T15" s="107"/>
-      <c r="U15" s="108"/>
-      <c r="V15" s="107"/>
-      <c r="W15" s="108"/>
-      <c r="X15" s="107"/>
-      <c r="Y15" s="108"/>
+      <c r="S15" s="117"/>
+      <c r="T15" s="110"/>
+      <c r="U15" s="111"/>
+      <c r="V15" s="110"/>
+      <c r="W15" s="111"/>
+      <c r="X15" s="110"/>
+      <c r="Y15" s="111"/>
       <c r="Z15" s="88" t="s">
         <v>109</v>
       </c>
@@ -8455,7 +8470,7 @@
       <c r="AF15" s="37"/>
     </row>
     <row r="16" spans="2:32" ht="18" customHeight="1">
-      <c r="B16" s="103">
+      <c r="B16" s="138">
         <v>14</v>
       </c>
       <c r="C16" s="120" t="s">
@@ -8471,58 +8486,58 @@
       <c r="G16" s="83" t="s">
         <v>195</v>
       </c>
-      <c r="H16" s="105">
+      <c r="H16" s="108">
         <v>26.5</v>
       </c>
-      <c r="I16" s="106"/>
-      <c r="J16" s="105">
+      <c r="I16" s="109"/>
+      <c r="J16" s="108">
         <v>4.7</v>
       </c>
-      <c r="K16" s="106"/>
+      <c r="K16" s="109"/>
       <c r="L16" s="84">
         <v>10.55</v>
       </c>
       <c r="M16" s="85"/>
-      <c r="N16" s="132" t="s">
+      <c r="N16" s="116" t="s">
         <v>141</v>
       </c>
-      <c r="O16" s="144" t="s">
+      <c r="O16" s="147" t="s">
         <v>220</v>
       </c>
-      <c r="P16" s="145"/>
-      <c r="Q16" s="105">
+      <c r="P16" s="148"/>
+      <c r="Q16" s="108">
         <v>8.5</v>
       </c>
-      <c r="R16" s="106"/>
-      <c r="S16" s="132" t="s">
+      <c r="R16" s="109"/>
+      <c r="S16" s="188" t="s">
         <v>142</v>
       </c>
-      <c r="T16" s="105" t="s">
+      <c r="T16" s="108" t="s">
         <v>694</v>
       </c>
-      <c r="U16" s="106"/>
-      <c r="V16" s="105" t="s">
+      <c r="U16" s="109"/>
+      <c r="V16" s="108" t="s">
         <v>695</v>
       </c>
-      <c r="W16" s="106"/>
-      <c r="X16" s="105" t="s">
+      <c r="W16" s="109"/>
+      <c r="X16" s="108" t="s">
         <v>696</v>
       </c>
-      <c r="Y16" s="106"/>
-      <c r="Z16" s="124" t="s">
+      <c r="Y16" s="109"/>
+      <c r="Z16" s="143" t="s">
         <v>109</v>
       </c>
-      <c r="AA16" s="186" t="s">
+      <c r="AA16" s="104" t="s">
         <v>745</v>
       </c>
-      <c r="AB16" s="135"/>
-      <c r="AC16" s="135"/>
-      <c r="AD16" s="136"/>
-      <c r="AE16" s="135"/>
+      <c r="AB16" s="145"/>
+      <c r="AC16" s="145"/>
+      <c r="AD16" s="146"/>
+      <c r="AE16" s="145"/>
       <c r="AF16" s="38"/>
     </row>
     <row r="17" spans="2:32" ht="18" customHeight="1">
-      <c r="B17" s="117"/>
+      <c r="B17" s="139"/>
       <c r="C17" s="121"/>
       <c r="D17" s="121"/>
       <c r="E17" s="99" t="s">
@@ -8532,27 +8547,27 @@
       <c r="G17" s="83" t="s">
         <v>195</v>
       </c>
-      <c r="H17" s="130"/>
-      <c r="I17" s="131"/>
-      <c r="J17" s="130"/>
-      <c r="K17" s="131"/>
+      <c r="H17" s="124"/>
+      <c r="I17" s="125"/>
+      <c r="J17" s="124"/>
+      <c r="K17" s="125"/>
       <c r="L17" s="84">
         <v>10.75</v>
       </c>
       <c r="M17" s="85"/>
-      <c r="N17" s="133"/>
-      <c r="O17" s="146"/>
-      <c r="P17" s="147"/>
-      <c r="Q17" s="130"/>
-      <c r="R17" s="131"/>
-      <c r="S17" s="133"/>
-      <c r="T17" s="130"/>
-      <c r="U17" s="131"/>
-      <c r="V17" s="130"/>
-      <c r="W17" s="131"/>
-      <c r="X17" s="130"/>
-      <c r="Y17" s="131"/>
-      <c r="Z17" s="125" t="s">
+      <c r="N17" s="117"/>
+      <c r="O17" s="149"/>
+      <c r="P17" s="150"/>
+      <c r="Q17" s="124"/>
+      <c r="R17" s="125"/>
+      <c r="S17" s="189"/>
+      <c r="T17" s="124"/>
+      <c r="U17" s="125"/>
+      <c r="V17" s="124"/>
+      <c r="W17" s="125"/>
+      <c r="X17" s="124"/>
+      <c r="Y17" s="125"/>
+      <c r="Z17" s="144" t="s">
         <v>109</v>
       </c>
       <c r="AB17" s="37"/>
@@ -8562,7 +8577,7 @@
       <c r="AF17" s="38"/>
     </row>
     <row r="18" spans="2:32" ht="18" customHeight="1">
-      <c r="B18" s="117"/>
+      <c r="B18" s="139"/>
       <c r="C18" s="118" t="s">
         <v>178</v>
       </c>
@@ -8576,32 +8591,32 @@
       <c r="G18" s="83" t="s">
         <v>195</v>
       </c>
-      <c r="H18" s="130"/>
-      <c r="I18" s="131"/>
-      <c r="J18" s="130"/>
-      <c r="K18" s="131"/>
+      <c r="H18" s="124"/>
+      <c r="I18" s="125"/>
+      <c r="J18" s="124"/>
+      <c r="K18" s="125"/>
       <c r="L18" s="84">
         <v>10.55</v>
       </c>
       <c r="M18" s="85"/>
-      <c r="N18" s="132" t="s">
+      <c r="N18" s="116" t="s">
         <v>141</v>
       </c>
-      <c r="O18" s="140" t="s">
+      <c r="O18" s="128" t="s">
         <v>219</v>
       </c>
-      <c r="P18" s="141"/>
-      <c r="Q18" s="130"/>
-      <c r="R18" s="131"/>
-      <c r="S18" s="132" t="s">
+      <c r="P18" s="129"/>
+      <c r="Q18" s="124"/>
+      <c r="R18" s="125"/>
+      <c r="S18" s="116" t="s">
         <v>142</v>
       </c>
-      <c r="T18" s="130"/>
-      <c r="U18" s="131"/>
-      <c r="V18" s="130"/>
-      <c r="W18" s="131"/>
-      <c r="X18" s="130"/>
-      <c r="Y18" s="131"/>
+      <c r="T18" s="124"/>
+      <c r="U18" s="125"/>
+      <c r="V18" s="124"/>
+      <c r="W18" s="125"/>
+      <c r="X18" s="124"/>
+      <c r="Y18" s="125"/>
       <c r="Z18" s="88" t="s">
         <v>109</v>
       </c>
@@ -8612,7 +8627,7 @@
       <c r="AF18" s="38"/>
     </row>
     <row r="19" spans="2:32" ht="18" customHeight="1">
-      <c r="B19" s="117"/>
+      <c r="B19" s="139"/>
       <c r="C19" s="119"/>
       <c r="D19" s="121"/>
       <c r="E19" s="99" t="s">
@@ -8622,26 +8637,26 @@
       <c r="G19" s="83" t="s">
         <v>195</v>
       </c>
-      <c r="H19" s="130"/>
-      <c r="I19" s="131"/>
-      <c r="J19" s="107"/>
-      <c r="K19" s="108"/>
+      <c r="H19" s="124"/>
+      <c r="I19" s="125"/>
+      <c r="J19" s="110"/>
+      <c r="K19" s="111"/>
       <c r="L19" s="84">
         <v>10.75</v>
       </c>
       <c r="M19" s="85"/>
-      <c r="N19" s="133"/>
-      <c r="O19" s="142"/>
-      <c r="P19" s="143"/>
-      <c r="Q19" s="107"/>
-      <c r="R19" s="108"/>
-      <c r="S19" s="133"/>
-      <c r="T19" s="107"/>
-      <c r="U19" s="108"/>
-      <c r="V19" s="107"/>
-      <c r="W19" s="108"/>
-      <c r="X19" s="107"/>
-      <c r="Y19" s="108"/>
+      <c r="N19" s="117"/>
+      <c r="O19" s="132"/>
+      <c r="P19" s="133"/>
+      <c r="Q19" s="110"/>
+      <c r="R19" s="111"/>
+      <c r="S19" s="117"/>
+      <c r="T19" s="110"/>
+      <c r="U19" s="111"/>
+      <c r="V19" s="110"/>
+      <c r="W19" s="111"/>
+      <c r="X19" s="110"/>
+      <c r="Y19" s="111"/>
       <c r="Z19" s="88" t="s">
         <v>109</v>
       </c>
@@ -8652,7 +8667,7 @@
       <c r="AF19" s="38"/>
     </row>
     <row r="20" spans="2:32" ht="18" customHeight="1">
-      <c r="B20" s="117"/>
+      <c r="B20" s="139"/>
       <c r="C20" s="118" t="s">
         <v>179</v>
       </c>
@@ -8666,42 +8681,42 @@
       <c r="G20" s="83" t="s">
         <v>195</v>
       </c>
-      <c r="H20" s="130"/>
-      <c r="I20" s="131"/>
-      <c r="J20" s="105">
+      <c r="H20" s="124"/>
+      <c r="I20" s="125"/>
+      <c r="J20" s="108">
         <v>3.3</v>
       </c>
-      <c r="K20" s="106"/>
+      <c r="K20" s="109"/>
       <c r="L20" s="91">
         <v>9.5</v>
       </c>
       <c r="M20" s="85"/>
-      <c r="N20" s="132" t="s">
+      <c r="N20" s="116" t="s">
         <v>191</v>
       </c>
-      <c r="O20" s="148" t="s">
+      <c r="O20" s="141" t="s">
         <v>681</v>
       </c>
-      <c r="P20" s="149"/>
-      <c r="Q20" s="105">
+      <c r="P20" s="142"/>
+      <c r="Q20" s="108">
         <v>7.4</v>
       </c>
-      <c r="R20" s="106"/>
-      <c r="S20" s="132" t="s">
+      <c r="R20" s="109"/>
+      <c r="S20" s="116" t="s">
         <v>192</v>
       </c>
-      <c r="T20" s="105" t="s">
+      <c r="T20" s="108" t="s">
         <v>697</v>
       </c>
-      <c r="U20" s="106"/>
-      <c r="V20" s="105" t="s">
+      <c r="U20" s="109"/>
+      <c r="V20" s="108" t="s">
         <v>698</v>
       </c>
-      <c r="W20" s="106"/>
-      <c r="X20" s="105">
+      <c r="W20" s="109"/>
+      <c r="X20" s="108">
         <v>3.2</v>
       </c>
-      <c r="Y20" s="106"/>
+      <c r="Y20" s="109"/>
       <c r="Z20" s="88" t="s">
         <v>689</v>
       </c>
@@ -8712,7 +8727,7 @@
       <c r="AF20" s="38"/>
     </row>
     <row r="21" spans="2:32" ht="18" customHeight="1">
-      <c r="B21" s="117"/>
+      <c r="B21" s="139"/>
       <c r="C21" s="119"/>
       <c r="D21" s="121"/>
       <c r="E21" s="99" t="s">
@@ -8722,32 +8737,32 @@
       <c r="G21" s="83" t="s">
         <v>195</v>
       </c>
-      <c r="H21" s="107"/>
-      <c r="I21" s="108"/>
-      <c r="J21" s="107"/>
-      <c r="K21" s="108"/>
+      <c r="H21" s="110"/>
+      <c r="I21" s="111"/>
+      <c r="J21" s="110"/>
+      <c r="K21" s="111"/>
       <c r="L21" s="91">
         <v>9.5</v>
       </c>
       <c r="M21" s="85"/>
-      <c r="N21" s="133"/>
-      <c r="O21" s="109"/>
-      <c r="P21" s="110"/>
-      <c r="Q21" s="107"/>
-      <c r="R21" s="108"/>
-      <c r="S21" s="133"/>
-      <c r="T21" s="107"/>
-      <c r="U21" s="108"/>
-      <c r="V21" s="107"/>
-      <c r="W21" s="108"/>
-      <c r="X21" s="107"/>
-      <c r="Y21" s="108"/>
+      <c r="N21" s="117"/>
+      <c r="O21" s="106"/>
+      <c r="P21" s="107"/>
+      <c r="Q21" s="110"/>
+      <c r="R21" s="111"/>
+      <c r="S21" s="117"/>
+      <c r="T21" s="110"/>
+      <c r="U21" s="111"/>
+      <c r="V21" s="110"/>
+      <c r="W21" s="111"/>
+      <c r="X21" s="110"/>
+      <c r="Y21" s="111"/>
       <c r="Z21" s="88" t="s">
         <v>689</v>
       </c>
     </row>
     <row r="22" spans="2:32" ht="18" customHeight="1">
-      <c r="B22" s="117"/>
+      <c r="B22" s="139"/>
       <c r="C22" s="118" t="s">
         <v>180</v>
       </c>
@@ -8761,10 +8776,10 @@
       <c r="G22" s="83" t="s">
         <v>195</v>
       </c>
-      <c r="H22" s="105">
+      <c r="H22" s="108">
         <v>24.8</v>
       </c>
-      <c r="I22" s="106"/>
+      <c r="I22" s="109"/>
       <c r="J22" s="90">
         <v>4.0999999999999996</v>
       </c>
@@ -8776,10 +8791,10 @@
       <c r="N22" s="42" t="s">
         <v>196</v>
       </c>
-      <c r="O22" s="148" t="s">
+      <c r="O22" s="141" t="s">
         <v>221</v>
       </c>
-      <c r="P22" s="149"/>
+      <c r="P22" s="142"/>
       <c r="Q22" s="91">
         <v>8.3000000000000007</v>
       </c>
@@ -8787,14 +8802,14 @@
       <c r="S22" s="42" t="s">
         <v>198</v>
       </c>
-      <c r="T22" s="105" t="s">
+      <c r="T22" s="108" t="s">
         <v>699</v>
       </c>
-      <c r="U22" s="106"/>
-      <c r="V22" s="105" t="s">
+      <c r="U22" s="109"/>
+      <c r="V22" s="108" t="s">
         <v>700</v>
       </c>
-      <c r="W22" s="106"/>
+      <c r="W22" s="109"/>
       <c r="X22" s="91">
         <v>3.8</v>
       </c>
@@ -8804,7 +8819,7 @@
       </c>
     </row>
     <row r="23" spans="2:32" ht="18" customHeight="1">
-      <c r="B23" s="104"/>
+      <c r="B23" s="140"/>
       <c r="C23" s="119"/>
       <c r="D23" s="121"/>
       <c r="E23" s="99" t="s">
@@ -8814,8 +8829,8 @@
         <v>195</v>
       </c>
       <c r="G23" s="83"/>
-      <c r="H23" s="107"/>
-      <c r="I23" s="108"/>
+      <c r="H23" s="110"/>
+      <c r="I23" s="111"/>
       <c r="J23" s="90">
         <v>2.2999999999999998</v>
       </c>
@@ -8827,10 +8842,10 @@
       <c r="N23" s="42" t="s">
         <v>197</v>
       </c>
-      <c r="O23" s="148" t="s">
+      <c r="O23" s="141" t="s">
         <v>222</v>
       </c>
-      <c r="P23" s="149"/>
+      <c r="P23" s="142"/>
       <c r="Q23" s="91">
         <v>4.5</v>
       </c>
@@ -8838,10 +8853,10 @@
       <c r="S23" s="42" t="s">
         <v>199</v>
       </c>
-      <c r="T23" s="107"/>
-      <c r="U23" s="108"/>
-      <c r="V23" s="107"/>
-      <c r="W23" s="108"/>
+      <c r="T23" s="110"/>
+      <c r="U23" s="111"/>
+      <c r="V23" s="110"/>
+      <c r="W23" s="111"/>
       <c r="X23" s="91">
         <v>1.8</v>
       </c>
@@ -8849,12 +8864,12 @@
       <c r="Z23" s="88" t="s">
         <v>689</v>
       </c>
-      <c r="AA23" s="186" t="s">
+      <c r="AA23" s="104" t="s">
         <v>747</v>
       </c>
     </row>
     <row r="24" spans="2:32" ht="18" customHeight="1">
-      <c r="B24" s="103">
+      <c r="B24" s="138">
         <v>15</v>
       </c>
       <c r="C24" s="47" t="s">
@@ -8870,50 +8885,50 @@
         <v>195</v>
       </c>
       <c r="G24" s="83"/>
-      <c r="H24" s="105">
+      <c r="H24" s="108">
         <v>26.5</v>
       </c>
-      <c r="I24" s="106"/>
-      <c r="J24" s="105">
+      <c r="I24" s="109"/>
+      <c r="J24" s="108">
         <v>4.7</v>
       </c>
-      <c r="K24" s="106"/>
-      <c r="L24" s="105">
+      <c r="K24" s="109"/>
+      <c r="L24" s="108">
         <v>11.5</v>
       </c>
-      <c r="M24" s="106"/>
+      <c r="M24" s="109"/>
       <c r="N24" s="42" t="s">
         <v>145</v>
       </c>
-      <c r="O24" s="109" t="s">
+      <c r="O24" s="106" t="s">
         <v>223</v>
       </c>
-      <c r="P24" s="110"/>
-      <c r="Q24" s="150" t="s">
+      <c r="P24" s="107"/>
+      <c r="Q24" s="112" t="s">
         <v>701</v>
       </c>
-      <c r="R24" s="151"/>
+      <c r="R24" s="113"/>
       <c r="S24" s="42" t="s">
         <v>135</v>
       </c>
-      <c r="T24" s="105" t="s">
+      <c r="T24" s="108" t="s">
         <v>697</v>
       </c>
-      <c r="U24" s="106"/>
-      <c r="V24" s="105" t="s">
+      <c r="U24" s="109"/>
+      <c r="V24" s="108" t="s">
         <v>702</v>
       </c>
-      <c r="W24" s="106"/>
-      <c r="X24" s="140" t="s">
+      <c r="W24" s="109"/>
+      <c r="X24" s="128" t="s">
         <v>703</v>
       </c>
-      <c r="Y24" s="141"/>
+      <c r="Y24" s="129"/>
       <c r="Z24" s="88" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="25" spans="2:32" ht="18" customHeight="1">
-      <c r="B25" s="117"/>
+      <c r="B25" s="139"/>
       <c r="C25" s="47" t="s">
         <v>117</v>
       </c>
@@ -8927,86 +8942,86 @@
         <v>195</v>
       </c>
       <c r="G25" s="93"/>
-      <c r="H25" s="130"/>
-      <c r="I25" s="131"/>
-      <c r="J25" s="130"/>
-      <c r="K25" s="131"/>
-      <c r="L25" s="107"/>
-      <c r="M25" s="108"/>
+      <c r="H25" s="124"/>
+      <c r="I25" s="125"/>
+      <c r="J25" s="124"/>
+      <c r="K25" s="125"/>
+      <c r="L25" s="110"/>
+      <c r="M25" s="111"/>
       <c r="N25" s="42" t="s">
         <v>145</v>
       </c>
-      <c r="O25" s="137" t="s">
+      <c r="O25" s="122" t="s">
         <v>219</v>
       </c>
-      <c r="P25" s="138"/>
-      <c r="Q25" s="154"/>
-      <c r="R25" s="155"/>
+      <c r="P25" s="123"/>
+      <c r="Q25" s="114"/>
+      <c r="R25" s="115"/>
       <c r="S25" s="42" t="s">
         <v>135</v>
       </c>
-      <c r="T25" s="130"/>
-      <c r="U25" s="131"/>
-      <c r="V25" s="130"/>
-      <c r="W25" s="131"/>
-      <c r="X25" s="156"/>
-      <c r="Y25" s="157"/>
+      <c r="T25" s="124"/>
+      <c r="U25" s="125"/>
+      <c r="V25" s="124"/>
+      <c r="W25" s="125"/>
+      <c r="X25" s="130"/>
+      <c r="Y25" s="131"/>
       <c r="Z25" s="88" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="26" spans="2:32" ht="18" customHeight="1">
-      <c r="B26" s="117"/>
-      <c r="C26" s="158" t="s">
+      <c r="B26" s="139"/>
+      <c r="C26" s="134" t="s">
         <v>118</v>
       </c>
-      <c r="D26" s="158" t="s">
+      <c r="D26" s="134" t="s">
         <v>208</v>
       </c>
-      <c r="E26" s="122" t="s">
+      <c r="E26" s="126" t="s">
         <v>136</v>
       </c>
       <c r="F26" s="93"/>
       <c r="G26" s="83" t="s">
         <v>195</v>
       </c>
-      <c r="H26" s="107"/>
-      <c r="I26" s="108"/>
-      <c r="J26" s="107"/>
-      <c r="K26" s="108"/>
+      <c r="H26" s="110"/>
+      <c r="I26" s="111"/>
+      <c r="J26" s="110"/>
+      <c r="K26" s="111"/>
       <c r="L26" s="91">
         <v>10.75</v>
       </c>
       <c r="M26" s="85"/>
-      <c r="N26" s="132" t="s">
+      <c r="N26" s="116" t="s">
         <v>137</v>
       </c>
-      <c r="O26" s="109" t="s">
+      <c r="O26" s="106" t="s">
         <v>224</v>
       </c>
-      <c r="P26" s="110"/>
-      <c r="Q26" s="150" t="s">
+      <c r="P26" s="107"/>
+      <c r="Q26" s="112" t="s">
         <v>704</v>
       </c>
-      <c r="R26" s="151"/>
-      <c r="S26" s="132" t="s">
+      <c r="R26" s="113"/>
+      <c r="S26" s="116" t="s">
         <v>135</v>
       </c>
-      <c r="T26" s="130"/>
-      <c r="U26" s="131"/>
-      <c r="V26" s="130"/>
-      <c r="W26" s="131"/>
-      <c r="X26" s="156"/>
-      <c r="Y26" s="157"/>
+      <c r="T26" s="124"/>
+      <c r="U26" s="125"/>
+      <c r="V26" s="124"/>
+      <c r="W26" s="125"/>
+      <c r="X26" s="130"/>
+      <c r="Y26" s="131"/>
       <c r="Z26" s="88" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="27" spans="2:32" ht="18" customHeight="1">
-      <c r="B27" s="117"/>
-      <c r="C27" s="159"/>
-      <c r="D27" s="159"/>
-      <c r="E27" s="123"/>
+      <c r="B27" s="139"/>
+      <c r="C27" s="135"/>
+      <c r="D27" s="135"/>
+      <c r="E27" s="127"/>
       <c r="F27" s="93"/>
       <c r="G27" s="83" t="s">
         <v>195</v>
@@ -9017,31 +9032,31 @@
       <c r="K27" s="90"/>
       <c r="L27" s="91"/>
       <c r="M27" s="85"/>
-      <c r="N27" s="133"/>
-      <c r="O27" s="109"/>
-      <c r="P27" s="110"/>
-      <c r="Q27" s="152"/>
-      <c r="R27" s="153"/>
-      <c r="S27" s="133"/>
-      <c r="T27" s="130"/>
-      <c r="U27" s="131"/>
-      <c r="V27" s="130"/>
-      <c r="W27" s="131"/>
-      <c r="X27" s="156"/>
-      <c r="Y27" s="157"/>
+      <c r="N27" s="117"/>
+      <c r="O27" s="106"/>
+      <c r="P27" s="107"/>
+      <c r="Q27" s="136"/>
+      <c r="R27" s="137"/>
+      <c r="S27" s="117"/>
+      <c r="T27" s="124"/>
+      <c r="U27" s="125"/>
+      <c r="V27" s="124"/>
+      <c r="W27" s="125"/>
+      <c r="X27" s="130"/>
+      <c r="Y27" s="131"/>
       <c r="Z27" s="88" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="28" spans="2:32" ht="18" customHeight="1">
-      <c r="B28" s="117"/>
+      <c r="B28" s="139"/>
       <c r="C28" s="118" t="s">
         <v>200</v>
       </c>
       <c r="D28" s="120" t="s">
         <v>201</v>
       </c>
-      <c r="E28" s="122" t="s">
+      <c r="E28" s="126" t="s">
         <v>136</v>
       </c>
       <c r="F28" s="93"/>
@@ -9060,33 +9075,33 @@
         <v>10.75</v>
       </c>
       <c r="M28" s="85"/>
-      <c r="N28" s="132" t="s">
+      <c r="N28" s="116" t="s">
         <v>137</v>
       </c>
-      <c r="O28" s="137" t="s">
+      <c r="O28" s="122" t="s">
         <v>219</v>
       </c>
-      <c r="P28" s="138"/>
-      <c r="Q28" s="152"/>
-      <c r="R28" s="153"/>
-      <c r="S28" s="132" t="s">
+      <c r="P28" s="123"/>
+      <c r="Q28" s="136"/>
+      <c r="R28" s="137"/>
+      <c r="S28" s="116" t="s">
         <v>135</v>
       </c>
-      <c r="T28" s="130"/>
-      <c r="U28" s="131"/>
-      <c r="V28" s="130"/>
-      <c r="W28" s="131"/>
-      <c r="X28" s="156"/>
-      <c r="Y28" s="157"/>
+      <c r="T28" s="124"/>
+      <c r="U28" s="125"/>
+      <c r="V28" s="124"/>
+      <c r="W28" s="125"/>
+      <c r="X28" s="130"/>
+      <c r="Y28" s="131"/>
       <c r="Z28" s="88" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="29" spans="2:32" ht="18" customHeight="1">
-      <c r="B29" s="117"/>
+      <c r="B29" s="139"/>
       <c r="C29" s="119"/>
       <c r="D29" s="121"/>
-      <c r="E29" s="123"/>
+      <c r="E29" s="127"/>
       <c r="F29" s="93"/>
       <c r="G29" s="83" t="s">
         <v>195</v>
@@ -9097,24 +9112,24 @@
       <c r="K29" s="90"/>
       <c r="L29" s="91"/>
       <c r="M29" s="85"/>
-      <c r="N29" s="133"/>
-      <c r="O29" s="109"/>
-      <c r="P29" s="110"/>
-      <c r="Q29" s="154"/>
-      <c r="R29" s="155"/>
-      <c r="S29" s="133"/>
-      <c r="T29" s="130"/>
-      <c r="U29" s="131"/>
-      <c r="V29" s="130"/>
-      <c r="W29" s="131"/>
-      <c r="X29" s="142"/>
-      <c r="Y29" s="143"/>
+      <c r="N29" s="117"/>
+      <c r="O29" s="106"/>
+      <c r="P29" s="107"/>
+      <c r="Q29" s="114"/>
+      <c r="R29" s="115"/>
+      <c r="S29" s="117"/>
+      <c r="T29" s="124"/>
+      <c r="U29" s="125"/>
+      <c r="V29" s="124"/>
+      <c r="W29" s="125"/>
+      <c r="X29" s="132"/>
+      <c r="Y29" s="133"/>
       <c r="Z29" s="88" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="30" spans="2:32" ht="18" customHeight="1">
-      <c r="B30" s="117"/>
+      <c r="B30" s="139"/>
       <c r="C30" s="118" t="s">
         <v>181</v>
       </c>
@@ -9128,46 +9143,46 @@
       <c r="G30" s="83" t="s">
         <v>195</v>
       </c>
-      <c r="H30" s="105">
+      <c r="H30" s="108">
         <v>26.5</v>
       </c>
-      <c r="I30" s="106"/>
-      <c r="J30" s="105">
+      <c r="I30" s="109"/>
+      <c r="J30" s="108">
         <v>4.7</v>
       </c>
-      <c r="K30" s="106"/>
+      <c r="K30" s="109"/>
       <c r="L30" s="91">
         <v>10.55</v>
       </c>
       <c r="M30" s="85"/>
-      <c r="N30" s="132" t="s">
+      <c r="N30" s="116" t="s">
         <v>202</v>
       </c>
-      <c r="O30" s="109" t="s">
+      <c r="O30" s="106" t="s">
         <v>224</v>
       </c>
-      <c r="P30" s="110"/>
-      <c r="Q30" s="105">
+      <c r="P30" s="107"/>
+      <c r="Q30" s="108">
         <v>8.6999999999999993</v>
       </c>
-      <c r="R30" s="106"/>
-      <c r="S30" s="132" t="s">
+      <c r="R30" s="109"/>
+      <c r="S30" s="116" t="s">
         <v>203</v>
       </c>
-      <c r="T30" s="130"/>
-      <c r="U30" s="131"/>
-      <c r="V30" s="130"/>
-      <c r="W30" s="131"/>
-      <c r="X30" s="105">
+      <c r="T30" s="124"/>
+      <c r="U30" s="125"/>
+      <c r="V30" s="124"/>
+      <c r="W30" s="125"/>
+      <c r="X30" s="108">
         <v>3.9</v>
       </c>
-      <c r="Y30" s="106"/>
+      <c r="Y30" s="109"/>
       <c r="Z30" s="88" t="s">
         <v>689</v>
       </c>
     </row>
     <row r="31" spans="2:32" ht="18" customHeight="1">
-      <c r="B31" s="117"/>
+      <c r="B31" s="139"/>
       <c r="C31" s="119"/>
       <c r="D31" s="121"/>
       <c r="E31" s="99" t="s">
@@ -9177,32 +9192,32 @@
       <c r="G31" s="83" t="s">
         <v>195</v>
       </c>
-      <c r="H31" s="130"/>
-      <c r="I31" s="131"/>
-      <c r="J31" s="130"/>
-      <c r="K31" s="131"/>
+      <c r="H31" s="124"/>
+      <c r="I31" s="125"/>
+      <c r="J31" s="124"/>
+      <c r="K31" s="125"/>
       <c r="L31" s="91">
         <v>10.75</v>
       </c>
       <c r="M31" s="85"/>
-      <c r="N31" s="133"/>
-      <c r="O31" s="109"/>
-      <c r="P31" s="110"/>
-      <c r="Q31" s="130"/>
-      <c r="R31" s="131"/>
-      <c r="S31" s="133"/>
-      <c r="T31" s="130"/>
-      <c r="U31" s="131"/>
-      <c r="V31" s="130"/>
-      <c r="W31" s="131"/>
-      <c r="X31" s="130"/>
-      <c r="Y31" s="131"/>
+      <c r="N31" s="117"/>
+      <c r="O31" s="106"/>
+      <c r="P31" s="107"/>
+      <c r="Q31" s="124"/>
+      <c r="R31" s="125"/>
+      <c r="S31" s="117"/>
+      <c r="T31" s="124"/>
+      <c r="U31" s="125"/>
+      <c r="V31" s="124"/>
+      <c r="W31" s="125"/>
+      <c r="X31" s="124"/>
+      <c r="Y31" s="125"/>
       <c r="Z31" s="88" t="s">
         <v>689</v>
       </c>
     </row>
     <row r="32" spans="2:32" ht="18" customHeight="1">
-      <c r="B32" s="117"/>
+      <c r="B32" s="139"/>
       <c r="C32" s="118" t="s">
         <v>182</v>
       </c>
@@ -9216,38 +9231,38 @@
       <c r="G32" s="83" t="s">
         <v>195</v>
       </c>
-      <c r="H32" s="130"/>
-      <c r="I32" s="131"/>
-      <c r="J32" s="130"/>
-      <c r="K32" s="131"/>
+      <c r="H32" s="124"/>
+      <c r="I32" s="125"/>
+      <c r="J32" s="124"/>
+      <c r="K32" s="125"/>
       <c r="L32" s="91">
         <v>10.55</v>
       </c>
       <c r="M32" s="85"/>
-      <c r="N32" s="132" t="s">
+      <c r="N32" s="116" t="s">
         <v>202</v>
       </c>
-      <c r="O32" s="137" t="s">
+      <c r="O32" s="122" t="s">
         <v>219</v>
       </c>
-      <c r="P32" s="138"/>
-      <c r="Q32" s="130"/>
-      <c r="R32" s="131"/>
-      <c r="S32" s="132" t="s">
+      <c r="P32" s="123"/>
+      <c r="Q32" s="124"/>
+      <c r="R32" s="125"/>
+      <c r="S32" s="116" t="s">
         <v>203</v>
       </c>
-      <c r="T32" s="130"/>
-      <c r="U32" s="131"/>
-      <c r="V32" s="130"/>
-      <c r="W32" s="131"/>
-      <c r="X32" s="130"/>
-      <c r="Y32" s="131"/>
+      <c r="T32" s="124"/>
+      <c r="U32" s="125"/>
+      <c r="V32" s="124"/>
+      <c r="W32" s="125"/>
+      <c r="X32" s="124"/>
+      <c r="Y32" s="125"/>
       <c r="Z32" s="88" t="s">
         <v>689</v>
       </c>
     </row>
     <row r="33" spans="2:27" ht="18" customHeight="1">
-      <c r="B33" s="117"/>
+      <c r="B33" s="139"/>
       <c r="C33" s="119"/>
       <c r="D33" s="121"/>
       <c r="E33" s="99" t="s">
@@ -9257,32 +9272,32 @@
       <c r="G33" s="83" t="s">
         <v>195</v>
       </c>
-      <c r="H33" s="130"/>
-      <c r="I33" s="131"/>
-      <c r="J33" s="130"/>
-      <c r="K33" s="131"/>
+      <c r="H33" s="124"/>
+      <c r="I33" s="125"/>
+      <c r="J33" s="124"/>
+      <c r="K33" s="125"/>
       <c r="L33" s="91">
         <v>10.75</v>
       </c>
       <c r="M33" s="85"/>
-      <c r="N33" s="133"/>
-      <c r="O33" s="109"/>
-      <c r="P33" s="110"/>
-      <c r="Q33" s="130"/>
-      <c r="R33" s="131"/>
-      <c r="S33" s="133"/>
-      <c r="T33" s="130"/>
-      <c r="U33" s="131"/>
-      <c r="V33" s="130"/>
-      <c r="W33" s="131"/>
-      <c r="X33" s="130"/>
-      <c r="Y33" s="131"/>
+      <c r="N33" s="117"/>
+      <c r="O33" s="106"/>
+      <c r="P33" s="107"/>
+      <c r="Q33" s="124"/>
+      <c r="R33" s="125"/>
+      <c r="S33" s="117"/>
+      <c r="T33" s="124"/>
+      <c r="U33" s="125"/>
+      <c r="V33" s="124"/>
+      <c r="W33" s="125"/>
+      <c r="X33" s="124"/>
+      <c r="Y33" s="125"/>
       <c r="Z33" s="88" t="s">
         <v>689</v>
       </c>
     </row>
     <row r="34" spans="2:27" ht="18" customHeight="1">
-      <c r="B34" s="117"/>
+      <c r="B34" s="139"/>
       <c r="C34" s="118" t="s">
         <v>183</v>
       </c>
@@ -9296,38 +9311,38 @@
       <c r="G34" s="83" t="s">
         <v>195</v>
       </c>
-      <c r="H34" s="130"/>
-      <c r="I34" s="131"/>
-      <c r="J34" s="130"/>
-      <c r="K34" s="131"/>
+      <c r="H34" s="124"/>
+      <c r="I34" s="125"/>
+      <c r="J34" s="124"/>
+      <c r="K34" s="125"/>
       <c r="L34" s="91">
         <v>10.55</v>
       </c>
       <c r="M34" s="85"/>
-      <c r="N34" s="132" t="s">
+      <c r="N34" s="116" t="s">
         <v>202</v>
       </c>
-      <c r="O34" s="137" t="s">
+      <c r="O34" s="122" t="s">
         <v>219</v>
       </c>
-      <c r="P34" s="138"/>
-      <c r="Q34" s="130"/>
-      <c r="R34" s="131"/>
-      <c r="S34" s="132" t="s">
+      <c r="P34" s="123"/>
+      <c r="Q34" s="124"/>
+      <c r="R34" s="125"/>
+      <c r="S34" s="116" t="s">
         <v>203</v>
       </c>
-      <c r="T34" s="130"/>
-      <c r="U34" s="131"/>
-      <c r="V34" s="130"/>
-      <c r="W34" s="131"/>
-      <c r="X34" s="130"/>
-      <c r="Y34" s="131"/>
+      <c r="T34" s="124"/>
+      <c r="U34" s="125"/>
+      <c r="V34" s="124"/>
+      <c r="W34" s="125"/>
+      <c r="X34" s="124"/>
+      <c r="Y34" s="125"/>
       <c r="Z34" s="88" t="s">
         <v>689</v>
       </c>
     </row>
     <row r="35" spans="2:27" ht="18" customHeight="1">
-      <c r="B35" s="104"/>
+      <c r="B35" s="140"/>
       <c r="C35" s="119"/>
       <c r="D35" s="121"/>
       <c r="E35" s="99" t="s">
@@ -9337,26 +9352,26 @@
       <c r="G35" s="83" t="s">
         <v>195</v>
       </c>
-      <c r="H35" s="130"/>
-      <c r="I35" s="131"/>
-      <c r="J35" s="130"/>
-      <c r="K35" s="131"/>
+      <c r="H35" s="124"/>
+      <c r="I35" s="125"/>
+      <c r="J35" s="124"/>
+      <c r="K35" s="125"/>
       <c r="L35" s="91">
         <v>10.75</v>
       </c>
       <c r="M35" s="85"/>
-      <c r="N35" s="133"/>
-      <c r="O35" s="109"/>
-      <c r="P35" s="110"/>
-      <c r="Q35" s="107"/>
-      <c r="R35" s="108"/>
-      <c r="S35" s="133"/>
-      <c r="T35" s="130"/>
-      <c r="U35" s="131"/>
-      <c r="V35" s="130"/>
-      <c r="W35" s="131"/>
-      <c r="X35" s="107"/>
-      <c r="Y35" s="108"/>
+      <c r="N35" s="117"/>
+      <c r="O35" s="106"/>
+      <c r="P35" s="107"/>
+      <c r="Q35" s="110"/>
+      <c r="R35" s="111"/>
+      <c r="S35" s="117"/>
+      <c r="T35" s="124"/>
+      <c r="U35" s="125"/>
+      <c r="V35" s="124"/>
+      <c r="W35" s="125"/>
+      <c r="X35" s="110"/>
+      <c r="Y35" s="111"/>
       <c r="Z35" s="88" t="s">
         <v>689</v>
       </c>
@@ -9378,10 +9393,10 @@
         <v>195</v>
       </c>
       <c r="G36" s="93"/>
-      <c r="H36" s="107"/>
-      <c r="I36" s="108"/>
-      <c r="J36" s="107"/>
-      <c r="K36" s="108"/>
+      <c r="H36" s="110"/>
+      <c r="I36" s="111"/>
+      <c r="J36" s="110"/>
+      <c r="K36" s="111"/>
       <c r="L36" s="91">
         <v>11.5</v>
       </c>
@@ -9389,10 +9404,10 @@
       <c r="N36" s="42" t="s">
         <v>155</v>
       </c>
-      <c r="O36" s="109" t="s">
+      <c r="O36" s="106" t="s">
         <v>225</v>
       </c>
-      <c r="P36" s="110"/>
+      <c r="P36" s="107"/>
       <c r="Q36" s="87" t="s">
         <v>705</v>
       </c>
@@ -9400,14 +9415,14 @@
       <c r="S36" s="42" t="s">
         <v>135</v>
       </c>
-      <c r="T36" s="107"/>
-      <c r="U36" s="108"/>
-      <c r="V36" s="107"/>
-      <c r="W36" s="108"/>
-      <c r="X36" s="109" t="s">
+      <c r="T36" s="110"/>
+      <c r="U36" s="111"/>
+      <c r="V36" s="110"/>
+      <c r="W36" s="111"/>
+      <c r="X36" s="106" t="s">
         <v>703</v>
       </c>
-      <c r="Y36" s="110"/>
+      <c r="Y36" s="107"/>
       <c r="Z36" s="88" t="s">
         <v>109</v>
       </c>
@@ -9429,44 +9444,44 @@
         <v>195</v>
       </c>
       <c r="G37" s="93"/>
-      <c r="H37" s="105">
+      <c r="H37" s="108">
         <v>31.4</v>
       </c>
-      <c r="I37" s="106"/>
-      <c r="J37" s="105">
+      <c r="I37" s="109"/>
+      <c r="J37" s="108">
         <v>5.2</v>
       </c>
-      <c r="K37" s="106"/>
-      <c r="L37" s="105">
+      <c r="K37" s="109"/>
+      <c r="L37" s="108">
         <v>12.2</v>
       </c>
-      <c r="M37" s="106"/>
+      <c r="M37" s="109"/>
       <c r="N37" s="42" t="s">
         <v>149</v>
       </c>
-      <c r="O37" s="109" t="s">
+      <c r="O37" s="106" t="s">
         <v>226</v>
       </c>
-      <c r="P37" s="110"/>
-      <c r="Q37" s="150" t="s">
+      <c r="P37" s="107"/>
+      <c r="Q37" s="112" t="s">
         <v>706</v>
       </c>
-      <c r="R37" s="151"/>
+      <c r="R37" s="113"/>
       <c r="S37" s="42" t="s">
         <v>150</v>
       </c>
-      <c r="T37" s="105" t="s">
+      <c r="T37" s="108" t="s">
         <v>707</v>
       </c>
-      <c r="U37" s="106"/>
-      <c r="V37" s="105" t="s">
+      <c r="U37" s="109"/>
+      <c r="V37" s="108" t="s">
         <v>708</v>
       </c>
-      <c r="W37" s="106"/>
-      <c r="X37" s="109" t="s">
+      <c r="W37" s="109"/>
+      <c r="X37" s="106" t="s">
         <v>709</v>
       </c>
-      <c r="Y37" s="110"/>
+      <c r="Y37" s="107"/>
       <c r="Z37" s="88" t="s">
         <v>109</v>
       </c>
@@ -9488,34 +9503,34 @@
         <v>195</v>
       </c>
       <c r="G38" s="93"/>
-      <c r="H38" s="107"/>
-      <c r="I38" s="108"/>
-      <c r="J38" s="107"/>
-      <c r="K38" s="108"/>
-      <c r="L38" s="107"/>
-      <c r="M38" s="108"/>
+      <c r="H38" s="110"/>
+      <c r="I38" s="111"/>
+      <c r="J38" s="110"/>
+      <c r="K38" s="111"/>
+      <c r="L38" s="110"/>
+      <c r="M38" s="111"/>
       <c r="N38" s="42" t="s">
         <v>149</v>
       </c>
-      <c r="O38" s="137" t="s">
+      <c r="O38" s="122" t="s">
         <v>219</v>
       </c>
-      <c r="P38" s="138"/>
-      <c r="Q38" s="154"/>
-      <c r="R38" s="155"/>
+      <c r="P38" s="123"/>
+      <c r="Q38" s="114"/>
+      <c r="R38" s="115"/>
       <c r="S38" s="42" t="s">
         <v>150</v>
       </c>
-      <c r="T38" s="107"/>
-      <c r="U38" s="108"/>
-      <c r="V38" s="107"/>
-      <c r="W38" s="108"/>
+      <c r="T38" s="110"/>
+      <c r="U38" s="111"/>
+      <c r="V38" s="110"/>
+      <c r="W38" s="111"/>
       <c r="X38" s="91"/>
       <c r="Y38" s="85"/>
       <c r="Z38" s="88" t="s">
         <v>109</v>
       </c>
-      <c r="AA38" s="186" t="s">
+      <c r="AA38" s="104" t="s">
         <v>745</v>
       </c>
     </row>
@@ -9551,10 +9566,10 @@
       <c r="N39" s="42" t="s">
         <v>152</v>
       </c>
-      <c r="O39" s="109" t="s">
+      <c r="O39" s="106" t="s">
         <v>227</v>
       </c>
-      <c r="P39" s="110"/>
+      <c r="P39" s="107"/>
       <c r="Q39" s="87" t="s">
         <v>710</v>
       </c>
@@ -9570,14 +9585,14 @@
         <v>712</v>
       </c>
       <c r="W39" s="85"/>
-      <c r="X39" s="109" t="s">
+      <c r="X39" s="106" t="s">
         <v>713</v>
       </c>
-      <c r="Y39" s="110"/>
+      <c r="Y39" s="107"/>
       <c r="Z39" s="88" t="s">
         <v>109</v>
       </c>
-      <c r="AA39" s="184" t="s">
+      <c r="AA39" s="102" t="s">
         <v>743</v>
       </c>
     </row>
@@ -9595,8 +9610,8 @@
       <c r="L40" s="91"/>
       <c r="M40" s="85"/>
       <c r="N40" s="42"/>
-      <c r="O40" s="109"/>
-      <c r="P40" s="110"/>
+      <c r="O40" s="106"/>
+      <c r="P40" s="107"/>
       <c r="Q40" s="91"/>
       <c r="R40" s="85"/>
       <c r="S40" s="42"/>
@@ -9611,28 +9626,115 @@
     <row r="41" spans="2:27" ht="18" customHeight="1"/>
   </sheetData>
   <mergeCells count="155">
-    <mergeCell ref="O39:P39"/>
-    <mergeCell ref="X39:Y39"/>
-    <mergeCell ref="O40:P40"/>
-    <mergeCell ref="O36:P36"/>
-    <mergeCell ref="X36:Y36"/>
-    <mergeCell ref="H37:I38"/>
-    <mergeCell ref="J37:K38"/>
-    <mergeCell ref="L37:M38"/>
-    <mergeCell ref="O37:P37"/>
-    <mergeCell ref="Q37:R38"/>
-    <mergeCell ref="T37:U38"/>
-    <mergeCell ref="V37:W38"/>
-    <mergeCell ref="X37:Y37"/>
-    <mergeCell ref="S34:S35"/>
-    <mergeCell ref="O35:P35"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="N32:N33"/>
-    <mergeCell ref="O32:P32"/>
-    <mergeCell ref="S32:S33"/>
-    <mergeCell ref="O33:P33"/>
-    <mergeCell ref="O38:P38"/>
+    <mergeCell ref="V4:W4"/>
+    <mergeCell ref="X4:Y4"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="J5:K6"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="T6:U6"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="E3:M3"/>
+    <mergeCell ref="N3:R3"/>
+    <mergeCell ref="S3:Z3"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="T4:U4"/>
+    <mergeCell ref="B10:B15"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="V7:W8"/>
+    <mergeCell ref="X7:Y8"/>
+    <mergeCell ref="Z7:Z8"/>
+    <mergeCell ref="J8:K9"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="T9:U15"/>
+    <mergeCell ref="V9:W9"/>
+    <mergeCell ref="N10:N11"/>
+    <mergeCell ref="O10:P11"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="S7:S8"/>
+    <mergeCell ref="T7:U8"/>
+    <mergeCell ref="AB12:AC12"/>
+    <mergeCell ref="AD12:AE12"/>
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="S14:S15"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="Q10:R12"/>
+    <mergeCell ref="S10:S11"/>
+    <mergeCell ref="V10:W15"/>
+    <mergeCell ref="X10:Y15"/>
+    <mergeCell ref="Z10:Z11"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="O12:P12"/>
+    <mergeCell ref="S12:S13"/>
+    <mergeCell ref="B16:B23"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="H16:I21"/>
+    <mergeCell ref="J16:K19"/>
+    <mergeCell ref="N16:N17"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="J20:K21"/>
+    <mergeCell ref="N20:N21"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="H22:I23"/>
+    <mergeCell ref="X20:Y21"/>
+    <mergeCell ref="O21:P21"/>
+    <mergeCell ref="Z16:Z17"/>
+    <mergeCell ref="AB16:AC16"/>
+    <mergeCell ref="AD16:AE16"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="N18:N19"/>
+    <mergeCell ref="O18:P19"/>
+    <mergeCell ref="S18:S19"/>
+    <mergeCell ref="O16:P17"/>
+    <mergeCell ref="Q16:R19"/>
+    <mergeCell ref="S16:S17"/>
+    <mergeCell ref="T16:U19"/>
+    <mergeCell ref="V16:W19"/>
+    <mergeCell ref="X16:Y19"/>
+    <mergeCell ref="O22:P22"/>
+    <mergeCell ref="T22:U23"/>
+    <mergeCell ref="V22:W23"/>
+    <mergeCell ref="O23:P23"/>
+    <mergeCell ref="O20:P20"/>
+    <mergeCell ref="Q20:R21"/>
+    <mergeCell ref="S20:S21"/>
+    <mergeCell ref="T20:U21"/>
+    <mergeCell ref="V20:W21"/>
+    <mergeCell ref="Q26:R29"/>
+    <mergeCell ref="B24:B35"/>
+    <mergeCell ref="H24:I26"/>
+    <mergeCell ref="J24:K26"/>
+    <mergeCell ref="L24:M25"/>
+    <mergeCell ref="O24:P24"/>
+    <mergeCell ref="Q24:R25"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="H30:I36"/>
+    <mergeCell ref="J30:K36"/>
+    <mergeCell ref="N30:N31"/>
+    <mergeCell ref="O30:P30"/>
+    <mergeCell ref="Q30:R35"/>
+    <mergeCell ref="O34:P34"/>
     <mergeCell ref="S30:S31"/>
     <mergeCell ref="X30:Y35"/>
     <mergeCell ref="O31:P31"/>
@@ -9657,115 +9759,28 @@
     <mergeCell ref="C34:C35"/>
     <mergeCell ref="D34:D35"/>
     <mergeCell ref="N34:N35"/>
-    <mergeCell ref="Q26:R29"/>
-    <mergeCell ref="B24:B35"/>
-    <mergeCell ref="H24:I26"/>
-    <mergeCell ref="J24:K26"/>
-    <mergeCell ref="L24:M25"/>
-    <mergeCell ref="O24:P24"/>
-    <mergeCell ref="Q24:R25"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="H30:I36"/>
-    <mergeCell ref="J30:K36"/>
-    <mergeCell ref="N30:N31"/>
-    <mergeCell ref="O30:P30"/>
-    <mergeCell ref="Q30:R35"/>
-    <mergeCell ref="O34:P34"/>
-    <mergeCell ref="O22:P22"/>
-    <mergeCell ref="T22:U23"/>
-    <mergeCell ref="V22:W23"/>
-    <mergeCell ref="O23:P23"/>
-    <mergeCell ref="O20:P20"/>
-    <mergeCell ref="Q20:R21"/>
-    <mergeCell ref="S20:S21"/>
-    <mergeCell ref="T20:U21"/>
-    <mergeCell ref="V20:W21"/>
-    <mergeCell ref="X20:Y21"/>
-    <mergeCell ref="O21:P21"/>
-    <mergeCell ref="Z16:Z17"/>
-    <mergeCell ref="AB16:AC16"/>
-    <mergeCell ref="AD16:AE16"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="N18:N19"/>
-    <mergeCell ref="O18:P19"/>
-    <mergeCell ref="S18:S19"/>
-    <mergeCell ref="O16:P17"/>
-    <mergeCell ref="Q16:R19"/>
-    <mergeCell ref="S16:S17"/>
-    <mergeCell ref="T16:U19"/>
-    <mergeCell ref="V16:W19"/>
-    <mergeCell ref="X16:Y19"/>
-    <mergeCell ref="B16:B23"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="H16:I21"/>
-    <mergeCell ref="J16:K19"/>
-    <mergeCell ref="N16:N17"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="J20:K21"/>
-    <mergeCell ref="N20:N21"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="H22:I23"/>
-    <mergeCell ref="AB12:AC12"/>
-    <mergeCell ref="AD12:AE12"/>
-    <mergeCell ref="O13:P13"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="O14:P14"/>
-    <mergeCell ref="S14:S15"/>
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="Q10:R12"/>
-    <mergeCell ref="S10:S11"/>
-    <mergeCell ref="V10:W15"/>
-    <mergeCell ref="X10:Y15"/>
-    <mergeCell ref="Z10:Z11"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="O12:P12"/>
-    <mergeCell ref="S12:S13"/>
-    <mergeCell ref="B10:B15"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="V7:W8"/>
-    <mergeCell ref="X7:Y8"/>
-    <mergeCell ref="Z7:Z8"/>
-    <mergeCell ref="J8:K9"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="T9:U15"/>
-    <mergeCell ref="V9:W9"/>
-    <mergeCell ref="N10:N11"/>
-    <mergeCell ref="O10:P11"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="S7:S8"/>
-    <mergeCell ref="T7:U8"/>
-    <mergeCell ref="V4:W4"/>
-    <mergeCell ref="X4:Y4"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="J5:K6"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="T6:U6"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="E3:M3"/>
-    <mergeCell ref="N3:R3"/>
-    <mergeCell ref="S3:Z3"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="T4:U4"/>
+    <mergeCell ref="S34:S35"/>
+    <mergeCell ref="O35:P35"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="N32:N33"/>
+    <mergeCell ref="O32:P32"/>
+    <mergeCell ref="S32:S33"/>
+    <mergeCell ref="O33:P33"/>
+    <mergeCell ref="O38:P38"/>
+    <mergeCell ref="O39:P39"/>
+    <mergeCell ref="X39:Y39"/>
+    <mergeCell ref="O40:P40"/>
+    <mergeCell ref="O36:P36"/>
+    <mergeCell ref="X36:Y36"/>
+    <mergeCell ref="H37:I38"/>
+    <mergeCell ref="J37:K38"/>
+    <mergeCell ref="L37:M38"/>
+    <mergeCell ref="O37:P37"/>
+    <mergeCell ref="Q37:R38"/>
+    <mergeCell ref="T37:U38"/>
+    <mergeCell ref="V37:W38"/>
+    <mergeCell ref="X37:Y37"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.31496062992125984" right="0" top="0.35433070866141736" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -9781,26 +9796,26 @@
       <selection activeCell="Q100" sqref="Q100"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.109375" defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultColWidth="7.125" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="5.21875" style="51" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.33203125" style="51" customWidth="1"/>
-    <col min="3" max="3" width="32.77734375" style="51" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.109375" style="51"/>
-    <col min="5" max="5" width="10.33203125" style="51" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="5.25" style="51" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.375" style="51" customWidth="1"/>
+    <col min="3" max="3" width="32.75" style="51" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.125" style="51"/>
+    <col min="5" max="5" width="10.375" style="51" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="42" style="51" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="11.21875" style="51" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="14.33203125" style="51" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.109375" style="50"/>
-    <col min="13" max="13" width="7.109375" style="51"/>
-    <col min="14" max="14" width="29.77734375" style="51" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.44140625" style="51" customWidth="1"/>
-    <col min="16" max="16" width="10.109375" style="52" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.6640625" style="51" customWidth="1"/>
-    <col min="18" max="18" width="8.33203125" style="51" customWidth="1"/>
-    <col min="19" max="19" width="2.88671875" style="51" customWidth="1"/>
-    <col min="20" max="20" width="6.77734375" style="51" customWidth="1"/>
-    <col min="21" max="16384" width="7.109375" style="51"/>
+    <col min="7" max="7" width="11.25" style="51" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="14.375" style="51" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.125" style="50"/>
+    <col min="13" max="13" width="7.125" style="51"/>
+    <col min="14" max="14" width="29.75" style="51" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.5" style="51" customWidth="1"/>
+    <col min="16" max="16" width="10.125" style="52" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.625" style="51" customWidth="1"/>
+    <col min="18" max="18" width="8.375" style="51" customWidth="1"/>
+    <col min="19" max="19" width="2.875" style="51" customWidth="1"/>
+    <col min="20" max="20" width="6.75" style="51" customWidth="1"/>
+    <col min="21" max="16384" width="7.125" style="51"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20">
@@ -9969,11 +9984,11 @@
       <c r="Q4" s="44" t="s">
         <v>249</v>
       </c>
-      <c r="R4" s="175" t="s">
+      <c r="R4" s="168" t="s">
         <v>250</v>
       </c>
-      <c r="S4" s="176"/>
-      <c r="T4" s="177"/>
+      <c r="S4" s="169"/>
+      <c r="T4" s="170"/>
     </row>
     <row r="5" spans="1:20" ht="30" customHeight="1">
       <c r="A5" s="53" t="s">
@@ -10509,16 +10524,16 @@
       </c>
     </row>
     <row r="14" spans="1:20" ht="15" customHeight="1">
-      <c r="A14" s="172" t="s">
-        <v>239</v>
-      </c>
-      <c r="B14" s="172">
+      <c r="A14" s="165" t="s">
+        <v>239</v>
+      </c>
+      <c r="B14" s="165">
         <v>1000713404</v>
       </c>
-      <c r="C14" s="173" t="s">
+      <c r="C14" s="166" t="s">
         <v>262</v>
       </c>
-      <c r="D14" s="174" t="s">
+      <c r="D14" s="167" t="s">
         <v>267</v>
       </c>
       <c r="E14" s="53">
@@ -10527,38 +10542,38 @@
       <c r="F14" s="54" t="s">
         <v>274</v>
       </c>
-      <c r="G14" s="174" t="s">
+      <c r="G14" s="167" t="s">
         <v>265</v>
       </c>
-      <c r="H14" s="174">
-        <v>0</v>
-      </c>
-      <c r="I14" s="174">
-        <v>0</v>
-      </c>
-      <c r="J14" s="174">
-        <v>0</v>
-      </c>
-      <c r="K14" s="174">
-        <v>0</v>
-      </c>
-      <c r="L14" s="162">
+      <c r="H14" s="167">
+        <v>0</v>
+      </c>
+      <c r="I14" s="167">
+        <v>0</v>
+      </c>
+      <c r="J14" s="167">
+        <v>0</v>
+      </c>
+      <c r="K14" s="167">
+        <v>0</v>
+      </c>
+      <c r="L14" s="173">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M14" s="163"/>
-      <c r="N14" s="164" t="s">
+      <c r="M14" s="174"/>
+      <c r="N14" s="175" t="s">
         <v>275</v>
       </c>
-      <c r="O14" s="103" t="str">
+      <c r="O14" s="138" t="str">
         <f t="shared" si="1"/>
         <v>EA560N-M14</v>
       </c>
-      <c r="P14" s="166">
+      <c r="P14" s="177">
         <v>9269.75</v>
       </c>
-      <c r="Q14" s="158"/>
-      <c r="R14" s="160">
+      <c r="Q14" s="134"/>
+      <c r="R14" s="171">
         <v>13.4</v>
       </c>
       <c r="S14" s="66" t="s">
@@ -10569,24 +10584,24 @@
       </c>
     </row>
     <row r="15" spans="1:20" ht="15" customHeight="1">
-      <c r="A15" s="172"/>
-      <c r="B15" s="172"/>
-      <c r="C15" s="173"/>
-      <c r="D15" s="174"/>
+      <c r="A15" s="165"/>
+      <c r="B15" s="165"/>
+      <c r="C15" s="166"/>
+      <c r="D15" s="167"/>
       <c r="E15" s="53"/>
       <c r="F15" s="54"/>
-      <c r="G15" s="174"/>
-      <c r="H15" s="174"/>
-      <c r="I15" s="174"/>
-      <c r="J15" s="174"/>
-      <c r="K15" s="174"/>
-      <c r="L15" s="162"/>
-      <c r="M15" s="163"/>
-      <c r="N15" s="165"/>
-      <c r="O15" s="104"/>
-      <c r="P15" s="167"/>
-      <c r="Q15" s="159"/>
-      <c r="R15" s="161"/>
+      <c r="G15" s="167"/>
+      <c r="H15" s="167"/>
+      <c r="I15" s="167"/>
+      <c r="J15" s="167"/>
+      <c r="K15" s="167"/>
+      <c r="L15" s="173"/>
+      <c r="M15" s="174"/>
+      <c r="N15" s="176"/>
+      <c r="O15" s="140"/>
+      <c r="P15" s="178"/>
+      <c r="Q15" s="135"/>
+      <c r="R15" s="172"/>
       <c r="S15" s="68" t="s">
         <v>277</v>
       </c>
@@ -10654,16 +10669,16 @@
       </c>
     </row>
     <row r="17" spans="1:20" ht="15" customHeight="1">
-      <c r="A17" s="172" t="s">
-        <v>239</v>
-      </c>
-      <c r="B17" s="172">
+      <c r="A17" s="165" t="s">
+        <v>239</v>
+      </c>
+      <c r="B17" s="165">
         <v>1000713405</v>
       </c>
-      <c r="C17" s="173" t="s">
+      <c r="C17" s="166" t="s">
         <v>273</v>
       </c>
-      <c r="D17" s="174" t="s">
+      <c r="D17" s="167" t="s">
         <v>241</v>
       </c>
       <c r="E17" s="53">
@@ -10672,38 +10687,38 @@
       <c r="F17" s="54" t="s">
         <v>281</v>
       </c>
-      <c r="G17" s="174" t="s">
+      <c r="G17" s="167" t="s">
         <v>279</v>
       </c>
-      <c r="H17" s="174">
+      <c r="H17" s="167">
         <v>4490</v>
       </c>
-      <c r="I17" s="174">
+      <c r="I17" s="167">
         <v>7500</v>
       </c>
-      <c r="J17" s="174">
+      <c r="J17" s="167">
         <v>7500</v>
       </c>
-      <c r="K17" s="174">
+      <c r="K17" s="167">
         <v>6000</v>
       </c>
-      <c r="L17" s="162">
+      <c r="L17" s="173">
         <f t="shared" si="2"/>
         <v>6372.5</v>
       </c>
-      <c r="M17" s="163"/>
-      <c r="N17" s="164" t="s">
+      <c r="M17" s="174"/>
+      <c r="N17" s="175" t="s">
         <v>282</v>
       </c>
-      <c r="O17" s="103" t="str">
+      <c r="O17" s="138" t="str">
         <f>VLOOKUP(N17,$C$2:$G$1027,5,FALSE)</f>
         <v>EA560N-M16</v>
       </c>
-      <c r="P17" s="166">
+      <c r="P17" s="177">
         <v>9610.25</v>
       </c>
-      <c r="Q17" s="103"/>
-      <c r="R17" s="160">
+      <c r="Q17" s="138"/>
+      <c r="R17" s="171">
         <v>15.6</v>
       </c>
       <c r="S17" s="66" t="s">
@@ -10714,24 +10729,24 @@
       </c>
     </row>
     <row r="18" spans="1:20" ht="15" customHeight="1">
-      <c r="A18" s="172"/>
-      <c r="B18" s="172"/>
-      <c r="C18" s="173"/>
-      <c r="D18" s="174"/>
+      <c r="A18" s="165"/>
+      <c r="B18" s="165"/>
+      <c r="C18" s="166"/>
+      <c r="D18" s="167"/>
       <c r="E18" s="53"/>
       <c r="F18" s="54"/>
-      <c r="G18" s="174"/>
-      <c r="H18" s="174"/>
-      <c r="I18" s="174"/>
-      <c r="J18" s="174"/>
-      <c r="K18" s="174"/>
-      <c r="L18" s="162"/>
-      <c r="M18" s="163"/>
-      <c r="N18" s="165"/>
-      <c r="O18" s="104"/>
-      <c r="P18" s="167"/>
-      <c r="Q18" s="104"/>
-      <c r="R18" s="161"/>
+      <c r="G18" s="167"/>
+      <c r="H18" s="167"/>
+      <c r="I18" s="167"/>
+      <c r="J18" s="167"/>
+      <c r="K18" s="167"/>
+      <c r="L18" s="173"/>
+      <c r="M18" s="174"/>
+      <c r="N18" s="176"/>
+      <c r="O18" s="140"/>
+      <c r="P18" s="178"/>
+      <c r="Q18" s="140"/>
+      <c r="R18" s="172"/>
       <c r="S18" s="68" t="s">
         <v>277</v>
       </c>
@@ -10858,16 +10873,16 @@
       </c>
     </row>
     <row r="21" spans="1:20" ht="15" customHeight="1">
-      <c r="A21" s="172" t="s">
-        <v>239</v>
-      </c>
-      <c r="B21" s="172">
+      <c r="A21" s="165" t="s">
+        <v>239</v>
+      </c>
+      <c r="B21" s="165">
         <v>1000927847</v>
       </c>
-      <c r="C21" s="173" t="s">
+      <c r="C21" s="166" t="s">
         <v>286</v>
       </c>
-      <c r="D21" s="174" t="s">
+      <c r="D21" s="167" t="s">
         <v>267</v>
       </c>
       <c r="E21" s="53">
@@ -10876,38 +10891,38 @@
       <c r="F21" s="54" t="s">
         <v>289</v>
       </c>
-      <c r="G21" s="174" t="s">
+      <c r="G21" s="167" t="s">
         <v>284</v>
       </c>
-      <c r="H21" s="174">
-        <v>0</v>
-      </c>
-      <c r="I21" s="174">
-        <v>0</v>
-      </c>
-      <c r="J21" s="174">
-        <v>0</v>
-      </c>
-      <c r="K21" s="174">
-        <v>0</v>
-      </c>
-      <c r="L21" s="162">
+      <c r="H21" s="167">
+        <v>0</v>
+      </c>
+      <c r="I21" s="167">
+        <v>0</v>
+      </c>
+      <c r="J21" s="167">
+        <v>0</v>
+      </c>
+      <c r="K21" s="167">
+        <v>0</v>
+      </c>
+      <c r="L21" s="173">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M21" s="163"/>
-      <c r="N21" s="164" t="s">
+      <c r="M21" s="174"/>
+      <c r="N21" s="175" t="s">
         <v>290</v>
       </c>
-      <c r="O21" s="103" t="str">
+      <c r="O21" s="138" t="str">
         <f>VLOOKUP(N21,$C$2:$G$1027,5,FALSE)</f>
         <v>EA560N-M20</v>
       </c>
-      <c r="P21" s="166">
+      <c r="P21" s="177">
         <v>84488</v>
       </c>
-      <c r="Q21" s="103"/>
-      <c r="R21" s="170">
+      <c r="Q21" s="138"/>
+      <c r="R21" s="179">
         <v>19.5</v>
       </c>
       <c r="S21" s="70" t="s">
@@ -10918,24 +10933,24 @@
       </c>
     </row>
     <row r="22" spans="1:20" ht="15" customHeight="1">
-      <c r="A22" s="172"/>
-      <c r="B22" s="172"/>
-      <c r="C22" s="173"/>
-      <c r="D22" s="174"/>
+      <c r="A22" s="165"/>
+      <c r="B22" s="165"/>
+      <c r="C22" s="166"/>
+      <c r="D22" s="167"/>
       <c r="E22" s="53"/>
       <c r="F22" s="54"/>
-      <c r="G22" s="174"/>
-      <c r="H22" s="174"/>
-      <c r="I22" s="174"/>
-      <c r="J22" s="174"/>
-      <c r="K22" s="174"/>
-      <c r="L22" s="162"/>
-      <c r="M22" s="163"/>
-      <c r="N22" s="165"/>
-      <c r="O22" s="104"/>
-      <c r="P22" s="167"/>
-      <c r="Q22" s="104"/>
-      <c r="R22" s="171"/>
+      <c r="G22" s="167"/>
+      <c r="H22" s="167"/>
+      <c r="I22" s="167"/>
+      <c r="J22" s="167"/>
+      <c r="K22" s="167"/>
+      <c r="L22" s="173"/>
+      <c r="M22" s="174"/>
+      <c r="N22" s="176"/>
+      <c r="O22" s="140"/>
+      <c r="P22" s="178"/>
+      <c r="Q22" s="140"/>
+      <c r="R22" s="180"/>
       <c r="S22" s="72" t="s">
         <v>277</v>
       </c>
@@ -11003,16 +11018,16 @@
       </c>
     </row>
     <row r="24" spans="1:20" ht="15" customHeight="1">
-      <c r="A24" s="172" t="s">
-        <v>239</v>
-      </c>
-      <c r="B24" s="172">
+      <c r="A24" s="165" t="s">
+        <v>239</v>
+      </c>
+      <c r="B24" s="165">
         <v>1000713407</v>
       </c>
-      <c r="C24" s="173" t="s">
+      <c r="C24" s="166" t="s">
         <v>280</v>
       </c>
-      <c r="D24" s="174" t="s">
+      <c r="D24" s="167" t="s">
         <v>241</v>
       </c>
       <c r="E24" s="53">
@@ -11021,38 +11036,38 @@
       <c r="F24" s="54" t="s">
         <v>294</v>
       </c>
-      <c r="G24" s="174" t="s">
+      <c r="G24" s="167" t="s">
         <v>292</v>
       </c>
-      <c r="H24" s="174">
+      <c r="H24" s="167">
         <v>10000</v>
       </c>
-      <c r="I24" s="174">
+      <c r="I24" s="167">
         <v>36500</v>
       </c>
-      <c r="J24" s="174">
+      <c r="J24" s="167">
         <v>50000</v>
       </c>
-      <c r="K24" s="174">
+      <c r="K24" s="167">
         <v>23000</v>
       </c>
-      <c r="L24" s="162">
+      <c r="L24" s="173">
         <f t="shared" si="2"/>
         <v>29875</v>
       </c>
-      <c r="M24" s="163"/>
-      <c r="N24" s="164" t="s">
+      <c r="M24" s="174"/>
+      <c r="N24" s="175" t="s">
         <v>295</v>
       </c>
-      <c r="O24" s="103" t="str">
+      <c r="O24" s="138" t="str">
         <f>VLOOKUP(N24,$C$2:$G$1027,5,FALSE)</f>
         <v>EA560N-M24</v>
       </c>
-      <c r="P24" s="166">
+      <c r="P24" s="177">
         <v>50</v>
       </c>
-      <c r="Q24" s="103"/>
-      <c r="R24" s="160">
+      <c r="Q24" s="138"/>
+      <c r="R24" s="171">
         <v>23.2</v>
       </c>
       <c r="S24" s="66" t="s">
@@ -11063,24 +11078,24 @@
       </c>
     </row>
     <row r="25" spans="1:20" ht="15" customHeight="1">
-      <c r="A25" s="172"/>
-      <c r="B25" s="172"/>
-      <c r="C25" s="173"/>
-      <c r="D25" s="174"/>
+      <c r="A25" s="165"/>
+      <c r="B25" s="165"/>
+      <c r="C25" s="166"/>
+      <c r="D25" s="167"/>
       <c r="E25" s="53"/>
       <c r="F25" s="54"/>
-      <c r="G25" s="174"/>
-      <c r="H25" s="174"/>
-      <c r="I25" s="174"/>
-      <c r="J25" s="174"/>
-      <c r="K25" s="174"/>
-      <c r="L25" s="162"/>
-      <c r="M25" s="163"/>
-      <c r="N25" s="165"/>
-      <c r="O25" s="104"/>
-      <c r="P25" s="167"/>
-      <c r="Q25" s="104"/>
-      <c r="R25" s="161"/>
+      <c r="G25" s="167"/>
+      <c r="H25" s="167"/>
+      <c r="I25" s="167"/>
+      <c r="J25" s="167"/>
+      <c r="K25" s="167"/>
+      <c r="L25" s="173"/>
+      <c r="M25" s="174"/>
+      <c r="N25" s="176"/>
+      <c r="O25" s="140"/>
+      <c r="P25" s="178"/>
+      <c r="Q25" s="140"/>
+      <c r="R25" s="172"/>
       <c r="S25" s="68" t="s">
         <v>277</v>
       </c>
@@ -11089,16 +11104,16 @@
       </c>
     </row>
     <row r="26" spans="1:20" ht="15" customHeight="1">
-      <c r="A26" s="172" t="s">
-        <v>239</v>
-      </c>
-      <c r="B26" s="172">
+      <c r="A26" s="165" t="s">
+        <v>239</v>
+      </c>
+      <c r="B26" s="165">
         <v>1000713407</v>
       </c>
-      <c r="C26" s="173" t="s">
+      <c r="C26" s="166" t="s">
         <v>280</v>
       </c>
-      <c r="D26" s="174" t="s">
+      <c r="D26" s="167" t="s">
         <v>241</v>
       </c>
       <c r="E26" s="53">
@@ -11107,38 +11122,38 @@
       <c r="F26" s="54" t="s">
         <v>296</v>
       </c>
-      <c r="G26" s="174" t="s">
+      <c r="G26" s="167" t="s">
         <v>292</v>
       </c>
-      <c r="H26" s="174">
+      <c r="H26" s="167">
         <v>1482</v>
       </c>
-      <c r="I26" s="174">
+      <c r="I26" s="167">
         <v>5000</v>
       </c>
-      <c r="J26" s="174">
+      <c r="J26" s="167">
         <v>4000</v>
       </c>
-      <c r="K26" s="174">
+      <c r="K26" s="167">
         <v>4000</v>
       </c>
-      <c r="L26" s="162">
+      <c r="L26" s="173">
         <f t="shared" si="2"/>
         <v>3620.5</v>
       </c>
-      <c r="M26" s="163"/>
-      <c r="N26" s="164" t="s">
+      <c r="M26" s="174"/>
+      <c r="N26" s="175" t="s">
         <v>297</v>
       </c>
-      <c r="O26" s="103" t="str">
+      <c r="O26" s="138" t="str">
         <f>VLOOKUP(N26,$C$2:$G$1027,5,FALSE)</f>
         <v>EA560N-M25</v>
       </c>
-      <c r="P26" s="166">
+      <c r="P26" s="177">
         <v>46704.25</v>
       </c>
-      <c r="Q26" s="168"/>
-      <c r="R26" s="170">
+      <c r="Q26" s="181"/>
+      <c r="R26" s="179">
         <v>24.4</v>
       </c>
       <c r="S26" s="70" t="s">
@@ -11149,24 +11164,24 @@
       </c>
     </row>
     <row r="27" spans="1:20" ht="15" customHeight="1">
-      <c r="A27" s="172"/>
-      <c r="B27" s="172"/>
-      <c r="C27" s="173"/>
-      <c r="D27" s="174"/>
+      <c r="A27" s="165"/>
+      <c r="B27" s="165"/>
+      <c r="C27" s="166"/>
+      <c r="D27" s="167"/>
       <c r="E27" s="53"/>
       <c r="F27" s="54"/>
-      <c r="G27" s="174"/>
-      <c r="H27" s="174"/>
-      <c r="I27" s="174"/>
-      <c r="J27" s="174"/>
-      <c r="K27" s="174"/>
-      <c r="L27" s="162"/>
-      <c r="M27" s="163"/>
-      <c r="N27" s="165"/>
-      <c r="O27" s="104"/>
-      <c r="P27" s="167"/>
-      <c r="Q27" s="169"/>
-      <c r="R27" s="171"/>
+      <c r="G27" s="167"/>
+      <c r="H27" s="167"/>
+      <c r="I27" s="167"/>
+      <c r="J27" s="167"/>
+      <c r="K27" s="167"/>
+      <c r="L27" s="173"/>
+      <c r="M27" s="174"/>
+      <c r="N27" s="176"/>
+      <c r="O27" s="140"/>
+      <c r="P27" s="178"/>
+      <c r="Q27" s="182"/>
+      <c r="R27" s="180"/>
       <c r="S27" s="72" t="s">
         <v>277</v>
       </c>
@@ -11175,16 +11190,16 @@
       </c>
     </row>
     <row r="28" spans="1:20" ht="15" customHeight="1">
-      <c r="A28" s="172" t="s">
-        <v>239</v>
-      </c>
-      <c r="B28" s="172">
+      <c r="A28" s="165" t="s">
+        <v>239</v>
+      </c>
+      <c r="B28" s="165">
         <v>1000713407</v>
       </c>
-      <c r="C28" s="173" t="s">
+      <c r="C28" s="166" t="s">
         <v>280</v>
       </c>
-      <c r="D28" s="174" t="s">
+      <c r="D28" s="167" t="s">
         <v>241</v>
       </c>
       <c r="E28" s="53">
@@ -11193,40 +11208,40 @@
       <c r="F28" s="54" t="s">
         <v>298</v>
       </c>
-      <c r="G28" s="174" t="s">
+      <c r="G28" s="167" t="s">
         <v>292</v>
       </c>
-      <c r="H28" s="174">
+      <c r="H28" s="167">
         <v>3980</v>
       </c>
-      <c r="I28" s="174">
+      <c r="I28" s="167">
         <v>10500</v>
       </c>
-      <c r="J28" s="174">
+      <c r="J28" s="167">
         <v>5500</v>
       </c>
-      <c r="K28" s="174">
+      <c r="K28" s="167">
         <v>7500</v>
       </c>
-      <c r="L28" s="162">
+      <c r="L28" s="173">
         <f t="shared" si="2"/>
         <v>6870</v>
       </c>
-      <c r="M28" s="163"/>
-      <c r="N28" s="164" t="s">
+      <c r="M28" s="174"/>
+      <c r="N28" s="175" t="s">
         <v>299</v>
       </c>
-      <c r="O28" s="103" t="str">
+      <c r="O28" s="138" t="str">
         <f>VLOOKUP(N28,$C$2:$G$1027,5,FALSE)</f>
         <v>ED560N-M14</v>
       </c>
-      <c r="P28" s="166">
+      <c r="P28" s="177">
         <v>897815</v>
       </c>
-      <c r="Q28" s="168" t="s">
+      <c r="Q28" s="181" t="s">
         <v>300</v>
       </c>
-      <c r="R28" s="170">
+      <c r="R28" s="179">
         <v>13.5</v>
       </c>
       <c r="S28" s="70" t="s">
@@ -11237,24 +11252,24 @@
       </c>
     </row>
     <row r="29" spans="1:20" ht="15" customHeight="1">
-      <c r="A29" s="172"/>
-      <c r="B29" s="172"/>
-      <c r="C29" s="173"/>
-      <c r="D29" s="174"/>
+      <c r="A29" s="165"/>
+      <c r="B29" s="165"/>
+      <c r="C29" s="166"/>
+      <c r="D29" s="167"/>
       <c r="E29" s="53"/>
       <c r="F29" s="54"/>
-      <c r="G29" s="174"/>
-      <c r="H29" s="174"/>
-      <c r="I29" s="174"/>
-      <c r="J29" s="174"/>
-      <c r="K29" s="174"/>
-      <c r="L29" s="162"/>
-      <c r="M29" s="163"/>
-      <c r="N29" s="165"/>
-      <c r="O29" s="104"/>
-      <c r="P29" s="167"/>
-      <c r="Q29" s="169"/>
-      <c r="R29" s="171"/>
+      <c r="G29" s="167"/>
+      <c r="H29" s="167"/>
+      <c r="I29" s="167"/>
+      <c r="J29" s="167"/>
+      <c r="K29" s="167"/>
+      <c r="L29" s="173"/>
+      <c r="M29" s="174"/>
+      <c r="N29" s="176"/>
+      <c r="O29" s="140"/>
+      <c r="P29" s="178"/>
+      <c r="Q29" s="182"/>
+      <c r="R29" s="180"/>
       <c r="S29" s="72" t="s">
         <v>277</v>
       </c>
@@ -11381,16 +11396,16 @@
       </c>
     </row>
     <row r="32" spans="1:20" ht="15" customHeight="1">
-      <c r="A32" s="172" t="s">
-        <v>239</v>
-      </c>
-      <c r="B32" s="172">
+      <c r="A32" s="165" t="s">
+        <v>239</v>
+      </c>
+      <c r="B32" s="165">
         <v>1000713408</v>
       </c>
-      <c r="C32" s="173" t="s">
+      <c r="C32" s="166" t="s">
         <v>282</v>
       </c>
-      <c r="D32" s="174" t="s">
+      <c r="D32" s="167" t="s">
         <v>241</v>
       </c>
       <c r="E32" s="53">
@@ -11399,38 +11414,38 @@
       <c r="F32" s="54" t="s">
         <v>307</v>
       </c>
-      <c r="G32" s="174" t="s">
+      <c r="G32" s="167" t="s">
         <v>302</v>
       </c>
-      <c r="H32" s="174">
-        <v>0</v>
-      </c>
-      <c r="I32" s="174">
-        <v>0</v>
-      </c>
-      <c r="J32" s="174">
-        <v>0</v>
-      </c>
-      <c r="K32" s="174">
-        <v>0</v>
-      </c>
-      <c r="L32" s="162">
+      <c r="H32" s="167">
+        <v>0</v>
+      </c>
+      <c r="I32" s="167">
+        <v>0</v>
+      </c>
+      <c r="J32" s="167">
+        <v>0</v>
+      </c>
+      <c r="K32" s="167">
+        <v>0</v>
+      </c>
+      <c r="L32" s="173">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M32" s="163"/>
-      <c r="N32" s="164" t="s">
+      <c r="M32" s="174"/>
+      <c r="N32" s="175" t="s">
         <v>308</v>
       </c>
-      <c r="O32" s="103" t="str">
+      <c r="O32" s="138" t="str">
         <f>VLOOKUP(N32,$C$2:$G$1027,5,FALSE)</f>
         <v>ED560N-M20</v>
       </c>
-      <c r="P32" s="166">
+      <c r="P32" s="177">
         <v>1215.5</v>
       </c>
-      <c r="Q32" s="168"/>
-      <c r="R32" s="160">
+      <c r="Q32" s="181"/>
+      <c r="R32" s="171">
         <v>19.399999999999999</v>
       </c>
       <c r="S32" s="66" t="s">
@@ -11441,24 +11456,24 @@
       </c>
     </row>
     <row r="33" spans="1:20" ht="15" customHeight="1">
-      <c r="A33" s="172"/>
-      <c r="B33" s="172"/>
-      <c r="C33" s="173"/>
-      <c r="D33" s="174"/>
+      <c r="A33" s="165"/>
+      <c r="B33" s="165"/>
+      <c r="C33" s="166"/>
+      <c r="D33" s="167"/>
       <c r="E33" s="53"/>
       <c r="F33" s="54"/>
-      <c r="G33" s="174"/>
-      <c r="H33" s="174"/>
-      <c r="I33" s="174"/>
-      <c r="J33" s="174"/>
-      <c r="K33" s="174"/>
-      <c r="L33" s="162"/>
-      <c r="M33" s="163"/>
-      <c r="N33" s="165"/>
-      <c r="O33" s="104"/>
-      <c r="P33" s="167"/>
-      <c r="Q33" s="169"/>
-      <c r="R33" s="161"/>
+      <c r="G33" s="167"/>
+      <c r="H33" s="167"/>
+      <c r="I33" s="167"/>
+      <c r="J33" s="167"/>
+      <c r="K33" s="167"/>
+      <c r="L33" s="173"/>
+      <c r="M33" s="174"/>
+      <c r="N33" s="176"/>
+      <c r="O33" s="140"/>
+      <c r="P33" s="178"/>
+      <c r="Q33" s="182"/>
+      <c r="R33" s="172"/>
       <c r="S33" s="68" t="s">
         <v>277</v>
       </c>
@@ -11585,16 +11600,16 @@
       </c>
     </row>
     <row r="36" spans="1:20" ht="15" customHeight="1">
-      <c r="A36" s="172" t="s">
-        <v>239</v>
-      </c>
-      <c r="B36" s="172">
+      <c r="A36" s="165" t="s">
+        <v>239</v>
+      </c>
+      <c r="B36" s="165">
         <v>1000713410</v>
       </c>
-      <c r="C36" s="173" t="s">
+      <c r="C36" s="166" t="s">
         <v>288</v>
       </c>
-      <c r="D36" s="174" t="s">
+      <c r="D36" s="167" t="s">
         <v>241</v>
       </c>
       <c r="E36" s="53">
@@ -11603,38 +11618,38 @@
       <c r="F36" s="54" t="s">
         <v>314</v>
       </c>
-      <c r="G36" s="174" t="s">
+      <c r="G36" s="167" t="s">
         <v>315</v>
       </c>
-      <c r="H36" s="174">
+      <c r="H36" s="167">
         <v>38497</v>
       </c>
-      <c r="I36" s="174">
+      <c r="I36" s="167">
         <v>28100</v>
       </c>
-      <c r="J36" s="174">
+      <c r="J36" s="167">
         <v>55000</v>
       </c>
-      <c r="K36" s="174">
+      <c r="K36" s="167">
         <v>16000</v>
       </c>
-      <c r="L36" s="162">
+      <c r="L36" s="173">
         <f t="shared" si="2"/>
         <v>34399.25</v>
       </c>
-      <c r="M36" s="163"/>
-      <c r="N36" s="164" t="s">
+      <c r="M36" s="174"/>
+      <c r="N36" s="175" t="s">
         <v>286</v>
       </c>
-      <c r="O36" s="103" t="str">
+      <c r="O36" s="138" t="str">
         <f>VLOOKUP(N36,$C$2:$G$1027,5,FALSE)</f>
         <v>EA560N-M14</v>
       </c>
-      <c r="P36" s="166">
+      <c r="P36" s="177">
         <v>168580.75</v>
       </c>
-      <c r="Q36" s="168"/>
-      <c r="R36" s="160">
+      <c r="Q36" s="181"/>
+      <c r="R36" s="171">
         <v>13.5</v>
       </c>
       <c r="S36" s="66" t="s">
@@ -11645,24 +11660,24 @@
       </c>
     </row>
     <row r="37" spans="1:20" ht="15" customHeight="1">
-      <c r="A37" s="172"/>
-      <c r="B37" s="172"/>
-      <c r="C37" s="173"/>
-      <c r="D37" s="174"/>
+      <c r="A37" s="165"/>
+      <c r="B37" s="165"/>
+      <c r="C37" s="166"/>
+      <c r="D37" s="167"/>
       <c r="E37" s="53"/>
       <c r="F37" s="54"/>
-      <c r="G37" s="174"/>
-      <c r="H37" s="174"/>
-      <c r="I37" s="174"/>
-      <c r="J37" s="174"/>
-      <c r="K37" s="174"/>
-      <c r="L37" s="162"/>
-      <c r="M37" s="163"/>
-      <c r="N37" s="165"/>
-      <c r="O37" s="104"/>
-      <c r="P37" s="167"/>
-      <c r="Q37" s="169"/>
-      <c r="R37" s="161"/>
+      <c r="G37" s="167"/>
+      <c r="H37" s="167"/>
+      <c r="I37" s="167"/>
+      <c r="J37" s="167"/>
+      <c r="K37" s="167"/>
+      <c r="L37" s="173"/>
+      <c r="M37" s="174"/>
+      <c r="N37" s="176"/>
+      <c r="O37" s="140"/>
+      <c r="P37" s="178"/>
+      <c r="Q37" s="182"/>
+      <c r="R37" s="172"/>
       <c r="S37" s="68" t="s">
         <v>277</v>
       </c>
@@ -11671,16 +11686,16 @@
       </c>
     </row>
     <row r="38" spans="1:20" ht="15" customHeight="1">
-      <c r="A38" s="172" t="s">
-        <v>239</v>
-      </c>
-      <c r="B38" s="172">
+      <c r="A38" s="165" t="s">
+        <v>239</v>
+      </c>
+      <c r="B38" s="165">
         <v>1000713410</v>
       </c>
-      <c r="C38" s="173" t="s">
+      <c r="C38" s="166" t="s">
         <v>288</v>
       </c>
-      <c r="D38" s="174" t="s">
+      <c r="D38" s="167" t="s">
         <v>241</v>
       </c>
       <c r="E38" s="53">
@@ -11689,38 +11704,38 @@
       <c r="F38" s="54" t="s">
         <v>316</v>
       </c>
-      <c r="G38" s="174" t="s">
+      <c r="G38" s="167" t="s">
         <v>317</v>
       </c>
-      <c r="H38" s="174">
+      <c r="H38" s="167">
         <v>2400</v>
       </c>
-      <c r="I38" s="174">
+      <c r="I38" s="167">
         <v>4800</v>
       </c>
-      <c r="J38" s="174">
+      <c r="J38" s="167">
         <v>2500</v>
       </c>
-      <c r="K38" s="174">
+      <c r="K38" s="167">
         <v>2000</v>
       </c>
-      <c r="L38" s="162">
+      <c r="L38" s="173">
         <f t="shared" si="2"/>
         <v>2925</v>
       </c>
-      <c r="M38" s="163"/>
-      <c r="N38" s="164" t="s">
+      <c r="M38" s="174"/>
+      <c r="N38" s="175" t="s">
         <v>318</v>
       </c>
-      <c r="O38" s="103" t="str">
+      <c r="O38" s="138" t="str">
         <f>VLOOKUP(N38,$C$2:$G$1027,5,FALSE)</f>
         <v>ED560N-M15</v>
       </c>
-      <c r="P38" s="166">
+      <c r="P38" s="177">
         <v>178908.25</v>
       </c>
-      <c r="Q38" s="168"/>
-      <c r="R38" s="170">
+      <c r="Q38" s="181"/>
+      <c r="R38" s="179">
         <v>14.6</v>
       </c>
       <c r="S38" s="70" t="s">
@@ -11731,24 +11746,24 @@
       </c>
     </row>
     <row r="39" spans="1:20" ht="15" customHeight="1">
-      <c r="A39" s="172"/>
-      <c r="B39" s="172"/>
-      <c r="C39" s="173"/>
-      <c r="D39" s="174"/>
+      <c r="A39" s="165"/>
+      <c r="B39" s="165"/>
+      <c r="C39" s="166"/>
+      <c r="D39" s="167"/>
       <c r="E39" s="53"/>
       <c r="F39" s="54"/>
-      <c r="G39" s="174"/>
-      <c r="H39" s="174"/>
-      <c r="I39" s="174"/>
-      <c r="J39" s="174"/>
-      <c r="K39" s="174"/>
-      <c r="L39" s="162"/>
-      <c r="M39" s="163"/>
-      <c r="N39" s="165"/>
-      <c r="O39" s="104"/>
-      <c r="P39" s="167"/>
-      <c r="Q39" s="169"/>
-      <c r="R39" s="171"/>
+      <c r="G39" s="167"/>
+      <c r="H39" s="167"/>
+      <c r="I39" s="167"/>
+      <c r="J39" s="167"/>
+      <c r="K39" s="167"/>
+      <c r="L39" s="173"/>
+      <c r="M39" s="174"/>
+      <c r="N39" s="176"/>
+      <c r="O39" s="140"/>
+      <c r="P39" s="178"/>
+      <c r="Q39" s="182"/>
+      <c r="R39" s="180"/>
       <c r="S39" s="72" t="s">
         <v>277</v>
       </c>
@@ -11757,16 +11772,16 @@
       </c>
     </row>
     <row r="40" spans="1:20" ht="15" customHeight="1">
-      <c r="A40" s="172" t="s">
-        <v>239</v>
-      </c>
-      <c r="B40" s="172">
+      <c r="A40" s="165" t="s">
+        <v>239</v>
+      </c>
+      <c r="B40" s="165">
         <v>1000713386</v>
       </c>
-      <c r="C40" s="173" t="s">
+      <c r="C40" s="166" t="s">
         <v>259</v>
       </c>
-      <c r="D40" s="174" t="s">
+      <c r="D40" s="167" t="s">
         <v>241</v>
       </c>
       <c r="E40" s="53">
@@ -11775,38 +11790,38 @@
       <c r="F40" s="54" t="s">
         <v>319</v>
       </c>
-      <c r="G40" s="174" t="s">
+      <c r="G40" s="167" t="s">
         <v>320</v>
       </c>
-      <c r="H40" s="174">
-        <v>0</v>
-      </c>
-      <c r="I40" s="174">
+      <c r="H40" s="167">
+        <v>0</v>
+      </c>
+      <c r="I40" s="167">
         <v>100</v>
       </c>
-      <c r="J40" s="174">
+      <c r="J40" s="167">
         <v>60</v>
       </c>
-      <c r="K40" s="174">
+      <c r="K40" s="167">
         <v>1000</v>
       </c>
-      <c r="L40" s="162">
+      <c r="L40" s="173">
         <f t="shared" si="2"/>
         <v>290</v>
       </c>
-      <c r="M40" s="163"/>
-      <c r="N40" s="164" t="s">
+      <c r="M40" s="174"/>
+      <c r="N40" s="175" t="s">
         <v>304</v>
       </c>
-      <c r="O40" s="103" t="str">
+      <c r="O40" s="138" t="str">
         <f>VLOOKUP(N40,$C$2:$G$1027,5,FALSE)</f>
         <v>EA560N-M16</v>
       </c>
-      <c r="P40" s="166">
+      <c r="P40" s="177">
         <v>22049.25</v>
       </c>
-      <c r="Q40" s="168"/>
-      <c r="R40" s="160">
+      <c r="Q40" s="181"/>
+      <c r="R40" s="171">
         <v>15.6</v>
       </c>
       <c r="S40" s="66" t="s">
@@ -11817,24 +11832,24 @@
       </c>
     </row>
     <row r="41" spans="1:20" ht="15" customHeight="1">
-      <c r="A41" s="172"/>
-      <c r="B41" s="172"/>
-      <c r="C41" s="173"/>
-      <c r="D41" s="174"/>
+      <c r="A41" s="165"/>
+      <c r="B41" s="165"/>
+      <c r="C41" s="166"/>
+      <c r="D41" s="167"/>
       <c r="E41" s="53"/>
       <c r="F41" s="54"/>
-      <c r="G41" s="174"/>
-      <c r="H41" s="174"/>
-      <c r="I41" s="174"/>
-      <c r="J41" s="174"/>
-      <c r="K41" s="174"/>
-      <c r="L41" s="162"/>
-      <c r="M41" s="163"/>
-      <c r="N41" s="165"/>
-      <c r="O41" s="104"/>
-      <c r="P41" s="167"/>
-      <c r="Q41" s="169"/>
-      <c r="R41" s="161"/>
+      <c r="G41" s="167"/>
+      <c r="H41" s="167"/>
+      <c r="I41" s="167"/>
+      <c r="J41" s="167"/>
+      <c r="K41" s="167"/>
+      <c r="L41" s="173"/>
+      <c r="M41" s="174"/>
+      <c r="N41" s="176"/>
+      <c r="O41" s="140"/>
+      <c r="P41" s="178"/>
+      <c r="Q41" s="182"/>
+      <c r="R41" s="172"/>
       <c r="S41" s="68" t="s">
         <v>277</v>
       </c>
@@ -11902,16 +11917,16 @@
       </c>
     </row>
     <row r="43" spans="1:20" ht="15" customHeight="1">
-      <c r="A43" s="172" t="s">
-        <v>239</v>
-      </c>
-      <c r="B43" s="172">
+      <c r="A43" s="165" t="s">
+        <v>239</v>
+      </c>
+      <c r="B43" s="165">
         <v>1000714123</v>
       </c>
-      <c r="C43" s="173" t="s">
+      <c r="C43" s="166" t="s">
         <v>290</v>
       </c>
-      <c r="D43" s="174" t="s">
+      <c r="D43" s="167" t="s">
         <v>241</v>
       </c>
       <c r="E43" s="53">
@@ -11920,38 +11935,38 @@
       <c r="F43" s="54" t="s">
         <v>323</v>
       </c>
-      <c r="G43" s="174" t="s">
+      <c r="G43" s="167" t="s">
         <v>324</v>
       </c>
-      <c r="H43" s="174">
+      <c r="H43" s="167">
         <v>8556</v>
       </c>
-      <c r="I43" s="174">
+      <c r="I43" s="167">
         <v>5313</v>
       </c>
-      <c r="J43" s="174">
+      <c r="J43" s="167">
         <v>4220</v>
       </c>
-      <c r="K43" s="174">
+      <c r="K43" s="167">
         <v>4530</v>
       </c>
-      <c r="L43" s="162">
+      <c r="L43" s="173">
         <f t="shared" si="2"/>
         <v>5654.75</v>
       </c>
-      <c r="M43" s="163"/>
-      <c r="N43" s="164" t="s">
+      <c r="M43" s="174"/>
+      <c r="N43" s="175" t="s">
         <v>325</v>
       </c>
-      <c r="O43" s="103" t="str">
+      <c r="O43" s="138" t="str">
         <f>VLOOKUP(N43,$C$2:$G$1027,5,FALSE)</f>
         <v>ED560N-M15</v>
       </c>
-      <c r="P43" s="166">
+      <c r="P43" s="177">
         <v>6785</v>
       </c>
-      <c r="Q43" s="168"/>
-      <c r="R43" s="160">
+      <c r="Q43" s="181"/>
+      <c r="R43" s="171">
         <v>14.6</v>
       </c>
       <c r="S43" s="66" t="s">
@@ -11962,24 +11977,24 @@
       </c>
     </row>
     <row r="44" spans="1:20" ht="15" customHeight="1">
-      <c r="A44" s="172"/>
-      <c r="B44" s="172"/>
-      <c r="C44" s="173"/>
-      <c r="D44" s="174"/>
+      <c r="A44" s="165"/>
+      <c r="B44" s="165"/>
+      <c r="C44" s="166"/>
+      <c r="D44" s="167"/>
       <c r="E44" s="53"/>
       <c r="F44" s="54"/>
-      <c r="G44" s="174"/>
-      <c r="H44" s="174"/>
-      <c r="I44" s="174"/>
-      <c r="J44" s="174"/>
-      <c r="K44" s="174"/>
-      <c r="L44" s="162"/>
-      <c r="M44" s="163"/>
-      <c r="N44" s="165"/>
-      <c r="O44" s="104"/>
-      <c r="P44" s="167"/>
-      <c r="Q44" s="169"/>
-      <c r="R44" s="161"/>
+      <c r="G44" s="167"/>
+      <c r="H44" s="167"/>
+      <c r="I44" s="167"/>
+      <c r="J44" s="167"/>
+      <c r="K44" s="167"/>
+      <c r="L44" s="173"/>
+      <c r="M44" s="174"/>
+      <c r="N44" s="176"/>
+      <c r="O44" s="140"/>
+      <c r="P44" s="178"/>
+      <c r="Q44" s="182"/>
+      <c r="R44" s="172"/>
       <c r="S44" s="68" t="s">
         <v>277</v>
       </c>
@@ -12047,16 +12062,16 @@
       </c>
     </row>
     <row r="46" spans="1:20" ht="15" customHeight="1">
-      <c r="A46" s="172" t="s">
-        <v>239</v>
-      </c>
-      <c r="B46" s="172">
+      <c r="A46" s="165" t="s">
+        <v>239</v>
+      </c>
+      <c r="B46" s="165">
         <v>1000714123</v>
       </c>
-      <c r="C46" s="173" t="s">
+      <c r="C46" s="166" t="s">
         <v>290</v>
       </c>
-      <c r="D46" s="174" t="s">
+      <c r="D46" s="167" t="s">
         <v>241</v>
       </c>
       <c r="E46" s="53">
@@ -12065,38 +12080,38 @@
       <c r="F46" s="54" t="s">
         <v>328</v>
       </c>
-      <c r="G46" s="174" t="s">
+      <c r="G46" s="167" t="s">
         <v>324</v>
       </c>
-      <c r="H46" s="174">
-        <v>0</v>
-      </c>
-      <c r="I46" s="174">
-        <v>0</v>
-      </c>
-      <c r="J46" s="174">
-        <v>0</v>
-      </c>
-      <c r="K46" s="174">
-        <v>0</v>
-      </c>
-      <c r="L46" s="162">
+      <c r="H46" s="167">
+        <v>0</v>
+      </c>
+      <c r="I46" s="167">
+        <v>0</v>
+      </c>
+      <c r="J46" s="167">
+        <v>0</v>
+      </c>
+      <c r="K46" s="167">
+        <v>0</v>
+      </c>
+      <c r="L46" s="173">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M46" s="163"/>
-      <c r="N46" s="164" t="s">
+      <c r="M46" s="174"/>
+      <c r="N46" s="175" t="s">
         <v>329</v>
       </c>
-      <c r="O46" s="103" t="str">
+      <c r="O46" s="138" t="str">
         <f>VLOOKUP(N46,$C$2:$G$1027,5,FALSE)</f>
         <v>EA560-015</v>
       </c>
-      <c r="P46" s="166">
+      <c r="P46" s="177">
         <v>1050</v>
       </c>
-      <c r="Q46" s="168"/>
-      <c r="R46" s="160">
+      <c r="Q46" s="181"/>
+      <c r="R46" s="171">
         <v>14.7</v>
       </c>
       <c r="S46" s="66" t="s">
@@ -12107,24 +12122,24 @@
       </c>
     </row>
     <row r="47" spans="1:20" ht="15" customHeight="1">
-      <c r="A47" s="172"/>
-      <c r="B47" s="172"/>
-      <c r="C47" s="173"/>
-      <c r="D47" s="174"/>
+      <c r="A47" s="165"/>
+      <c r="B47" s="165"/>
+      <c r="C47" s="166"/>
+      <c r="D47" s="167"/>
       <c r="E47" s="53"/>
       <c r="F47" s="54"/>
-      <c r="G47" s="174"/>
-      <c r="H47" s="174"/>
-      <c r="I47" s="174"/>
-      <c r="J47" s="174"/>
-      <c r="K47" s="174"/>
-      <c r="L47" s="162"/>
-      <c r="M47" s="163"/>
-      <c r="N47" s="165"/>
-      <c r="O47" s="104"/>
-      <c r="P47" s="167"/>
-      <c r="Q47" s="169"/>
-      <c r="R47" s="161"/>
+      <c r="G47" s="167"/>
+      <c r="H47" s="167"/>
+      <c r="I47" s="167"/>
+      <c r="J47" s="167"/>
+      <c r="K47" s="167"/>
+      <c r="L47" s="173"/>
+      <c r="M47" s="174"/>
+      <c r="N47" s="176"/>
+      <c r="O47" s="140"/>
+      <c r="P47" s="178"/>
+      <c r="Q47" s="182"/>
+      <c r="R47" s="172"/>
       <c r="S47" s="68" t="s">
         <v>277</v>
       </c>
@@ -12133,16 +12148,16 @@
       </c>
     </row>
     <row r="48" spans="1:20" ht="15" customHeight="1">
-      <c r="A48" s="172" t="s">
-        <v>239</v>
-      </c>
-      <c r="B48" s="172">
+      <c r="A48" s="165" t="s">
+        <v>239</v>
+      </c>
+      <c r="B48" s="165">
         <v>1000714123</v>
       </c>
-      <c r="C48" s="173" t="s">
+      <c r="C48" s="166" t="s">
         <v>290</v>
       </c>
-      <c r="D48" s="174" t="s">
+      <c r="D48" s="167" t="s">
         <v>241</v>
       </c>
       <c r="E48" s="53">
@@ -12151,38 +12166,38 @@
       <c r="F48" s="54" t="s">
         <v>330</v>
       </c>
-      <c r="G48" s="174" t="s">
+      <c r="G48" s="167" t="s">
         <v>324</v>
       </c>
-      <c r="H48" s="174">
-        <v>0</v>
-      </c>
-      <c r="I48" s="174">
-        <v>0</v>
-      </c>
-      <c r="J48" s="174">
-        <v>0</v>
-      </c>
-      <c r="K48" s="174">
-        <v>0</v>
-      </c>
-      <c r="L48" s="162">
+      <c r="H48" s="167">
+        <v>0</v>
+      </c>
+      <c r="I48" s="167">
+        <v>0</v>
+      </c>
+      <c r="J48" s="167">
+        <v>0</v>
+      </c>
+      <c r="K48" s="167">
+        <v>0</v>
+      </c>
+      <c r="L48" s="173">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M48" s="163"/>
-      <c r="N48" s="164" t="s">
+      <c r="M48" s="174"/>
+      <c r="N48" s="175" t="s">
         <v>331</v>
       </c>
-      <c r="O48" s="103" t="str">
+      <c r="O48" s="138" t="str">
         <f>VLOOKUP(N48,$C$2:$G$1027,5,FALSE)</f>
         <v>ED560-025</v>
       </c>
-      <c r="P48" s="166">
+      <c r="P48" s="177">
         <v>640.5</v>
       </c>
-      <c r="Q48" s="168"/>
-      <c r="R48" s="160">
+      <c r="Q48" s="181"/>
+      <c r="R48" s="171">
         <v>29.4</v>
       </c>
       <c r="S48" s="66" t="s">
@@ -12193,24 +12208,24 @@
       </c>
     </row>
     <row r="49" spans="1:20" ht="15" customHeight="1">
-      <c r="A49" s="172"/>
-      <c r="B49" s="172"/>
-      <c r="C49" s="173"/>
-      <c r="D49" s="174"/>
+      <c r="A49" s="165"/>
+      <c r="B49" s="165"/>
+      <c r="C49" s="166"/>
+      <c r="D49" s="167"/>
       <c r="E49" s="53"/>
       <c r="F49" s="54"/>
-      <c r="G49" s="174"/>
-      <c r="H49" s="174"/>
-      <c r="I49" s="174"/>
-      <c r="J49" s="174"/>
-      <c r="K49" s="174"/>
-      <c r="L49" s="162"/>
-      <c r="M49" s="163"/>
-      <c r="N49" s="165"/>
-      <c r="O49" s="104"/>
-      <c r="P49" s="167"/>
-      <c r="Q49" s="169"/>
-      <c r="R49" s="161"/>
+      <c r="G49" s="167"/>
+      <c r="H49" s="167"/>
+      <c r="I49" s="167"/>
+      <c r="J49" s="167"/>
+      <c r="K49" s="167"/>
+      <c r="L49" s="173"/>
+      <c r="M49" s="174"/>
+      <c r="N49" s="176"/>
+      <c r="O49" s="140"/>
+      <c r="P49" s="178"/>
+      <c r="Q49" s="182"/>
+      <c r="R49" s="172"/>
       <c r="S49" s="68" t="s">
         <v>277</v>
       </c>
@@ -12219,16 +12234,16 @@
       </c>
     </row>
     <row r="50" spans="1:20" ht="15" customHeight="1">
-      <c r="A50" s="172" t="s">
-        <v>239</v>
-      </c>
-      <c r="B50" s="172">
+      <c r="A50" s="165" t="s">
+        <v>239</v>
+      </c>
+      <c r="B50" s="165">
         <v>1000714123</v>
       </c>
-      <c r="C50" s="173" t="s">
+      <c r="C50" s="166" t="s">
         <v>290</v>
       </c>
-      <c r="D50" s="174" t="s">
+      <c r="D50" s="167" t="s">
         <v>241</v>
       </c>
       <c r="E50" s="53">
@@ -12237,38 +12252,38 @@
       <c r="F50" s="54" t="s">
         <v>332</v>
       </c>
-      <c r="G50" s="174" t="s">
+      <c r="G50" s="167" t="s">
         <v>324</v>
       </c>
-      <c r="H50" s="174">
-        <v>0</v>
-      </c>
-      <c r="I50" s="174">
-        <v>0</v>
-      </c>
-      <c r="J50" s="174">
-        <v>0</v>
-      </c>
-      <c r="K50" s="174">
-        <v>0</v>
-      </c>
-      <c r="L50" s="162">
+      <c r="H50" s="167">
+        <v>0</v>
+      </c>
+      <c r="I50" s="167">
+        <v>0</v>
+      </c>
+      <c r="J50" s="167">
+        <v>0</v>
+      </c>
+      <c r="K50" s="167">
+        <v>0</v>
+      </c>
+      <c r="L50" s="173">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M50" s="163"/>
-      <c r="N50" s="164" t="s">
+      <c r="M50" s="174"/>
+      <c r="N50" s="175" t="s">
         <v>333</v>
       </c>
-      <c r="O50" s="103" t="str">
+      <c r="O50" s="138" t="str">
         <f>VLOOKUP(N50,$C$2:$G$1027,5,FALSE)</f>
         <v>EA560-012</v>
       </c>
-      <c r="P50" s="166">
+      <c r="P50" s="177">
         <v>37722.5</v>
       </c>
-      <c r="Q50" s="168"/>
-      <c r="R50" s="170">
+      <c r="Q50" s="181"/>
+      <c r="R50" s="179">
         <v>11.5</v>
       </c>
       <c r="S50" s="70" t="s">
@@ -12279,24 +12294,24 @@
       </c>
     </row>
     <row r="51" spans="1:20" ht="15" customHeight="1">
-      <c r="A51" s="172"/>
-      <c r="B51" s="172"/>
-      <c r="C51" s="173"/>
-      <c r="D51" s="174"/>
+      <c r="A51" s="165"/>
+      <c r="B51" s="165"/>
+      <c r="C51" s="166"/>
+      <c r="D51" s="167"/>
       <c r="E51" s="53"/>
       <c r="F51" s="54"/>
-      <c r="G51" s="174"/>
-      <c r="H51" s="174"/>
-      <c r="I51" s="174"/>
-      <c r="J51" s="174"/>
-      <c r="K51" s="174"/>
-      <c r="L51" s="162"/>
-      <c r="M51" s="163"/>
-      <c r="N51" s="165"/>
-      <c r="O51" s="104"/>
-      <c r="P51" s="167"/>
-      <c r="Q51" s="169"/>
-      <c r="R51" s="171"/>
+      <c r="G51" s="167"/>
+      <c r="H51" s="167"/>
+      <c r="I51" s="167"/>
+      <c r="J51" s="167"/>
+      <c r="K51" s="167"/>
+      <c r="L51" s="173"/>
+      <c r="M51" s="174"/>
+      <c r="N51" s="176"/>
+      <c r="O51" s="140"/>
+      <c r="P51" s="178"/>
+      <c r="Q51" s="182"/>
+      <c r="R51" s="180"/>
       <c r="S51" s="72" t="s">
         <v>277</v>
       </c>
@@ -12305,16 +12320,16 @@
       </c>
     </row>
     <row r="52" spans="1:20" ht="15" customHeight="1">
-      <c r="A52" s="172" t="s">
-        <v>239</v>
-      </c>
-      <c r="B52" s="172">
+      <c r="A52" s="165" t="s">
+        <v>239</v>
+      </c>
+      <c r="B52" s="165">
         <v>1000923003</v>
       </c>
-      <c r="C52" s="173" t="s">
+      <c r="C52" s="166" t="s">
         <v>303</v>
       </c>
-      <c r="D52" s="174" t="s">
+      <c r="D52" s="167" t="s">
         <v>267</v>
       </c>
       <c r="E52" s="53">
@@ -12323,38 +12338,38 @@
       <c r="F52" s="54" t="s">
         <v>334</v>
       </c>
-      <c r="G52" s="174" t="s">
+      <c r="G52" s="167" t="s">
         <v>324</v>
       </c>
-      <c r="H52" s="174">
-        <v>0</v>
-      </c>
-      <c r="I52" s="174">
-        <v>0</v>
-      </c>
-      <c r="J52" s="174">
-        <v>0</v>
-      </c>
-      <c r="K52" s="174">
-        <v>0</v>
-      </c>
-      <c r="L52" s="162">
+      <c r="H52" s="167">
+        <v>0</v>
+      </c>
+      <c r="I52" s="167">
+        <v>0</v>
+      </c>
+      <c r="J52" s="167">
+        <v>0</v>
+      </c>
+      <c r="K52" s="167">
+        <v>0</v>
+      </c>
+      <c r="L52" s="173">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M52" s="163"/>
-      <c r="N52" s="164" t="s">
+      <c r="M52" s="174"/>
+      <c r="N52" s="175" t="s">
         <v>335</v>
       </c>
-      <c r="O52" s="103" t="str">
+      <c r="O52" s="138" t="str">
         <f>VLOOKUP(N52,$C$2:$G$1027,5,FALSE)</f>
         <v>ED560-013</v>
       </c>
-      <c r="P52" s="166">
+      <c r="P52" s="177">
         <v>46195.25</v>
       </c>
-      <c r="Q52" s="168"/>
-      <c r="R52" s="160">
+      <c r="Q52" s="181"/>
+      <c r="R52" s="171">
         <v>12.6</v>
       </c>
       <c r="S52" s="66" t="s">
@@ -12365,24 +12380,24 @@
       </c>
     </row>
     <row r="53" spans="1:20" ht="15" customHeight="1">
-      <c r="A53" s="172"/>
-      <c r="B53" s="172"/>
-      <c r="C53" s="173"/>
-      <c r="D53" s="174"/>
+      <c r="A53" s="165"/>
+      <c r="B53" s="165"/>
+      <c r="C53" s="166"/>
+      <c r="D53" s="167"/>
       <c r="E53" s="53"/>
       <c r="F53" s="54"/>
-      <c r="G53" s="174"/>
-      <c r="H53" s="174"/>
-      <c r="I53" s="174"/>
-      <c r="J53" s="174"/>
-      <c r="K53" s="174"/>
-      <c r="L53" s="162"/>
-      <c r="M53" s="163"/>
-      <c r="N53" s="165"/>
-      <c r="O53" s="104"/>
-      <c r="P53" s="167"/>
-      <c r="Q53" s="169"/>
-      <c r="R53" s="161"/>
+      <c r="G53" s="167"/>
+      <c r="H53" s="167"/>
+      <c r="I53" s="167"/>
+      <c r="J53" s="167"/>
+      <c r="K53" s="167"/>
+      <c r="L53" s="173"/>
+      <c r="M53" s="174"/>
+      <c r="N53" s="176"/>
+      <c r="O53" s="140"/>
+      <c r="P53" s="178"/>
+      <c r="Q53" s="182"/>
+      <c r="R53" s="172"/>
       <c r="S53" s="68" t="s">
         <v>277</v>
       </c>
@@ -12391,16 +12406,16 @@
       </c>
     </row>
     <row r="54" spans="1:20" ht="15" customHeight="1">
-      <c r="A54" s="172" t="s">
-        <v>239</v>
-      </c>
-      <c r="B54" s="172">
+      <c r="A54" s="165" t="s">
+        <v>239</v>
+      </c>
+      <c r="B54" s="165">
         <v>1000714123</v>
       </c>
-      <c r="C54" s="173" t="s">
+      <c r="C54" s="166" t="s">
         <v>290</v>
       </c>
-      <c r="D54" s="174" t="s">
+      <c r="D54" s="167" t="s">
         <v>241</v>
       </c>
       <c r="E54" s="53">
@@ -12409,38 +12424,38 @@
       <c r="F54" s="54" t="s">
         <v>336</v>
       </c>
-      <c r="G54" s="174" t="s">
+      <c r="G54" s="167" t="s">
         <v>324</v>
       </c>
-      <c r="H54" s="174">
-        <v>0</v>
-      </c>
-      <c r="I54" s="174">
-        <v>0</v>
-      </c>
-      <c r="J54" s="174">
-        <v>0</v>
-      </c>
-      <c r="K54" s="174">
-        <v>0</v>
-      </c>
-      <c r="L54" s="162">
+      <c r="H54" s="167">
+        <v>0</v>
+      </c>
+      <c r="I54" s="167">
+        <v>0</v>
+      </c>
+      <c r="J54" s="167">
+        <v>0</v>
+      </c>
+      <c r="K54" s="167">
+        <v>0</v>
+      </c>
+      <c r="L54" s="173">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M54" s="163"/>
-      <c r="N54" s="164" t="s">
+      <c r="M54" s="174"/>
+      <c r="N54" s="175" t="s">
         <v>337</v>
       </c>
-      <c r="O54" s="103" t="str">
+      <c r="O54" s="138" t="str">
         <f>VLOOKUP(N54,$C$2:$G$1027,5,FALSE)</f>
         <v>EA560-020</v>
       </c>
-      <c r="P54" s="166">
+      <c r="P54" s="177">
         <v>16386.75</v>
       </c>
-      <c r="Q54" s="168"/>
-      <c r="R54" s="160">
+      <c r="Q54" s="181"/>
+      <c r="R54" s="171">
         <v>19.5</v>
       </c>
       <c r="S54" s="66" t="s">
@@ -12451,24 +12466,24 @@
       </c>
     </row>
     <row r="55" spans="1:20" ht="15" customHeight="1">
-      <c r="A55" s="172"/>
-      <c r="B55" s="172"/>
-      <c r="C55" s="173"/>
-      <c r="D55" s="174"/>
+      <c r="A55" s="165"/>
+      <c r="B55" s="165"/>
+      <c r="C55" s="166"/>
+      <c r="D55" s="167"/>
       <c r="E55" s="53"/>
       <c r="F55" s="54"/>
-      <c r="G55" s="174"/>
-      <c r="H55" s="174"/>
-      <c r="I55" s="174"/>
-      <c r="J55" s="174"/>
-      <c r="K55" s="174"/>
-      <c r="L55" s="162"/>
-      <c r="M55" s="163"/>
-      <c r="N55" s="165"/>
-      <c r="O55" s="104"/>
-      <c r="P55" s="167"/>
-      <c r="Q55" s="169"/>
-      <c r="R55" s="161"/>
+      <c r="G55" s="167"/>
+      <c r="H55" s="167"/>
+      <c r="I55" s="167"/>
+      <c r="J55" s="167"/>
+      <c r="K55" s="167"/>
+      <c r="L55" s="173"/>
+      <c r="M55" s="174"/>
+      <c r="N55" s="176"/>
+      <c r="O55" s="140"/>
+      <c r="P55" s="178"/>
+      <c r="Q55" s="182"/>
+      <c r="R55" s="172"/>
       <c r="S55" s="68" t="s">
         <v>277</v>
       </c>
@@ -12477,16 +12492,16 @@
       </c>
     </row>
     <row r="56" spans="1:20" ht="15" customHeight="1">
-      <c r="A56" s="172" t="s">
-        <v>239</v>
-      </c>
-      <c r="B56" s="172">
+      <c r="A56" s="165" t="s">
+        <v>239</v>
+      </c>
+      <c r="B56" s="165">
         <v>1000713411</v>
       </c>
-      <c r="C56" s="173" t="s">
+      <c r="C56" s="166" t="s">
         <v>293</v>
       </c>
-      <c r="D56" s="174" t="s">
+      <c r="D56" s="167" t="s">
         <v>241</v>
       </c>
       <c r="E56" s="53">
@@ -12495,38 +12510,38 @@
       <c r="F56" s="54" t="s">
         <v>338</v>
       </c>
-      <c r="G56" s="174" t="s">
+      <c r="G56" s="167" t="s">
         <v>339</v>
       </c>
-      <c r="H56" s="174">
+      <c r="H56" s="167">
         <v>1033</v>
       </c>
-      <c r="I56" s="174">
+      <c r="I56" s="167">
         <v>2002</v>
       </c>
-      <c r="J56" s="174">
+      <c r="J56" s="167">
         <v>2466</v>
       </c>
-      <c r="K56" s="174">
+      <c r="K56" s="167">
         <v>1756</v>
       </c>
-      <c r="L56" s="162">
+      <c r="L56" s="173">
         <f t="shared" si="2"/>
         <v>1814.25</v>
       </c>
-      <c r="M56" s="163"/>
-      <c r="N56" s="164" t="s">
+      <c r="M56" s="174"/>
+      <c r="N56" s="175" t="s">
         <v>340</v>
       </c>
-      <c r="O56" s="103" t="str">
+      <c r="O56" s="138" t="str">
         <f>VLOOKUP(N56,$C$2:$G$1027,5,FALSE)</f>
         <v>EA560-025</v>
       </c>
-      <c r="P56" s="166">
+      <c r="P56" s="177">
         <v>324.75</v>
       </c>
-      <c r="Q56" s="168"/>
-      <c r="R56" s="160">
+      <c r="Q56" s="181"/>
+      <c r="R56" s="171">
         <v>24.5</v>
       </c>
       <c r="S56" s="66" t="s">
@@ -12537,24 +12552,24 @@
       </c>
     </row>
     <row r="57" spans="1:20" ht="15" customHeight="1">
-      <c r="A57" s="172"/>
-      <c r="B57" s="172"/>
-      <c r="C57" s="173"/>
-      <c r="D57" s="174"/>
+      <c r="A57" s="165"/>
+      <c r="B57" s="165"/>
+      <c r="C57" s="166"/>
+      <c r="D57" s="167"/>
       <c r="E57" s="53"/>
       <c r="F57" s="54"/>
-      <c r="G57" s="174"/>
-      <c r="H57" s="174"/>
-      <c r="I57" s="174"/>
-      <c r="J57" s="174"/>
-      <c r="K57" s="174"/>
-      <c r="L57" s="162"/>
-      <c r="M57" s="163"/>
-      <c r="N57" s="165"/>
-      <c r="O57" s="104"/>
-      <c r="P57" s="167"/>
-      <c r="Q57" s="169"/>
-      <c r="R57" s="161"/>
+      <c r="G57" s="167"/>
+      <c r="H57" s="167"/>
+      <c r="I57" s="167"/>
+      <c r="J57" s="167"/>
+      <c r="K57" s="167"/>
+      <c r="L57" s="173"/>
+      <c r="M57" s="174"/>
+      <c r="N57" s="176"/>
+      <c r="O57" s="140"/>
+      <c r="P57" s="178"/>
+      <c r="Q57" s="182"/>
+      <c r="R57" s="172"/>
       <c r="S57" s="68" t="s">
         <v>277</v>
       </c>
@@ -12622,16 +12637,16 @@
       </c>
     </row>
     <row r="59" spans="1:20" ht="15" customHeight="1">
-      <c r="A59" s="172" t="s">
-        <v>239</v>
-      </c>
-      <c r="B59" s="172">
+      <c r="A59" s="165" t="s">
+        <v>239</v>
+      </c>
+      <c r="B59" s="165">
         <v>1000713411</v>
       </c>
-      <c r="C59" s="173" t="s">
+      <c r="C59" s="166" t="s">
         <v>293</v>
       </c>
-      <c r="D59" s="174" t="s">
+      <c r="D59" s="167" t="s">
         <v>241</v>
       </c>
       <c r="E59" s="53">
@@ -12640,38 +12655,38 @@
       <c r="F59" s="54" t="s">
         <v>343</v>
       </c>
-      <c r="G59" s="174" t="s">
+      <c r="G59" s="167" t="s">
         <v>339</v>
       </c>
-      <c r="H59" s="174">
+      <c r="H59" s="167">
         <v>200</v>
       </c>
-      <c r="I59" s="174">
+      <c r="I59" s="167">
         <v>600</v>
       </c>
-      <c r="J59" s="174">
+      <c r="J59" s="167">
         <v>200</v>
       </c>
-      <c r="K59" s="174">
+      <c r="K59" s="167">
         <v>600</v>
       </c>
-      <c r="L59" s="162">
+      <c r="L59" s="173">
         <f t="shared" si="2"/>
         <v>400</v>
       </c>
-      <c r="M59" s="163"/>
-      <c r="N59" s="164" t="s">
+      <c r="M59" s="174"/>
+      <c r="N59" s="175" t="s">
         <v>344</v>
       </c>
-      <c r="O59" s="103" t="str">
+      <c r="O59" s="138" t="str">
         <f>VLOOKUP(N59,$C$2:$G$1027,5,FALSE)</f>
         <v>EA560-010</v>
       </c>
-      <c r="P59" s="166">
+      <c r="P59" s="177">
         <v>3750</v>
       </c>
-      <c r="Q59" s="168"/>
-      <c r="R59" s="160">
+      <c r="Q59" s="181"/>
+      <c r="R59" s="171">
         <v>9.6</v>
       </c>
       <c r="S59" s="66" t="s">
@@ -12682,24 +12697,24 @@
       </c>
     </row>
     <row r="60" spans="1:20" ht="15" customHeight="1">
-      <c r="A60" s="172"/>
-      <c r="B60" s="172"/>
-      <c r="C60" s="173"/>
-      <c r="D60" s="174"/>
+      <c r="A60" s="165"/>
+      <c r="B60" s="165"/>
+      <c r="C60" s="166"/>
+      <c r="D60" s="167"/>
       <c r="E60" s="53"/>
       <c r="F60" s="54"/>
-      <c r="G60" s="174"/>
-      <c r="H60" s="174"/>
-      <c r="I60" s="174"/>
-      <c r="J60" s="174"/>
-      <c r="K60" s="174"/>
-      <c r="L60" s="162"/>
-      <c r="M60" s="163"/>
-      <c r="N60" s="165"/>
-      <c r="O60" s="104"/>
-      <c r="P60" s="167"/>
-      <c r="Q60" s="169"/>
-      <c r="R60" s="161"/>
+      <c r="G60" s="167"/>
+      <c r="H60" s="167"/>
+      <c r="I60" s="167"/>
+      <c r="J60" s="167"/>
+      <c r="K60" s="167"/>
+      <c r="L60" s="173"/>
+      <c r="M60" s="174"/>
+      <c r="N60" s="176"/>
+      <c r="O60" s="140"/>
+      <c r="P60" s="178"/>
+      <c r="Q60" s="182"/>
+      <c r="R60" s="172"/>
       <c r="S60" s="68" t="s">
         <v>277</v>
       </c>
@@ -12708,16 +12723,16 @@
       </c>
     </row>
     <row r="61" spans="1:20" ht="15" customHeight="1">
-      <c r="A61" s="172" t="s">
-        <v>239</v>
-      </c>
-      <c r="B61" s="172">
+      <c r="A61" s="165" t="s">
+        <v>239</v>
+      </c>
+      <c r="B61" s="165">
         <v>1000713411</v>
       </c>
-      <c r="C61" s="173" t="s">
+      <c r="C61" s="166" t="s">
         <v>293</v>
       </c>
-      <c r="D61" s="174" t="s">
+      <c r="D61" s="167" t="s">
         <v>241</v>
       </c>
       <c r="E61" s="53">
@@ -12726,38 +12741,38 @@
       <c r="F61" s="54" t="s">
         <v>345</v>
       </c>
-      <c r="G61" s="174" t="s">
+      <c r="G61" s="167" t="s">
         <v>339</v>
       </c>
-      <c r="H61" s="174">
-        <v>0</v>
-      </c>
-      <c r="I61" s="174">
-        <v>0</v>
-      </c>
-      <c r="J61" s="174">
-        <v>0</v>
-      </c>
-      <c r="K61" s="174">
-        <v>0</v>
-      </c>
-      <c r="L61" s="162">
+      <c r="H61" s="167">
+        <v>0</v>
+      </c>
+      <c r="I61" s="167">
+        <v>0</v>
+      </c>
+      <c r="J61" s="167">
+        <v>0</v>
+      </c>
+      <c r="K61" s="167">
+        <v>0</v>
+      </c>
+      <c r="L61" s="173">
         <f t="shared" ref="L61:L74" si="3">AVERAGE(H61:K61)</f>
         <v>0</v>
       </c>
-      <c r="M61" s="163"/>
-      <c r="N61" s="164" t="s">
+      <c r="M61" s="174"/>
+      <c r="N61" s="175" t="s">
         <v>346</v>
       </c>
-      <c r="O61" s="103" t="str">
+      <c r="O61" s="138" t="str">
         <f>VLOOKUP(N61,$C$2:$G$1027,5,FALSE)</f>
         <v>ED560-014B</v>
       </c>
-      <c r="P61" s="166">
+      <c r="P61" s="177">
         <v>86313</v>
       </c>
-      <c r="Q61" s="168"/>
-      <c r="R61" s="170">
+      <c r="Q61" s="181"/>
+      <c r="R61" s="179">
         <v>13.4</v>
       </c>
       <c r="S61" s="70" t="s">
@@ -12768,24 +12783,24 @@
       </c>
     </row>
     <row r="62" spans="1:20" ht="15" customHeight="1">
-      <c r="A62" s="172"/>
-      <c r="B62" s="172"/>
-      <c r="C62" s="173"/>
-      <c r="D62" s="174"/>
+      <c r="A62" s="165"/>
+      <c r="B62" s="165"/>
+      <c r="C62" s="166"/>
+      <c r="D62" s="167"/>
       <c r="E62" s="53"/>
       <c r="F62" s="54"/>
-      <c r="G62" s="174"/>
-      <c r="H62" s="174"/>
-      <c r="I62" s="174"/>
-      <c r="J62" s="174"/>
-      <c r="K62" s="174"/>
-      <c r="L62" s="162"/>
-      <c r="M62" s="163"/>
-      <c r="N62" s="165"/>
-      <c r="O62" s="104"/>
-      <c r="P62" s="167"/>
-      <c r="Q62" s="169"/>
-      <c r="R62" s="171"/>
+      <c r="G62" s="167"/>
+      <c r="H62" s="167"/>
+      <c r="I62" s="167"/>
+      <c r="J62" s="167"/>
+      <c r="K62" s="167"/>
+      <c r="L62" s="173"/>
+      <c r="M62" s="174"/>
+      <c r="N62" s="176"/>
+      <c r="O62" s="140"/>
+      <c r="P62" s="178"/>
+      <c r="Q62" s="182"/>
+      <c r="R62" s="180"/>
       <c r="S62" s="72" t="s">
         <v>277</v>
       </c>
@@ -12794,16 +12809,16 @@
       </c>
     </row>
     <row r="63" spans="1:20" ht="15" customHeight="1">
-      <c r="A63" s="172" t="s">
-        <v>239</v>
-      </c>
-      <c r="B63" s="172">
+      <c r="A63" s="165" t="s">
+        <v>239</v>
+      </c>
+      <c r="B63" s="165">
         <v>1000713412</v>
       </c>
-      <c r="C63" s="173" t="s">
+      <c r="C63" s="166" t="s">
         <v>295</v>
       </c>
-      <c r="D63" s="174" t="s">
+      <c r="D63" s="167" t="s">
         <v>241</v>
       </c>
       <c r="E63" s="53">
@@ -12812,38 +12827,38 @@
       <c r="F63" s="54" t="s">
         <v>347</v>
       </c>
-      <c r="G63" s="174" t="s">
+      <c r="G63" s="167" t="s">
         <v>348</v>
       </c>
-      <c r="H63" s="174">
-        <v>0</v>
-      </c>
-      <c r="I63" s="174">
+      <c r="H63" s="167">
+        <v>0</v>
+      </c>
+      <c r="I63" s="167">
         <v>100</v>
       </c>
-      <c r="J63" s="174">
-        <v>0</v>
-      </c>
-      <c r="K63" s="174">
-        <v>0</v>
-      </c>
-      <c r="L63" s="162">
+      <c r="J63" s="167">
+        <v>0</v>
+      </c>
+      <c r="K63" s="167">
+        <v>0</v>
+      </c>
+      <c r="L63" s="173">
         <f t="shared" si="3"/>
         <v>25</v>
       </c>
-      <c r="M63" s="163"/>
-      <c r="N63" s="164" t="s">
+      <c r="M63" s="174"/>
+      <c r="N63" s="175" t="s">
         <v>349</v>
       </c>
-      <c r="O63" s="103" t="str">
+      <c r="O63" s="138" t="str">
         <f>VLOOKUP(N63,$C$2:$G$1027,5,FALSE)</f>
         <v>ED560-025</v>
       </c>
-      <c r="P63" s="166">
+      <c r="P63" s="177">
         <v>5448.5</v>
       </c>
-      <c r="Q63" s="168"/>
-      <c r="R63" s="160">
+      <c r="Q63" s="181"/>
+      <c r="R63" s="171">
         <v>24.4</v>
       </c>
       <c r="S63" s="66" t="s">
@@ -12854,24 +12869,24 @@
       </c>
     </row>
     <row r="64" spans="1:20" ht="15" customHeight="1">
-      <c r="A64" s="172"/>
-      <c r="B64" s="172"/>
-      <c r="C64" s="173"/>
-      <c r="D64" s="174"/>
+      <c r="A64" s="165"/>
+      <c r="B64" s="165"/>
+      <c r="C64" s="166"/>
+      <c r="D64" s="167"/>
       <c r="E64" s="53"/>
       <c r="F64" s="54"/>
-      <c r="G64" s="174"/>
-      <c r="H64" s="174"/>
-      <c r="I64" s="174"/>
-      <c r="J64" s="174"/>
-      <c r="K64" s="174"/>
-      <c r="L64" s="162"/>
-      <c r="M64" s="163"/>
-      <c r="N64" s="165"/>
-      <c r="O64" s="104"/>
-      <c r="P64" s="167"/>
-      <c r="Q64" s="169"/>
-      <c r="R64" s="161"/>
+      <c r="G64" s="167"/>
+      <c r="H64" s="167"/>
+      <c r="I64" s="167"/>
+      <c r="J64" s="167"/>
+      <c r="K64" s="167"/>
+      <c r="L64" s="173"/>
+      <c r="M64" s="174"/>
+      <c r="N64" s="176"/>
+      <c r="O64" s="140"/>
+      <c r="P64" s="178"/>
+      <c r="Q64" s="182"/>
+      <c r="R64" s="172"/>
       <c r="S64" s="68" t="s">
         <v>277</v>
       </c>
@@ -12998,16 +13013,16 @@
       </c>
     </row>
     <row r="67" spans="1:20" ht="15" customHeight="1">
-      <c r="A67" s="172" t="s">
-        <v>239</v>
-      </c>
-      <c r="B67" s="172">
+      <c r="A67" s="165" t="s">
+        <v>239</v>
+      </c>
+      <c r="B67" s="165">
         <v>1000713413</v>
       </c>
-      <c r="C67" s="173" t="s">
+      <c r="C67" s="166" t="s">
         <v>297</v>
       </c>
-      <c r="D67" s="174" t="s">
+      <c r="D67" s="167" t="s">
         <v>267</v>
       </c>
       <c r="E67" s="53">
@@ -13016,38 +13031,38 @@
       <c r="F67" s="54" t="s">
         <v>355</v>
       </c>
-      <c r="G67" s="174" t="s">
+      <c r="G67" s="167" t="s">
         <v>353</v>
       </c>
-      <c r="H67" s="174">
+      <c r="H67" s="167">
         <v>770</v>
       </c>
-      <c r="I67" s="174">
+      <c r="I67" s="167">
         <v>3503</v>
       </c>
-      <c r="J67" s="174">
+      <c r="J67" s="167">
         <v>1790</v>
       </c>
-      <c r="K67" s="174">
+      <c r="K67" s="167">
         <v>2608</v>
       </c>
-      <c r="L67" s="162">
+      <c r="L67" s="173">
         <f t="shared" si="3"/>
         <v>2167.75</v>
       </c>
-      <c r="M67" s="163"/>
-      <c r="N67" s="164" t="s">
+      <c r="M67" s="174"/>
+      <c r="N67" s="175" t="s">
         <v>356</v>
       </c>
-      <c r="O67" s="103" t="str">
+      <c r="O67" s="138" t="str">
         <f>VLOOKUP(N67,$C$2:$G$1027,5,FALSE)</f>
         <v>EA560-015</v>
       </c>
-      <c r="P67" s="166">
+      <c r="P67" s="177">
         <v>27925.75</v>
       </c>
-      <c r="Q67" s="168"/>
-      <c r="R67" s="160">
+      <c r="Q67" s="181"/>
+      <c r="R67" s="171">
         <v>14.7</v>
       </c>
       <c r="S67" s="66" t="s">
@@ -13058,24 +13073,24 @@
       </c>
     </row>
     <row r="68" spans="1:20" ht="15" customHeight="1">
-      <c r="A68" s="172"/>
-      <c r="B68" s="172"/>
-      <c r="C68" s="173"/>
-      <c r="D68" s="174"/>
+      <c r="A68" s="165"/>
+      <c r="B68" s="165"/>
+      <c r="C68" s="166"/>
+      <c r="D68" s="167"/>
       <c r="E68" s="53"/>
       <c r="F68" s="54"/>
-      <c r="G68" s="174"/>
-      <c r="H68" s="174"/>
-      <c r="I68" s="174"/>
-      <c r="J68" s="174"/>
-      <c r="K68" s="174"/>
-      <c r="L68" s="162"/>
-      <c r="M68" s="163"/>
-      <c r="N68" s="165"/>
-      <c r="O68" s="104"/>
-      <c r="P68" s="167"/>
-      <c r="Q68" s="169"/>
-      <c r="R68" s="161"/>
+      <c r="G68" s="167"/>
+      <c r="H68" s="167"/>
+      <c r="I68" s="167"/>
+      <c r="J68" s="167"/>
+      <c r="K68" s="167"/>
+      <c r="L68" s="173"/>
+      <c r="M68" s="174"/>
+      <c r="N68" s="176"/>
+      <c r="O68" s="140"/>
+      <c r="P68" s="178"/>
+      <c r="Q68" s="182"/>
+      <c r="R68" s="172"/>
       <c r="S68" s="68" t="s">
         <v>277</v>
       </c>
@@ -13143,16 +13158,16 @@
       </c>
     </row>
     <row r="70" spans="1:20" ht="15" customHeight="1">
-      <c r="A70" s="172" t="s">
-        <v>239</v>
-      </c>
-      <c r="B70" s="172">
+      <c r="A70" s="165" t="s">
+        <v>239</v>
+      </c>
+      <c r="B70" s="165">
         <v>1000713413</v>
       </c>
-      <c r="C70" s="173" t="s">
+      <c r="C70" s="166" t="s">
         <v>297</v>
       </c>
-      <c r="D70" s="174" t="s">
+      <c r="D70" s="167" t="s">
         <v>267</v>
       </c>
       <c r="E70" s="53">
@@ -13161,38 +13176,38 @@
       <c r="F70" s="54" t="s">
         <v>359</v>
       </c>
-      <c r="G70" s="174" t="s">
+      <c r="G70" s="167" t="s">
         <v>353</v>
       </c>
-      <c r="H70" s="174">
-        <v>0</v>
-      </c>
-      <c r="I70" s="174">
-        <v>0</v>
-      </c>
-      <c r="J70" s="174">
-        <v>0</v>
-      </c>
-      <c r="K70" s="174">
-        <v>0</v>
-      </c>
-      <c r="L70" s="162">
+      <c r="H70" s="167">
+        <v>0</v>
+      </c>
+      <c r="I70" s="167">
+        <v>0</v>
+      </c>
+      <c r="J70" s="167">
+        <v>0</v>
+      </c>
+      <c r="K70" s="167">
+        <v>0</v>
+      </c>
+      <c r="L70" s="173">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M70" s="163"/>
-      <c r="N70" s="164" t="s">
+      <c r="M70" s="174"/>
+      <c r="N70" s="175" t="s">
         <v>360</v>
       </c>
-      <c r="O70" s="103" t="str">
+      <c r="O70" s="138" t="str">
         <f>VLOOKUP(N70,$C$2:$G$1027,5,FALSE)</f>
         <v>EA560-018</v>
       </c>
-      <c r="P70" s="166">
+      <c r="P70" s="177">
         <v>2408</v>
       </c>
-      <c r="Q70" s="168"/>
-      <c r="R70" s="160">
+      <c r="Q70" s="181"/>
+      <c r="R70" s="171">
         <v>17.600000000000001</v>
       </c>
       <c r="S70" s="66" t="s">
@@ -13203,24 +13218,24 @@
       </c>
     </row>
     <row r="71" spans="1:20" ht="15" customHeight="1">
-      <c r="A71" s="172"/>
-      <c r="B71" s="172"/>
-      <c r="C71" s="173"/>
-      <c r="D71" s="174"/>
+      <c r="A71" s="165"/>
+      <c r="B71" s="165"/>
+      <c r="C71" s="166"/>
+      <c r="D71" s="167"/>
       <c r="E71" s="53"/>
       <c r="F71" s="54"/>
-      <c r="G71" s="174"/>
-      <c r="H71" s="174"/>
-      <c r="I71" s="174"/>
-      <c r="J71" s="174"/>
-      <c r="K71" s="174"/>
-      <c r="L71" s="162"/>
-      <c r="M71" s="163"/>
-      <c r="N71" s="165"/>
-      <c r="O71" s="104"/>
-      <c r="P71" s="167"/>
-      <c r="Q71" s="169"/>
-      <c r="R71" s="161"/>
+      <c r="G71" s="167"/>
+      <c r="H71" s="167"/>
+      <c r="I71" s="167"/>
+      <c r="J71" s="167"/>
+      <c r="K71" s="167"/>
+      <c r="L71" s="173"/>
+      <c r="M71" s="174"/>
+      <c r="N71" s="176"/>
+      <c r="O71" s="140"/>
+      <c r="P71" s="178"/>
+      <c r="Q71" s="182"/>
+      <c r="R71" s="172"/>
       <c r="S71" s="68" t="s">
         <v>277</v>
       </c>
@@ -13347,16 +13362,16 @@
       </c>
     </row>
     <row r="74" spans="1:20" ht="15" customHeight="1">
-      <c r="A74" s="172" t="s">
-        <v>239</v>
-      </c>
-      <c r="B74" s="172">
+      <c r="A74" s="165" t="s">
+        <v>239</v>
+      </c>
+      <c r="B74" s="165">
         <v>1000713413</v>
       </c>
-      <c r="C74" s="173" t="s">
+      <c r="C74" s="166" t="s">
         <v>297</v>
       </c>
-      <c r="D74" s="174" t="s">
+      <c r="D74" s="167" t="s">
         <v>267</v>
       </c>
       <c r="E74" s="53">
@@ -13365,38 +13380,38 @@
       <c r="F74" s="54" t="s">
         <v>365</v>
       </c>
-      <c r="G74" s="174" t="s">
+      <c r="G74" s="167" t="s">
         <v>353</v>
       </c>
-      <c r="H74" s="174">
-        <v>0</v>
-      </c>
-      <c r="I74" s="174">
+      <c r="H74" s="167">
+        <v>0</v>
+      </c>
+      <c r="I74" s="167">
         <v>288</v>
       </c>
-      <c r="J74" s="174">
+      <c r="J74" s="167">
         <v>144</v>
       </c>
-      <c r="K74" s="174">
-        <v>0</v>
-      </c>
-      <c r="L74" s="162">
+      <c r="K74" s="167">
+        <v>0</v>
+      </c>
+      <c r="L74" s="173">
         <f t="shared" si="3"/>
         <v>108</v>
       </c>
-      <c r="M74" s="163"/>
-      <c r="N74" s="164" t="s">
+      <c r="M74" s="174"/>
+      <c r="N74" s="175" t="s">
         <v>366</v>
       </c>
-      <c r="O74" s="103" t="str">
+      <c r="O74" s="138" t="str">
         <f>VLOOKUP(N74,$C$2:$G$1027,5,FALSE)</f>
         <v>ED560-020</v>
       </c>
-      <c r="P74" s="166">
+      <c r="P74" s="177">
         <v>9024.5</v>
       </c>
-      <c r="Q74" s="168"/>
-      <c r="R74" s="160">
+      <c r="Q74" s="181"/>
+      <c r="R74" s="171">
         <v>19.399999999999999</v>
       </c>
       <c r="S74" s="66" t="s">
@@ -13407,24 +13422,24 @@
       </c>
     </row>
     <row r="75" spans="1:20" ht="15" customHeight="1">
-      <c r="A75" s="172"/>
-      <c r="B75" s="172"/>
-      <c r="C75" s="173"/>
-      <c r="D75" s="174"/>
+      <c r="A75" s="165"/>
+      <c r="B75" s="165"/>
+      <c r="C75" s="166"/>
+      <c r="D75" s="167"/>
       <c r="E75" s="53"/>
       <c r="F75" s="54"/>
-      <c r="G75" s="174"/>
-      <c r="H75" s="174"/>
-      <c r="I75" s="174"/>
-      <c r="J75" s="174"/>
-      <c r="K75" s="174"/>
-      <c r="L75" s="162"/>
-      <c r="M75" s="163"/>
-      <c r="N75" s="165"/>
-      <c r="O75" s="104"/>
-      <c r="P75" s="167"/>
-      <c r="Q75" s="169"/>
-      <c r="R75" s="161"/>
+      <c r="G75" s="167"/>
+      <c r="H75" s="167"/>
+      <c r="I75" s="167"/>
+      <c r="J75" s="167"/>
+      <c r="K75" s="167"/>
+      <c r="L75" s="173"/>
+      <c r="M75" s="174"/>
+      <c r="N75" s="176"/>
+      <c r="O75" s="140"/>
+      <c r="P75" s="178"/>
+      <c r="Q75" s="182"/>
+      <c r="R75" s="172"/>
       <c r="S75" s="68" t="s">
         <v>277</v>
       </c>
@@ -13492,16 +13507,16 @@
       </c>
     </row>
     <row r="77" spans="1:20" ht="15" customHeight="1">
-      <c r="A77" s="172" t="s">
-        <v>239</v>
-      </c>
-      <c r="B77" s="172">
+      <c r="A77" s="165" t="s">
+        <v>239</v>
+      </c>
+      <c r="B77" s="165">
         <v>1000713384</v>
       </c>
-      <c r="C77" s="173" t="s">
+      <c r="C77" s="166" t="s">
         <v>252</v>
       </c>
-      <c r="D77" s="174" t="s">
+      <c r="D77" s="167" t="s">
         <v>241</v>
       </c>
       <c r="E77" s="53">
@@ -13510,38 +13525,38 @@
       <c r="F77" s="54" t="s">
         <v>370</v>
       </c>
-      <c r="G77" s="174" t="s">
+      <c r="G77" s="167" t="s">
         <v>368</v>
       </c>
-      <c r="H77" s="174">
+      <c r="H77" s="167">
         <v>1450</v>
       </c>
-      <c r="I77" s="174">
+      <c r="I77" s="167">
         <v>2140</v>
       </c>
-      <c r="J77" s="174">
+      <c r="J77" s="167">
         <v>2090</v>
       </c>
-      <c r="K77" s="174">
+      <c r="K77" s="167">
         <v>900</v>
       </c>
-      <c r="L77" s="162">
+      <c r="L77" s="173">
         <f t="shared" si="4"/>
         <v>1645</v>
       </c>
-      <c r="M77" s="163"/>
-      <c r="N77" s="164" t="s">
+      <c r="M77" s="174"/>
+      <c r="N77" s="175" t="s">
         <v>371</v>
       </c>
-      <c r="O77" s="103" t="str">
+      <c r="O77" s="138" t="str">
         <f>VLOOKUP(N77,$C$2:$G$1027,5,FALSE)</f>
         <v>ED560-015</v>
       </c>
-      <c r="P77" s="166">
+      <c r="P77" s="177">
         <v>347557</v>
       </c>
-      <c r="Q77" s="168"/>
-      <c r="R77" s="170">
+      <c r="Q77" s="181"/>
+      <c r="R77" s="179">
         <v>14.6</v>
       </c>
       <c r="S77" s="70" t="s">
@@ -13552,24 +13567,24 @@
       </c>
     </row>
     <row r="78" spans="1:20" ht="15" customHeight="1">
-      <c r="A78" s="172"/>
-      <c r="B78" s="172"/>
-      <c r="C78" s="173"/>
-      <c r="D78" s="174"/>
+      <c r="A78" s="165"/>
+      <c r="B78" s="165"/>
+      <c r="C78" s="166"/>
+      <c r="D78" s="167"/>
       <c r="E78" s="53"/>
       <c r="F78" s="54"/>
-      <c r="G78" s="174"/>
-      <c r="H78" s="174"/>
-      <c r="I78" s="174"/>
-      <c r="J78" s="174"/>
-      <c r="K78" s="174"/>
-      <c r="L78" s="162"/>
-      <c r="M78" s="163"/>
-      <c r="N78" s="165"/>
-      <c r="O78" s="104"/>
-      <c r="P78" s="167"/>
-      <c r="Q78" s="169"/>
-      <c r="R78" s="171"/>
+      <c r="G78" s="167"/>
+      <c r="H78" s="167"/>
+      <c r="I78" s="167"/>
+      <c r="J78" s="167"/>
+      <c r="K78" s="167"/>
+      <c r="L78" s="173"/>
+      <c r="M78" s="174"/>
+      <c r="N78" s="176"/>
+      <c r="O78" s="140"/>
+      <c r="P78" s="178"/>
+      <c r="Q78" s="182"/>
+      <c r="R78" s="180"/>
       <c r="S78" s="72" t="s">
         <v>277</v>
       </c>
@@ -13578,16 +13593,16 @@
       </c>
     </row>
     <row r="79" spans="1:20" ht="15" customHeight="1">
-      <c r="A79" s="172" t="s">
-        <v>239</v>
-      </c>
-      <c r="B79" s="172">
+      <c r="A79" s="165" t="s">
+        <v>239</v>
+      </c>
+      <c r="B79" s="165">
         <v>1000713384</v>
       </c>
-      <c r="C79" s="173" t="s">
+      <c r="C79" s="166" t="s">
         <v>252</v>
       </c>
-      <c r="D79" s="174" t="s">
+      <c r="D79" s="167" t="s">
         <v>241</v>
       </c>
       <c r="E79" s="53">
@@ -13596,38 +13611,38 @@
       <c r="F79" s="54" t="s">
         <v>372</v>
       </c>
-      <c r="G79" s="174" t="s">
+      <c r="G79" s="167" t="s">
         <v>368</v>
       </c>
-      <c r="H79" s="174">
+      <c r="H79" s="167">
         <v>3600</v>
       </c>
-      <c r="I79" s="174">
+      <c r="I79" s="167">
         <v>2840</v>
       </c>
-      <c r="J79" s="174">
+      <c r="J79" s="167">
         <v>1590</v>
       </c>
-      <c r="K79" s="174">
-        <v>0</v>
-      </c>
-      <c r="L79" s="162">
+      <c r="K79" s="167">
+        <v>0</v>
+      </c>
+      <c r="L79" s="173">
         <f t="shared" ref="L79:L142" si="5">AVERAGE(H79:K79)</f>
         <v>2007.5</v>
       </c>
-      <c r="M79" s="163"/>
-      <c r="N79" s="164" t="s">
+      <c r="M79" s="174"/>
+      <c r="N79" s="175" t="s">
         <v>373</v>
       </c>
-      <c r="O79" s="103" t="str">
+      <c r="O79" s="138" t="str">
         <f>VLOOKUP(N79,$C$2:$G$1027,5,FALSE)</f>
         <v>EA560-013</v>
       </c>
-      <c r="P79" s="166">
+      <c r="P79" s="177">
         <v>7262.25</v>
       </c>
-      <c r="Q79" s="168"/>
-      <c r="R79" s="160">
+      <c r="Q79" s="181"/>
+      <c r="R79" s="171">
         <v>12.6</v>
       </c>
       <c r="S79" s="66" t="s">
@@ -13638,24 +13653,24 @@
       </c>
     </row>
     <row r="80" spans="1:20" ht="15" customHeight="1">
-      <c r="A80" s="172"/>
-      <c r="B80" s="172"/>
-      <c r="C80" s="173"/>
-      <c r="D80" s="174"/>
+      <c r="A80" s="165"/>
+      <c r="B80" s="165"/>
+      <c r="C80" s="166"/>
+      <c r="D80" s="167"/>
       <c r="E80" s="53"/>
       <c r="F80" s="54"/>
-      <c r="G80" s="174"/>
-      <c r="H80" s="174"/>
-      <c r="I80" s="174"/>
-      <c r="J80" s="174"/>
-      <c r="K80" s="174"/>
-      <c r="L80" s="162"/>
-      <c r="M80" s="163"/>
-      <c r="N80" s="165"/>
-      <c r="O80" s="104"/>
-      <c r="P80" s="167"/>
-      <c r="Q80" s="169"/>
-      <c r="R80" s="161"/>
+      <c r="G80" s="167"/>
+      <c r="H80" s="167"/>
+      <c r="I80" s="167"/>
+      <c r="J80" s="167"/>
+      <c r="K80" s="167"/>
+      <c r="L80" s="173"/>
+      <c r="M80" s="174"/>
+      <c r="N80" s="176"/>
+      <c r="O80" s="140"/>
+      <c r="P80" s="178"/>
+      <c r="Q80" s="182"/>
+      <c r="R80" s="172"/>
       <c r="S80" s="68" t="s">
         <v>277</v>
       </c>
@@ -13664,16 +13679,16 @@
       </c>
     </row>
     <row r="81" spans="1:21" ht="15" customHeight="1">
-      <c r="A81" s="172" t="s">
-        <v>239</v>
-      </c>
-      <c r="B81" s="172">
+      <c r="A81" s="165" t="s">
+        <v>239</v>
+      </c>
+      <c r="B81" s="165">
         <v>1000713384</v>
       </c>
-      <c r="C81" s="173" t="s">
+      <c r="C81" s="166" t="s">
         <v>252</v>
       </c>
-      <c r="D81" s="174" t="s">
+      <c r="D81" s="167" t="s">
         <v>241</v>
       </c>
       <c r="E81" s="53">
@@ -13682,38 +13697,38 @@
       <c r="F81" s="54" t="s">
         <v>374</v>
       </c>
-      <c r="G81" s="174" t="s">
+      <c r="G81" s="167" t="s">
         <v>368</v>
       </c>
-      <c r="H81" s="174">
-        <v>0</v>
-      </c>
-      <c r="I81" s="174">
-        <v>0</v>
-      </c>
-      <c r="J81" s="174">
-        <v>0</v>
-      </c>
-      <c r="K81" s="174">
-        <v>0</v>
-      </c>
-      <c r="L81" s="162">
+      <c r="H81" s="167">
+        <v>0</v>
+      </c>
+      <c r="I81" s="167">
+        <v>0</v>
+      </c>
+      <c r="J81" s="167">
+        <v>0</v>
+      </c>
+      <c r="K81" s="167">
+        <v>0</v>
+      </c>
+      <c r="L81" s="173">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="M81" s="163"/>
-      <c r="N81" s="164" t="s">
+      <c r="M81" s="174"/>
+      <c r="N81" s="175" t="s">
         <v>375</v>
       </c>
-      <c r="O81" s="103" t="str">
+      <c r="O81" s="138" t="str">
         <f>VLOOKUP(N81,$C$2:$G$1027,5,FALSE)</f>
         <v>ED560-012</v>
       </c>
-      <c r="P81" s="166">
+      <c r="P81" s="177">
         <v>115471</v>
       </c>
-      <c r="Q81" s="168"/>
-      <c r="R81" s="170">
+      <c r="Q81" s="181"/>
+      <c r="R81" s="179">
         <v>11.5</v>
       </c>
       <c r="S81" s="70" t="s">
@@ -13724,24 +13739,24 @@
       </c>
     </row>
     <row r="82" spans="1:21" ht="15" customHeight="1">
-      <c r="A82" s="172"/>
-      <c r="B82" s="172"/>
-      <c r="C82" s="173"/>
-      <c r="D82" s="174"/>
+      <c r="A82" s="165"/>
+      <c r="B82" s="165"/>
+      <c r="C82" s="166"/>
+      <c r="D82" s="167"/>
       <c r="E82" s="53"/>
       <c r="F82" s="54"/>
-      <c r="G82" s="174"/>
-      <c r="H82" s="174"/>
-      <c r="I82" s="174"/>
-      <c r="J82" s="174"/>
-      <c r="K82" s="174"/>
-      <c r="L82" s="162"/>
-      <c r="M82" s="163"/>
-      <c r="N82" s="165"/>
-      <c r="O82" s="104"/>
-      <c r="P82" s="167"/>
-      <c r="Q82" s="169"/>
-      <c r="R82" s="171"/>
+      <c r="G82" s="167"/>
+      <c r="H82" s="167"/>
+      <c r="I82" s="167"/>
+      <c r="J82" s="167"/>
+      <c r="K82" s="167"/>
+      <c r="L82" s="173"/>
+      <c r="M82" s="174"/>
+      <c r="N82" s="176"/>
+      <c r="O82" s="140"/>
+      <c r="P82" s="178"/>
+      <c r="Q82" s="182"/>
+      <c r="R82" s="180"/>
       <c r="S82" s="72" t="s">
         <v>277</v>
       </c>
@@ -14163,16 +14178,16 @@
       </c>
     </row>
     <row r="90" spans="1:21" ht="15" customHeight="1">
-      <c r="A90" s="172" t="s">
-        <v>239</v>
-      </c>
-      <c r="B90" s="172">
+      <c r="A90" s="165" t="s">
+        <v>239</v>
+      </c>
+      <c r="B90" s="165">
         <v>1000713386</v>
       </c>
-      <c r="C90" s="173" t="s">
+      <c r="C90" s="166" t="s">
         <v>259</v>
       </c>
-      <c r="D90" s="174" t="s">
+      <c r="D90" s="167" t="s">
         <v>241</v>
       </c>
       <c r="E90" s="53">
@@ -14181,38 +14196,38 @@
       <c r="F90" s="54" t="s">
         <v>391</v>
       </c>
-      <c r="G90" s="174" t="s">
+      <c r="G90" s="167" t="s">
         <v>392</v>
       </c>
-      <c r="H90" s="174">
+      <c r="H90" s="167">
         <v>39146</v>
       </c>
-      <c r="I90" s="174">
+      <c r="I90" s="167">
         <v>55355</v>
       </c>
-      <c r="J90" s="174">
+      <c r="J90" s="167">
         <v>28133</v>
       </c>
-      <c r="K90" s="174">
+      <c r="K90" s="167">
         <v>26622</v>
       </c>
-      <c r="L90" s="162">
+      <c r="L90" s="173">
         <f t="shared" si="5"/>
         <v>37314</v>
       </c>
-      <c r="M90" s="163"/>
-      <c r="N90" s="164" t="s">
+      <c r="M90" s="174"/>
+      <c r="N90" s="175" t="s">
         <v>393</v>
       </c>
-      <c r="O90" s="103" t="str">
+      <c r="O90" s="138" t="str">
         <f t="shared" si="6"/>
         <v>EA560-030</v>
       </c>
-      <c r="P90" s="166">
+      <c r="P90" s="177">
         <v>1155</v>
       </c>
-      <c r="Q90" s="168"/>
-      <c r="R90" s="160">
+      <c r="Q90" s="181"/>
+      <c r="R90" s="171">
         <v>29.4</v>
       </c>
       <c r="S90" s="66" t="s">
@@ -14223,24 +14238,24 @@
       </c>
     </row>
     <row r="91" spans="1:21" ht="15" customHeight="1">
-      <c r="A91" s="172"/>
-      <c r="B91" s="172"/>
-      <c r="C91" s="173"/>
-      <c r="D91" s="174"/>
+      <c r="A91" s="165"/>
+      <c r="B91" s="165"/>
+      <c r="C91" s="166"/>
+      <c r="D91" s="167"/>
       <c r="E91" s="53"/>
       <c r="F91" s="54"/>
-      <c r="G91" s="174"/>
-      <c r="H91" s="174"/>
-      <c r="I91" s="174"/>
-      <c r="J91" s="174"/>
-      <c r="K91" s="174"/>
-      <c r="L91" s="162"/>
-      <c r="M91" s="163"/>
-      <c r="N91" s="165"/>
-      <c r="O91" s="104"/>
-      <c r="P91" s="167"/>
-      <c r="Q91" s="169"/>
-      <c r="R91" s="161"/>
+      <c r="G91" s="167"/>
+      <c r="H91" s="167"/>
+      <c r="I91" s="167"/>
+      <c r="J91" s="167"/>
+      <c r="K91" s="167"/>
+      <c r="L91" s="173"/>
+      <c r="M91" s="174"/>
+      <c r="N91" s="176"/>
+      <c r="O91" s="140"/>
+      <c r="P91" s="178"/>
+      <c r="Q91" s="182"/>
+      <c r="R91" s="172"/>
       <c r="S91" s="68" t="s">
         <v>277</v>
       </c>
@@ -27731,40 +27746,381 @@
   </sheetData>
   <autoFilter ref="A1:L436" xr:uid="{4F4927D9-F7C4-420E-9713-C3FC9D779C61}"/>
   <mergeCells count="433">
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="J14:J15"/>
-    <mergeCell ref="K14:K15"/>
-    <mergeCell ref="R4:T4"/>
-    <mergeCell ref="R14:R15"/>
-    <mergeCell ref="L14:L15"/>
-    <mergeCell ref="M14:M15"/>
-    <mergeCell ref="N14:N15"/>
-    <mergeCell ref="O14:O15"/>
-    <mergeCell ref="P14:P15"/>
-    <mergeCell ref="Q14:Q15"/>
-    <mergeCell ref="R17:R18"/>
-    <mergeCell ref="L17:L18"/>
-    <mergeCell ref="M17:M18"/>
-    <mergeCell ref="N17:N18"/>
-    <mergeCell ref="O17:O18"/>
-    <mergeCell ref="P17:P18"/>
-    <mergeCell ref="Q17:Q18"/>
-    <mergeCell ref="J21:J22"/>
-    <mergeCell ref="K21:K22"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="J17:J18"/>
-    <mergeCell ref="K17:K18"/>
+    <mergeCell ref="R90:R91"/>
+    <mergeCell ref="L90:L91"/>
+    <mergeCell ref="M90:M91"/>
+    <mergeCell ref="N90:N91"/>
+    <mergeCell ref="O90:O91"/>
+    <mergeCell ref="P90:P91"/>
+    <mergeCell ref="Q90:Q91"/>
+    <mergeCell ref="R81:R82"/>
+    <mergeCell ref="A90:A91"/>
+    <mergeCell ref="B90:B91"/>
+    <mergeCell ref="C90:C91"/>
+    <mergeCell ref="D90:D91"/>
+    <mergeCell ref="G90:G91"/>
+    <mergeCell ref="H90:H91"/>
+    <mergeCell ref="I90:I91"/>
+    <mergeCell ref="J90:J91"/>
+    <mergeCell ref="K90:K91"/>
+    <mergeCell ref="L81:L82"/>
+    <mergeCell ref="M81:M82"/>
+    <mergeCell ref="N81:N82"/>
+    <mergeCell ref="O81:O82"/>
+    <mergeCell ref="P81:P82"/>
+    <mergeCell ref="Q81:Q82"/>
+    <mergeCell ref="A81:A82"/>
+    <mergeCell ref="B81:B82"/>
+    <mergeCell ref="C81:C82"/>
+    <mergeCell ref="D81:D82"/>
+    <mergeCell ref="G81:G82"/>
+    <mergeCell ref="H81:H82"/>
+    <mergeCell ref="I81:I82"/>
+    <mergeCell ref="J81:J82"/>
+    <mergeCell ref="K81:K82"/>
+    <mergeCell ref="R77:R78"/>
+    <mergeCell ref="L77:L78"/>
+    <mergeCell ref="M77:M78"/>
+    <mergeCell ref="N77:N78"/>
+    <mergeCell ref="O77:O78"/>
+    <mergeCell ref="P77:P78"/>
+    <mergeCell ref="Q77:Q78"/>
+    <mergeCell ref="R79:R80"/>
+    <mergeCell ref="L79:L80"/>
+    <mergeCell ref="M79:M80"/>
+    <mergeCell ref="N79:N80"/>
+    <mergeCell ref="O79:O80"/>
+    <mergeCell ref="P79:P80"/>
+    <mergeCell ref="Q79:Q80"/>
+    <mergeCell ref="K77:K78"/>
+    <mergeCell ref="A79:A80"/>
+    <mergeCell ref="B79:B80"/>
+    <mergeCell ref="C79:C80"/>
+    <mergeCell ref="D79:D80"/>
+    <mergeCell ref="G79:G80"/>
+    <mergeCell ref="H79:H80"/>
+    <mergeCell ref="I79:I80"/>
+    <mergeCell ref="J79:J80"/>
+    <mergeCell ref="K79:K80"/>
+    <mergeCell ref="A70:A71"/>
+    <mergeCell ref="A77:A78"/>
+    <mergeCell ref="B77:B78"/>
+    <mergeCell ref="C77:C78"/>
+    <mergeCell ref="D77:D78"/>
+    <mergeCell ref="G77:G78"/>
+    <mergeCell ref="H77:H78"/>
+    <mergeCell ref="I77:I78"/>
+    <mergeCell ref="J77:J78"/>
+    <mergeCell ref="A74:A75"/>
+    <mergeCell ref="B74:B75"/>
+    <mergeCell ref="C74:C75"/>
+    <mergeCell ref="D74:D75"/>
+    <mergeCell ref="G74:G75"/>
+    <mergeCell ref="H74:H75"/>
+    <mergeCell ref="I74:I75"/>
+    <mergeCell ref="J74:J75"/>
+    <mergeCell ref="M70:M71"/>
+    <mergeCell ref="N70:N71"/>
+    <mergeCell ref="O70:O71"/>
+    <mergeCell ref="P70:P71"/>
+    <mergeCell ref="Q70:Q71"/>
+    <mergeCell ref="R74:R75"/>
+    <mergeCell ref="L74:L75"/>
+    <mergeCell ref="M74:M75"/>
+    <mergeCell ref="N74:N75"/>
+    <mergeCell ref="O74:O75"/>
+    <mergeCell ref="P74:P75"/>
+    <mergeCell ref="Q74:Q75"/>
+    <mergeCell ref="R70:R71"/>
+    <mergeCell ref="L70:L71"/>
+    <mergeCell ref="K74:K75"/>
+    <mergeCell ref="B70:B71"/>
+    <mergeCell ref="C70:C71"/>
+    <mergeCell ref="D70:D71"/>
+    <mergeCell ref="G70:G71"/>
+    <mergeCell ref="H70:H71"/>
+    <mergeCell ref="I70:I71"/>
+    <mergeCell ref="J70:J71"/>
+    <mergeCell ref="K70:K71"/>
+    <mergeCell ref="R63:R64"/>
+    <mergeCell ref="L63:L64"/>
+    <mergeCell ref="M63:M64"/>
+    <mergeCell ref="N63:N64"/>
+    <mergeCell ref="O63:O64"/>
+    <mergeCell ref="P63:P64"/>
+    <mergeCell ref="Q63:Q64"/>
+    <mergeCell ref="R67:R68"/>
+    <mergeCell ref="L67:L68"/>
+    <mergeCell ref="M67:M68"/>
+    <mergeCell ref="N67:N68"/>
+    <mergeCell ref="O67:O68"/>
+    <mergeCell ref="P67:P68"/>
+    <mergeCell ref="Q67:Q68"/>
+    <mergeCell ref="K63:K64"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="C67:C68"/>
+    <mergeCell ref="D67:D68"/>
+    <mergeCell ref="G67:G68"/>
+    <mergeCell ref="H67:H68"/>
+    <mergeCell ref="I67:I68"/>
+    <mergeCell ref="J67:J68"/>
+    <mergeCell ref="K67:K68"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="D63:D64"/>
+    <mergeCell ref="G63:G64"/>
+    <mergeCell ref="H63:H64"/>
+    <mergeCell ref="I63:I64"/>
+    <mergeCell ref="J63:J64"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="C61:C62"/>
+    <mergeCell ref="D61:D62"/>
+    <mergeCell ref="G61:G62"/>
+    <mergeCell ref="H61:H62"/>
+    <mergeCell ref="I61:I62"/>
+    <mergeCell ref="J61:J62"/>
+    <mergeCell ref="M59:M60"/>
+    <mergeCell ref="N59:N60"/>
+    <mergeCell ref="O59:O60"/>
+    <mergeCell ref="P59:P60"/>
+    <mergeCell ref="Q59:Q60"/>
+    <mergeCell ref="R61:R62"/>
+    <mergeCell ref="L61:L62"/>
+    <mergeCell ref="M61:M62"/>
+    <mergeCell ref="N61:N62"/>
+    <mergeCell ref="O61:O62"/>
+    <mergeCell ref="P61:P62"/>
+    <mergeCell ref="Q61:Q62"/>
+    <mergeCell ref="R59:R60"/>
+    <mergeCell ref="L59:L60"/>
+    <mergeCell ref="K61:K62"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="D59:D60"/>
+    <mergeCell ref="G59:G60"/>
+    <mergeCell ref="H59:H60"/>
+    <mergeCell ref="I59:I60"/>
+    <mergeCell ref="J59:J60"/>
+    <mergeCell ref="K59:K60"/>
+    <mergeCell ref="R54:R55"/>
+    <mergeCell ref="L54:L55"/>
+    <mergeCell ref="M54:M55"/>
+    <mergeCell ref="N54:N55"/>
+    <mergeCell ref="O54:O55"/>
+    <mergeCell ref="P54:P55"/>
+    <mergeCell ref="Q54:Q55"/>
+    <mergeCell ref="R56:R57"/>
+    <mergeCell ref="L56:L57"/>
+    <mergeCell ref="M56:M57"/>
+    <mergeCell ref="N56:N57"/>
+    <mergeCell ref="O56:O57"/>
+    <mergeCell ref="P56:P57"/>
+    <mergeCell ref="Q56:Q57"/>
+    <mergeCell ref="K54:K55"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="C56:C57"/>
+    <mergeCell ref="D56:D57"/>
+    <mergeCell ref="G56:G57"/>
+    <mergeCell ref="H56:H57"/>
+    <mergeCell ref="I56:I57"/>
+    <mergeCell ref="J56:J57"/>
+    <mergeCell ref="K56:K57"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="C54:C55"/>
+    <mergeCell ref="D54:D55"/>
+    <mergeCell ref="G54:G55"/>
+    <mergeCell ref="H54:H55"/>
+    <mergeCell ref="I54:I55"/>
+    <mergeCell ref="J54:J55"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="C52:C53"/>
+    <mergeCell ref="D52:D53"/>
+    <mergeCell ref="G52:G53"/>
+    <mergeCell ref="H52:H53"/>
+    <mergeCell ref="I52:I53"/>
+    <mergeCell ref="J52:J53"/>
+    <mergeCell ref="M50:M51"/>
+    <mergeCell ref="N50:N51"/>
+    <mergeCell ref="O50:O51"/>
+    <mergeCell ref="P50:P51"/>
+    <mergeCell ref="Q50:Q51"/>
+    <mergeCell ref="R52:R53"/>
+    <mergeCell ref="L52:L53"/>
+    <mergeCell ref="M52:M53"/>
+    <mergeCell ref="N52:N53"/>
+    <mergeCell ref="O52:O53"/>
+    <mergeCell ref="P52:P53"/>
+    <mergeCell ref="Q52:Q53"/>
+    <mergeCell ref="R50:R51"/>
+    <mergeCell ref="L50:L51"/>
+    <mergeCell ref="K52:K53"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="C50:C51"/>
+    <mergeCell ref="D50:D51"/>
+    <mergeCell ref="G50:G51"/>
+    <mergeCell ref="H50:H51"/>
+    <mergeCell ref="I50:I51"/>
+    <mergeCell ref="J50:J51"/>
+    <mergeCell ref="K50:K51"/>
+    <mergeCell ref="R46:R47"/>
+    <mergeCell ref="L46:L47"/>
+    <mergeCell ref="M46:M47"/>
+    <mergeCell ref="N46:N47"/>
+    <mergeCell ref="O46:O47"/>
+    <mergeCell ref="P46:P47"/>
+    <mergeCell ref="Q46:Q47"/>
+    <mergeCell ref="R48:R49"/>
+    <mergeCell ref="L48:L49"/>
+    <mergeCell ref="M48:M49"/>
+    <mergeCell ref="N48:N49"/>
+    <mergeCell ref="O48:O49"/>
+    <mergeCell ref="P48:P49"/>
+    <mergeCell ref="Q48:Q49"/>
+    <mergeCell ref="K46:K47"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="G48:G49"/>
+    <mergeCell ref="H48:H49"/>
+    <mergeCell ref="I48:I49"/>
+    <mergeCell ref="J48:J49"/>
+    <mergeCell ref="K48:K49"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="G46:G47"/>
+    <mergeCell ref="H46:H47"/>
+    <mergeCell ref="I46:I47"/>
+    <mergeCell ref="J46:J47"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="H43:H44"/>
+    <mergeCell ref="I43:I44"/>
+    <mergeCell ref="J43:J44"/>
+    <mergeCell ref="M40:M41"/>
+    <mergeCell ref="N40:N41"/>
+    <mergeCell ref="O40:O41"/>
+    <mergeCell ref="P40:P41"/>
+    <mergeCell ref="Q40:Q41"/>
+    <mergeCell ref="R43:R44"/>
+    <mergeCell ref="L43:L44"/>
+    <mergeCell ref="M43:M44"/>
+    <mergeCell ref="N43:N44"/>
+    <mergeCell ref="O43:O44"/>
+    <mergeCell ref="P43:P44"/>
+    <mergeCell ref="Q43:Q44"/>
+    <mergeCell ref="R40:R41"/>
+    <mergeCell ref="L40:L41"/>
+    <mergeCell ref="K43:K44"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="G40:G41"/>
+    <mergeCell ref="H40:H41"/>
+    <mergeCell ref="I40:I41"/>
+    <mergeCell ref="J40:J41"/>
+    <mergeCell ref="K40:K41"/>
+    <mergeCell ref="R36:R37"/>
+    <mergeCell ref="L36:L37"/>
+    <mergeCell ref="M36:M37"/>
+    <mergeCell ref="N36:N37"/>
+    <mergeCell ref="O36:O37"/>
+    <mergeCell ref="P36:P37"/>
+    <mergeCell ref="Q36:Q37"/>
+    <mergeCell ref="R38:R39"/>
+    <mergeCell ref="L38:L39"/>
+    <mergeCell ref="M38:M39"/>
+    <mergeCell ref="N38:N39"/>
+    <mergeCell ref="O38:O39"/>
+    <mergeCell ref="P38:P39"/>
+    <mergeCell ref="Q38:Q39"/>
+    <mergeCell ref="K36:K37"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="G38:G39"/>
+    <mergeCell ref="H38:H39"/>
+    <mergeCell ref="I38:I39"/>
+    <mergeCell ref="J38:J39"/>
+    <mergeCell ref="K38:K39"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="G36:G37"/>
+    <mergeCell ref="H36:H37"/>
+    <mergeCell ref="I36:I37"/>
+    <mergeCell ref="J36:J37"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="H32:H33"/>
+    <mergeCell ref="I32:I33"/>
+    <mergeCell ref="J32:J33"/>
+    <mergeCell ref="M28:M29"/>
+    <mergeCell ref="N28:N29"/>
+    <mergeCell ref="O28:O29"/>
+    <mergeCell ref="P28:P29"/>
+    <mergeCell ref="Q28:Q29"/>
+    <mergeCell ref="R32:R33"/>
+    <mergeCell ref="L32:L33"/>
+    <mergeCell ref="M32:M33"/>
+    <mergeCell ref="N32:N33"/>
+    <mergeCell ref="O32:O33"/>
+    <mergeCell ref="P32:P33"/>
+    <mergeCell ref="Q32:Q33"/>
+    <mergeCell ref="R28:R29"/>
+    <mergeCell ref="L28:L29"/>
+    <mergeCell ref="K32:K33"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="H28:H29"/>
+    <mergeCell ref="I28:I29"/>
+    <mergeCell ref="J28:J29"/>
+    <mergeCell ref="K28:K29"/>
+    <mergeCell ref="R24:R25"/>
+    <mergeCell ref="L24:L25"/>
+    <mergeCell ref="M24:M25"/>
+    <mergeCell ref="N24:N25"/>
+    <mergeCell ref="O24:O25"/>
+    <mergeCell ref="P24:P25"/>
+    <mergeCell ref="Q24:Q25"/>
+    <mergeCell ref="R26:R27"/>
+    <mergeCell ref="L26:L27"/>
+    <mergeCell ref="M26:M27"/>
+    <mergeCell ref="N26:N27"/>
+    <mergeCell ref="O26:O27"/>
+    <mergeCell ref="P26:P27"/>
+    <mergeCell ref="Q26:Q27"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="I26:I27"/>
+    <mergeCell ref="J26:J27"/>
+    <mergeCell ref="K26:K27"/>
     <mergeCell ref="R21:R22"/>
     <mergeCell ref="L21:L22"/>
     <mergeCell ref="M21:M22"/>
@@ -27789,381 +28145,40 @@
     <mergeCell ref="G21:G22"/>
     <mergeCell ref="H21:H22"/>
     <mergeCell ref="I21:I22"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="H26:H27"/>
-    <mergeCell ref="I26:I27"/>
-    <mergeCell ref="J26:J27"/>
-    <mergeCell ref="K26:K27"/>
-    <mergeCell ref="R24:R25"/>
-    <mergeCell ref="L24:L25"/>
-    <mergeCell ref="M24:M25"/>
-    <mergeCell ref="N24:N25"/>
-    <mergeCell ref="O24:O25"/>
-    <mergeCell ref="P24:P25"/>
-    <mergeCell ref="Q24:Q25"/>
-    <mergeCell ref="R26:R27"/>
-    <mergeCell ref="L26:L27"/>
-    <mergeCell ref="M26:M27"/>
-    <mergeCell ref="N26:N27"/>
-    <mergeCell ref="O26:O27"/>
-    <mergeCell ref="P26:P27"/>
-    <mergeCell ref="Q26:Q27"/>
-    <mergeCell ref="K32:K33"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="H28:H29"/>
-    <mergeCell ref="I28:I29"/>
-    <mergeCell ref="J28:J29"/>
-    <mergeCell ref="K28:K29"/>
-    <mergeCell ref="M28:M29"/>
-    <mergeCell ref="N28:N29"/>
-    <mergeCell ref="O28:O29"/>
-    <mergeCell ref="P28:P29"/>
-    <mergeCell ref="Q28:Q29"/>
-    <mergeCell ref="R32:R33"/>
-    <mergeCell ref="L32:L33"/>
-    <mergeCell ref="M32:M33"/>
-    <mergeCell ref="N32:N33"/>
-    <mergeCell ref="O32:O33"/>
-    <mergeCell ref="P32:P33"/>
-    <mergeCell ref="Q32:Q33"/>
-    <mergeCell ref="R28:R29"/>
-    <mergeCell ref="L28:L29"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="D36:D37"/>
-    <mergeCell ref="G36:G37"/>
-    <mergeCell ref="H36:H37"/>
-    <mergeCell ref="I36:I37"/>
-    <mergeCell ref="J36:J37"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="H32:H33"/>
-    <mergeCell ref="I32:I33"/>
-    <mergeCell ref="J32:J33"/>
-    <mergeCell ref="K36:K37"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="C38:C39"/>
-    <mergeCell ref="D38:D39"/>
-    <mergeCell ref="G38:G39"/>
-    <mergeCell ref="H38:H39"/>
-    <mergeCell ref="I38:I39"/>
-    <mergeCell ref="J38:J39"/>
-    <mergeCell ref="K38:K39"/>
-    <mergeCell ref="R36:R37"/>
-    <mergeCell ref="L36:L37"/>
-    <mergeCell ref="M36:M37"/>
-    <mergeCell ref="N36:N37"/>
-    <mergeCell ref="O36:O37"/>
-    <mergeCell ref="P36:P37"/>
-    <mergeCell ref="Q36:Q37"/>
-    <mergeCell ref="R38:R39"/>
-    <mergeCell ref="L38:L39"/>
-    <mergeCell ref="M38:M39"/>
-    <mergeCell ref="N38:N39"/>
-    <mergeCell ref="O38:O39"/>
-    <mergeCell ref="P38:P39"/>
-    <mergeCell ref="Q38:Q39"/>
-    <mergeCell ref="K43:K44"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="D40:D41"/>
-    <mergeCell ref="G40:G41"/>
-    <mergeCell ref="H40:H41"/>
-    <mergeCell ref="I40:I41"/>
-    <mergeCell ref="J40:J41"/>
-    <mergeCell ref="K40:K41"/>
-    <mergeCell ref="M40:M41"/>
-    <mergeCell ref="N40:N41"/>
-    <mergeCell ref="O40:O41"/>
-    <mergeCell ref="P40:P41"/>
-    <mergeCell ref="Q40:Q41"/>
-    <mergeCell ref="R43:R44"/>
-    <mergeCell ref="L43:L44"/>
-    <mergeCell ref="M43:M44"/>
-    <mergeCell ref="N43:N44"/>
-    <mergeCell ref="O43:O44"/>
-    <mergeCell ref="P43:P44"/>
-    <mergeCell ref="Q43:Q44"/>
-    <mergeCell ref="R40:R41"/>
-    <mergeCell ref="L40:L41"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="C46:C47"/>
-    <mergeCell ref="D46:D47"/>
-    <mergeCell ref="G46:G47"/>
-    <mergeCell ref="H46:H47"/>
-    <mergeCell ref="I46:I47"/>
-    <mergeCell ref="J46:J47"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="H43:H44"/>
-    <mergeCell ref="I43:I44"/>
-    <mergeCell ref="J43:J44"/>
-    <mergeCell ref="K46:K47"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="C48:C49"/>
-    <mergeCell ref="D48:D49"/>
-    <mergeCell ref="G48:G49"/>
-    <mergeCell ref="H48:H49"/>
-    <mergeCell ref="I48:I49"/>
-    <mergeCell ref="J48:J49"/>
-    <mergeCell ref="K48:K49"/>
-    <mergeCell ref="R46:R47"/>
-    <mergeCell ref="L46:L47"/>
-    <mergeCell ref="M46:M47"/>
-    <mergeCell ref="N46:N47"/>
-    <mergeCell ref="O46:O47"/>
-    <mergeCell ref="P46:P47"/>
-    <mergeCell ref="Q46:Q47"/>
-    <mergeCell ref="R48:R49"/>
-    <mergeCell ref="L48:L49"/>
-    <mergeCell ref="M48:M49"/>
-    <mergeCell ref="N48:N49"/>
-    <mergeCell ref="O48:O49"/>
-    <mergeCell ref="P48:P49"/>
-    <mergeCell ref="Q48:Q49"/>
-    <mergeCell ref="K52:K53"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="C50:C51"/>
-    <mergeCell ref="D50:D51"/>
-    <mergeCell ref="G50:G51"/>
-    <mergeCell ref="H50:H51"/>
-    <mergeCell ref="I50:I51"/>
-    <mergeCell ref="J50:J51"/>
-    <mergeCell ref="K50:K51"/>
-    <mergeCell ref="M50:M51"/>
-    <mergeCell ref="N50:N51"/>
-    <mergeCell ref="O50:O51"/>
-    <mergeCell ref="P50:P51"/>
-    <mergeCell ref="Q50:Q51"/>
-    <mergeCell ref="R52:R53"/>
-    <mergeCell ref="L52:L53"/>
-    <mergeCell ref="M52:M53"/>
-    <mergeCell ref="N52:N53"/>
-    <mergeCell ref="O52:O53"/>
-    <mergeCell ref="P52:P53"/>
-    <mergeCell ref="Q52:Q53"/>
-    <mergeCell ref="R50:R51"/>
-    <mergeCell ref="L50:L51"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="A54:A55"/>
-    <mergeCell ref="B54:B55"/>
-    <mergeCell ref="C54:C55"/>
-    <mergeCell ref="D54:D55"/>
-    <mergeCell ref="G54:G55"/>
-    <mergeCell ref="H54:H55"/>
-    <mergeCell ref="I54:I55"/>
-    <mergeCell ref="J54:J55"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="C52:C53"/>
-    <mergeCell ref="D52:D53"/>
-    <mergeCell ref="G52:G53"/>
-    <mergeCell ref="H52:H53"/>
-    <mergeCell ref="I52:I53"/>
-    <mergeCell ref="J52:J53"/>
-    <mergeCell ref="K54:K55"/>
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="B56:B57"/>
-    <mergeCell ref="C56:C57"/>
-    <mergeCell ref="D56:D57"/>
-    <mergeCell ref="G56:G57"/>
-    <mergeCell ref="H56:H57"/>
-    <mergeCell ref="I56:I57"/>
-    <mergeCell ref="J56:J57"/>
-    <mergeCell ref="K56:K57"/>
-    <mergeCell ref="R54:R55"/>
-    <mergeCell ref="L54:L55"/>
-    <mergeCell ref="M54:M55"/>
-    <mergeCell ref="N54:N55"/>
-    <mergeCell ref="O54:O55"/>
-    <mergeCell ref="P54:P55"/>
-    <mergeCell ref="Q54:Q55"/>
-    <mergeCell ref="R56:R57"/>
-    <mergeCell ref="L56:L57"/>
-    <mergeCell ref="M56:M57"/>
-    <mergeCell ref="N56:N57"/>
-    <mergeCell ref="O56:O57"/>
-    <mergeCell ref="P56:P57"/>
-    <mergeCell ref="Q56:Q57"/>
-    <mergeCell ref="K61:K62"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="C59:C60"/>
-    <mergeCell ref="D59:D60"/>
-    <mergeCell ref="G59:G60"/>
-    <mergeCell ref="H59:H60"/>
-    <mergeCell ref="I59:I60"/>
-    <mergeCell ref="J59:J60"/>
-    <mergeCell ref="K59:K60"/>
-    <mergeCell ref="M59:M60"/>
-    <mergeCell ref="N59:N60"/>
-    <mergeCell ref="O59:O60"/>
-    <mergeCell ref="P59:P60"/>
-    <mergeCell ref="Q59:Q60"/>
-    <mergeCell ref="R61:R62"/>
-    <mergeCell ref="L61:L62"/>
-    <mergeCell ref="M61:M62"/>
-    <mergeCell ref="N61:N62"/>
-    <mergeCell ref="O61:O62"/>
-    <mergeCell ref="P61:P62"/>
-    <mergeCell ref="Q61:Q62"/>
-    <mergeCell ref="R59:R60"/>
-    <mergeCell ref="L59:L60"/>
-    <mergeCell ref="A59:A60"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="C63:C64"/>
-    <mergeCell ref="D63:D64"/>
-    <mergeCell ref="G63:G64"/>
-    <mergeCell ref="H63:H64"/>
-    <mergeCell ref="I63:I64"/>
-    <mergeCell ref="J63:J64"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="C61:C62"/>
-    <mergeCell ref="D61:D62"/>
-    <mergeCell ref="G61:G62"/>
-    <mergeCell ref="H61:H62"/>
-    <mergeCell ref="I61:I62"/>
-    <mergeCell ref="J61:J62"/>
-    <mergeCell ref="K63:K64"/>
-    <mergeCell ref="A67:A68"/>
-    <mergeCell ref="B67:B68"/>
-    <mergeCell ref="C67:C68"/>
-    <mergeCell ref="D67:D68"/>
-    <mergeCell ref="G67:G68"/>
-    <mergeCell ref="H67:H68"/>
-    <mergeCell ref="I67:I68"/>
-    <mergeCell ref="J67:J68"/>
-    <mergeCell ref="K67:K68"/>
-    <mergeCell ref="R63:R64"/>
-    <mergeCell ref="L63:L64"/>
-    <mergeCell ref="M63:M64"/>
-    <mergeCell ref="N63:N64"/>
-    <mergeCell ref="O63:O64"/>
-    <mergeCell ref="P63:P64"/>
-    <mergeCell ref="Q63:Q64"/>
-    <mergeCell ref="R67:R68"/>
-    <mergeCell ref="L67:L68"/>
-    <mergeCell ref="M67:M68"/>
-    <mergeCell ref="N67:N68"/>
-    <mergeCell ref="O67:O68"/>
-    <mergeCell ref="P67:P68"/>
-    <mergeCell ref="Q67:Q68"/>
-    <mergeCell ref="K74:K75"/>
-    <mergeCell ref="B70:B71"/>
-    <mergeCell ref="C70:C71"/>
-    <mergeCell ref="D70:D71"/>
-    <mergeCell ref="G70:G71"/>
-    <mergeCell ref="H70:H71"/>
-    <mergeCell ref="I70:I71"/>
-    <mergeCell ref="J70:J71"/>
-    <mergeCell ref="K70:K71"/>
-    <mergeCell ref="M70:M71"/>
-    <mergeCell ref="N70:N71"/>
-    <mergeCell ref="O70:O71"/>
-    <mergeCell ref="P70:P71"/>
-    <mergeCell ref="Q70:Q71"/>
-    <mergeCell ref="R74:R75"/>
-    <mergeCell ref="L74:L75"/>
-    <mergeCell ref="M74:M75"/>
-    <mergeCell ref="N74:N75"/>
-    <mergeCell ref="O74:O75"/>
-    <mergeCell ref="P74:P75"/>
-    <mergeCell ref="Q74:Q75"/>
-    <mergeCell ref="R70:R71"/>
-    <mergeCell ref="L70:L71"/>
-    <mergeCell ref="A70:A71"/>
-    <mergeCell ref="A77:A78"/>
-    <mergeCell ref="B77:B78"/>
-    <mergeCell ref="C77:C78"/>
-    <mergeCell ref="D77:D78"/>
-    <mergeCell ref="G77:G78"/>
-    <mergeCell ref="H77:H78"/>
-    <mergeCell ref="I77:I78"/>
-    <mergeCell ref="J77:J78"/>
-    <mergeCell ref="A74:A75"/>
-    <mergeCell ref="B74:B75"/>
-    <mergeCell ref="C74:C75"/>
-    <mergeCell ref="D74:D75"/>
-    <mergeCell ref="G74:G75"/>
-    <mergeCell ref="H74:H75"/>
-    <mergeCell ref="I74:I75"/>
-    <mergeCell ref="J74:J75"/>
-    <mergeCell ref="A79:A80"/>
-    <mergeCell ref="B79:B80"/>
-    <mergeCell ref="C79:C80"/>
-    <mergeCell ref="D79:D80"/>
-    <mergeCell ref="G79:G80"/>
-    <mergeCell ref="H79:H80"/>
-    <mergeCell ref="I79:I80"/>
-    <mergeCell ref="J79:J80"/>
-    <mergeCell ref="K79:K80"/>
-    <mergeCell ref="B81:B82"/>
-    <mergeCell ref="C81:C82"/>
-    <mergeCell ref="D81:D82"/>
-    <mergeCell ref="G81:G82"/>
-    <mergeCell ref="H81:H82"/>
-    <mergeCell ref="I81:I82"/>
-    <mergeCell ref="J81:J82"/>
-    <mergeCell ref="K81:K82"/>
-    <mergeCell ref="R77:R78"/>
-    <mergeCell ref="L77:L78"/>
-    <mergeCell ref="M77:M78"/>
-    <mergeCell ref="N77:N78"/>
-    <mergeCell ref="O77:O78"/>
-    <mergeCell ref="P77:P78"/>
-    <mergeCell ref="Q77:Q78"/>
-    <mergeCell ref="R79:R80"/>
-    <mergeCell ref="L79:L80"/>
-    <mergeCell ref="M79:M80"/>
-    <mergeCell ref="N79:N80"/>
-    <mergeCell ref="O79:O80"/>
-    <mergeCell ref="P79:P80"/>
-    <mergeCell ref="Q79:Q80"/>
-    <mergeCell ref="K77:K78"/>
-    <mergeCell ref="R90:R91"/>
-    <mergeCell ref="L90:L91"/>
-    <mergeCell ref="M90:M91"/>
-    <mergeCell ref="N90:N91"/>
-    <mergeCell ref="O90:O91"/>
-    <mergeCell ref="P90:P91"/>
-    <mergeCell ref="Q90:Q91"/>
-    <mergeCell ref="R81:R82"/>
-    <mergeCell ref="A90:A91"/>
-    <mergeCell ref="B90:B91"/>
-    <mergeCell ref="C90:C91"/>
-    <mergeCell ref="D90:D91"/>
-    <mergeCell ref="G90:G91"/>
-    <mergeCell ref="H90:H91"/>
-    <mergeCell ref="I90:I91"/>
-    <mergeCell ref="J90:J91"/>
-    <mergeCell ref="K90:K91"/>
-    <mergeCell ref="L81:L82"/>
-    <mergeCell ref="M81:M82"/>
-    <mergeCell ref="N81:N82"/>
-    <mergeCell ref="O81:O82"/>
-    <mergeCell ref="P81:P82"/>
-    <mergeCell ref="Q81:Q82"/>
-    <mergeCell ref="A81:A82"/>
+    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="K21:K22"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="K17:K18"/>
+    <mergeCell ref="R4:T4"/>
+    <mergeCell ref="R14:R15"/>
+    <mergeCell ref="L14:L15"/>
+    <mergeCell ref="M14:M15"/>
+    <mergeCell ref="N14:N15"/>
+    <mergeCell ref="O14:O15"/>
+    <mergeCell ref="P14:P15"/>
+    <mergeCell ref="Q14:Q15"/>
+    <mergeCell ref="R17:R18"/>
+    <mergeCell ref="L17:L18"/>
+    <mergeCell ref="M17:M18"/>
+    <mergeCell ref="N17:N18"/>
+    <mergeCell ref="O17:O18"/>
+    <mergeCell ref="P17:P18"/>
+    <mergeCell ref="Q17:Q18"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="K14:K15"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -28179,9 +28194,9 @@
       <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="1.6640625" customWidth="1"/>
+    <col min="1" max="1" width="1.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:2">
@@ -28440,9 +28455,9 @@
       <selection activeCell="I5" sqref="I5:K5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="4.77734375" customWidth="1"/>
+    <col min="1" max="1" width="4.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:11">
@@ -28459,24 +28474,24 @@
       <c r="B5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="178" t="s">
+      <c r="C5" s="184" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="178"/>
-      <c r="E5" s="178"/>
-      <c r="F5" s="178" t="s">
+      <c r="D5" s="184"/>
+      <c r="E5" s="184"/>
+      <c r="F5" s="184" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="178"/>
-      <c r="H5" s="178"/>
-      <c r="I5" s="178" t="s">
+      <c r="G5" s="184"/>
+      <c r="H5" s="184"/>
+      <c r="I5" s="184" t="s">
         <v>12</v>
       </c>
-      <c r="J5" s="178"/>
-      <c r="K5" s="178"/>
+      <c r="J5" s="184"/>
+      <c r="K5" s="184"/>
     </row>
     <row r="6" spans="2:11">
-      <c r="B6" s="178" t="s">
+      <c r="B6" s="184" t="s">
         <v>13</v>
       </c>
       <c r="C6" s="3"/>
@@ -28487,7 +28502,7 @@
       <c r="K6" s="4"/>
     </row>
     <row r="7" spans="2:11">
-      <c r="B7" s="178"/>
+      <c r="B7" s="184"/>
       <c r="C7" s="3"/>
       <c r="E7" s="4"/>
       <c r="F7" s="3"/>
@@ -28496,7 +28511,7 @@
       <c r="K7" s="4"/>
     </row>
     <row r="8" spans="2:11">
-      <c r="B8" s="178"/>
+      <c r="B8" s="184"/>
       <c r="C8" s="3"/>
       <c r="E8" s="4"/>
       <c r="F8" s="3"/>
@@ -28505,7 +28520,7 @@
       <c r="K8" s="4"/>
     </row>
     <row r="9" spans="2:11">
-      <c r="B9" s="178"/>
+      <c r="B9" s="184"/>
       <c r="C9" s="3"/>
       <c r="E9" s="4"/>
       <c r="F9" s="3"/>
@@ -28514,7 +28529,7 @@
       <c r="K9" s="4"/>
     </row>
     <row r="10" spans="2:11">
-      <c r="B10" s="178"/>
+      <c r="B10" s="184"/>
       <c r="C10" s="3"/>
       <c r="E10" s="4"/>
       <c r="F10" s="3"/>
@@ -28523,7 +28538,7 @@
       <c r="K10" s="4"/>
     </row>
     <row r="11" spans="2:11">
-      <c r="B11" s="178"/>
+      <c r="B11" s="184"/>
       <c r="C11" s="3"/>
       <c r="E11" s="4"/>
       <c r="F11" s="3"/>
@@ -28532,7 +28547,7 @@
       <c r="K11" s="4"/>
     </row>
     <row r="12" spans="2:11">
-      <c r="B12" s="178"/>
+      <c r="B12" s="184"/>
       <c r="C12" s="3"/>
       <c r="E12" s="4"/>
       <c r="F12" s="3"/>
@@ -28544,21 +28559,21 @@
       <c r="B13" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="179" t="s">
+      <c r="C13" s="185" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="180"/>
-      <c r="E13" s="181"/>
-      <c r="F13" s="179" t="s">
+      <c r="D13" s="186"/>
+      <c r="E13" s="187"/>
+      <c r="F13" s="185" t="s">
         <v>15</v>
       </c>
-      <c r="G13" s="180"/>
-      <c r="H13" s="181"/>
-      <c r="I13" s="179" t="s">
+      <c r="G13" s="186"/>
+      <c r="H13" s="187"/>
+      <c r="I13" s="185" t="s">
         <v>17</v>
       </c>
-      <c r="J13" s="180"/>
-      <c r="K13" s="181"/>
+      <c r="J13" s="186"/>
+      <c r="K13" s="187"/>
     </row>
     <row r="16" spans="2:11">
       <c r="B16" t="s">
@@ -28566,77 +28581,77 @@
       </c>
     </row>
     <row r="17" spans="2:11">
-      <c r="C17" s="178" t="s">
+      <c r="C17" s="184" t="s">
         <v>18</v>
       </c>
-      <c r="D17" s="178"/>
-      <c r="E17" s="178"/>
-      <c r="F17" s="178" t="s">
+      <c r="D17" s="184"/>
+      <c r="E17" s="184"/>
+      <c r="F17" s="184" t="s">
         <v>18</v>
       </c>
-      <c r="G17" s="178"/>
-      <c r="H17" s="178"/>
-      <c r="I17" s="178" t="s">
+      <c r="G17" s="184"/>
+      <c r="H17" s="184"/>
+      <c r="I17" s="184" t="s">
         <v>20</v>
       </c>
-      <c r="J17" s="178"/>
-      <c r="K17" s="178"/>
+      <c r="J17" s="184"/>
+      <c r="K17" s="184"/>
     </row>
     <row r="18" spans="2:11">
       <c r="C18" s="3"/>
       <c r="E18" s="4"/>
       <c r="F18" s="3"/>
       <c r="H18" s="4"/>
-      <c r="I18" s="182" t="s">
+      <c r="I18" s="183" t="s">
         <v>21</v>
       </c>
-      <c r="J18" s="178"/>
-      <c r="K18" s="178"/>
+      <c r="J18" s="184"/>
+      <c r="K18" s="184"/>
     </row>
     <row r="19" spans="2:11">
       <c r="C19" s="3"/>
       <c r="E19" s="4"/>
       <c r="F19" s="3"/>
       <c r="H19" s="4"/>
-      <c r="I19" s="178"/>
-      <c r="J19" s="178"/>
-      <c r="K19" s="178"/>
+      <c r="I19" s="184"/>
+      <c r="J19" s="184"/>
+      <c r="K19" s="184"/>
     </row>
     <row r="20" spans="2:11">
       <c r="C20" s="3"/>
       <c r="E20" s="4"/>
       <c r="F20" s="3"/>
       <c r="H20" s="4"/>
-      <c r="I20" s="178"/>
-      <c r="J20" s="178"/>
-      <c r="K20" s="178"/>
+      <c r="I20" s="184"/>
+      <c r="J20" s="184"/>
+      <c r="K20" s="184"/>
     </row>
     <row r="21" spans="2:11">
       <c r="C21" s="3"/>
       <c r="E21" s="4"/>
       <c r="F21" s="3"/>
       <c r="H21" s="4"/>
-      <c r="I21" s="178"/>
-      <c r="J21" s="178"/>
-      <c r="K21" s="178"/>
+      <c r="I21" s="184"/>
+      <c r="J21" s="184"/>
+      <c r="K21" s="184"/>
     </row>
     <row r="22" spans="2:11">
       <c r="C22" s="3"/>
       <c r="E22" s="4"/>
       <c r="F22" s="3"/>
       <c r="H22" s="4"/>
-      <c r="I22" s="178"/>
-      <c r="J22" s="178"/>
-      <c r="K22" s="178"/>
+      <c r="I22" s="184"/>
+      <c r="J22" s="184"/>
+      <c r="K22" s="184"/>
     </row>
     <row r="23" spans="2:11">
       <c r="C23" s="3"/>
       <c r="E23" s="4"/>
       <c r="F23" s="3"/>
       <c r="H23" s="4"/>
-      <c r="I23" s="178"/>
-      <c r="J23" s="178"/>
-      <c r="K23" s="178"/>
+      <c r="I23" s="184"/>
+      <c r="J23" s="184"/>
+      <c r="K23" s="184"/>
     </row>
     <row r="24" spans="2:11">
       <c r="C24" s="5"/>
@@ -28645,9 +28660,9 @@
       <c r="F24" s="5"/>
       <c r="G24" s="6"/>
       <c r="H24" s="7"/>
-      <c r="I24" s="178"/>
-      <c r="J24" s="178"/>
-      <c r="K24" s="178"/>
+      <c r="I24" s="184"/>
+      <c r="J24" s="184"/>
+      <c r="K24" s="184"/>
     </row>
     <row r="25" spans="2:11">
       <c r="B25" t="s">
@@ -28656,17 +28671,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="I18:K24"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="I5:K5"/>
     <mergeCell ref="B6:B12"/>
     <mergeCell ref="C13:E13"/>
     <mergeCell ref="F13:H13"/>
     <mergeCell ref="I13:K13"/>
     <mergeCell ref="C17:E17"/>
     <mergeCell ref="I17:K17"/>
+    <mergeCell ref="I18:K24"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="I5:K5"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.31496062992125984" right="0" top="0.74803149606299213" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -28683,7 +28698,7 @@
       <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
@@ -28700,55 +28715,30 @@
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
-<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10001</Type>
-    <SequenceNumber>1000</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10002</Type>
-    <SequenceNumber>1001</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10004</Type>
-    <SequenceNumber>1002</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10006</Type>
-    <SequenceNumber>1003</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-</spe:Receivers>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_dlc_DocId xmlns="1f2acbce-507d-4236-bafb-dd339caf10cf">5DHHDUUVXKY2-2042986420-361314</_dlc_DocId>
+    <_dlc_DocIdUrl xmlns="1f2acbce-507d-4236-bafb-dd339caf10cf">
+      <Url>https://eagleburgmannbiz.sharepoint.com/sites/EBTW_SharePoint/_layouts/15/DocIdRedir.aspx?ID=5DHHDUUVXKY2-2042986420-361314</Url>
+      <Description>5DHHDUUVXKY2-2042986420-361314</Description>
+    </_dlc_DocIdUrl>
+    <TaxCatchAll xmlns="1f2acbce-507d-4236-bafb-dd339caf10cf" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="72ea5646-da08-42d2-9b63-4acfc8450068">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010058A4DEAEFC055C4EAA93454DD7E414D5" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e9bb592dca3d7278476e4a7844e69e80">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1f2acbce-507d-4236-bafb-dd339caf10cf" xmlns:ns3="72ea5646-da08-42d2-9b63-4acfc8450068" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4aaa9e60c3fb2c12b9b77fab1416f119" ns2:_="" ns3:_="">
     <xsd:import namespace="1f2acbce-507d-4236-bafb-dd339caf10cf"/>
@@ -29008,40 +28998,77 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_dlc_DocId xmlns="1f2acbce-507d-4236-bafb-dd339caf10cf">5DHHDUUVXKY2-2042986420-361314</_dlc_DocId>
-    <_dlc_DocIdUrl xmlns="1f2acbce-507d-4236-bafb-dd339caf10cf">
-      <Url>https://eagleburgmannbiz.sharepoint.com/sites/EBTW_SharePoint/_layouts/15/DocIdRedir.aspx?ID=5DHHDUUVXKY2-2042986420-361314</Url>
-      <Description>5DHHDUUVXKY2-2042986420-361314</Description>
-    </_dlc_DocIdUrl>
-    <TaxCatchAll xmlns="1f2acbce-507d-4236-bafb-dd339caf10cf" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="72ea5646-da08-42d2-9b63-4acfc8450068">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10001</Type>
+    <SequenceNumber>1000</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10002</Type>
+    <SequenceNumber>1001</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10004</Type>
+    <SequenceNumber>1002</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10006</Type>
+    <SequenceNumber>1003</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+</spe:Receivers>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BECD70E-90D6-4F15-9609-3F8E06A99056}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{20D9D493-F39A-4657-A3D4-F9744B1178A2}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F8ACF25-12D5-43B8-9BD4-3A3FC8A1AE70}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="1f2acbce-507d-4236-bafb-dd339caf10cf"/>
+    <ds:schemaRef ds:uri="07f16d7e-7fde-42e4-ad63-07fde48cd365"/>
+    <ds:schemaRef ds:uri="72ea5646-da08-42d2-9b63-4acfc8450068"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{235722B0-F705-4321-9159-58B283A2172E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -29060,22 +29087,10 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F8ACF25-12D5-43B8-9BD4-3A3FC8A1AE70}">
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BECD70E-90D6-4F15-9609-3F8E06A99056}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="1f2acbce-507d-4236-bafb-dd339caf10cf"/>
-    <ds:schemaRef ds:uri="07f16d7e-7fde-42e4-ad63-07fde48cd365"/>
-    <ds:schemaRef ds:uri="72ea5646-da08-42d2-9b63-4acfc8450068"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{20D9D493-F39A-4657-A3D4-F9744B1178A2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>